--- a/dissenyador/07.04.2020.xlsx
+++ b/dissenyador/07.04.2020.xlsx
@@ -7,11 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Listas" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="parte 0001A" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="parte 0001B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parte 0009A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parte 0009B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parte 0010A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="parte 0010B" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="CALZ">Listas!$F$2:$F$10</definedName>
@@ -1097,6 +1099,66 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook r:id="rId1">
@@ -10265,7 +10327,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0001/20</t>
+          <t>0009/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -11534,7 +11596,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0001/20</t>
+          <t>0009/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -11705,6 +11767,2493 @@
       <c r="A8" s="54" t="inlineStr">
         <is>
           <t>28</t>
+        </is>
+      </c>
+      <c r="B8" s="105">
+        <f>IF(A8="","",VLOOKUP(A8,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="101" t="n"/>
+      <c r="E8" s="117" t="n"/>
+      <c r="F8" s="101" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="101" t="n"/>
+      <c r="I8" s="117" t="n"/>
+      <c r="J8" s="101" t="n"/>
+      <c r="K8" s="117" t="n"/>
+      <c r="L8" s="101" t="n"/>
+      <c r="M8" s="117" t="n"/>
+      <c r="N8" s="101" t="n"/>
+      <c r="O8" s="116" t="n"/>
+      <c r="P8" s="116" t="n"/>
+      <c r="Q8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9">
+      <c r="A9" s="54" t="n"/>
+      <c r="B9" s="105">
+        <f>IF(A9="","",VLOOKUP(A9,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="101" t="n"/>
+      <c r="E9" s="117" t="n"/>
+      <c r="F9" s="101" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="101" t="n"/>
+      <c r="I9" s="117" t="n"/>
+      <c r="J9" s="101" t="n"/>
+      <c r="K9" s="117" t="n"/>
+      <c r="L9" s="101" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="101" t="n"/>
+      <c r="O9" s="116" t="n"/>
+      <c r="P9" s="116" t="n"/>
+      <c r="Q9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10">
+      <c r="A10" s="54" t="n"/>
+      <c r="B10" s="105">
+        <f>IF(A10="","",VLOOKUP(A10,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="101" t="n"/>
+      <c r="E10" s="117" t="n"/>
+      <c r="F10" s="101" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="101" t="n"/>
+      <c r="I10" s="117" t="n"/>
+      <c r="J10" s="101" t="n"/>
+      <c r="K10" s="117" t="n"/>
+      <c r="L10" s="101" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="101" t="n"/>
+      <c r="O10" s="116" t="n"/>
+      <c r="P10" s="116" t="n"/>
+      <c r="Q10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11">
+      <c r="A11" s="54" t="n"/>
+      <c r="B11" s="105">
+        <f>IF(A11="","",VLOOKUP(A11,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="101" t="n"/>
+      <c r="E11" s="117" t="n"/>
+      <c r="F11" s="101" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="101" t="n"/>
+      <c r="I11" s="117" t="n"/>
+      <c r="J11" s="101" t="n"/>
+      <c r="K11" s="117" t="n"/>
+      <c r="L11" s="101" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="101" t="n"/>
+      <c r="O11" s="116" t="n"/>
+      <c r="P11" s="116" t="n"/>
+      <c r="Q11" s="117" t="n"/>
+      <c r="T11" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12">
+      <c r="A12" s="54" t="n"/>
+      <c r="B12" s="105">
+        <f>IF(A12="","",VLOOKUP(A12,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="101" t="n"/>
+      <c r="E12" s="117" t="n"/>
+      <c r="F12" s="101" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="101" t="n"/>
+      <c r="I12" s="117" t="n"/>
+      <c r="J12" s="101" t="n"/>
+      <c r="K12" s="117" t="n"/>
+      <c r="L12" s="101" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="101" t="n"/>
+      <c r="O12" s="116" t="n"/>
+      <c r="P12" s="116" t="n"/>
+      <c r="Q12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="13">
+      <c r="A13" s="54" t="n"/>
+      <c r="B13" s="105">
+        <f>IF(A13="","",VLOOKUP(A13,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="101" t="n"/>
+      <c r="E13" s="117" t="n"/>
+      <c r="F13" s="101" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="101" t="n"/>
+      <c r="I13" s="117" t="n"/>
+      <c r="J13" s="101" t="n"/>
+      <c r="K13" s="117" t="n"/>
+      <c r="L13" s="101" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="101" t="n"/>
+      <c r="O13" s="116" t="n"/>
+      <c r="P13" s="116" t="n"/>
+      <c r="Q13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="14">
+      <c r="A14" s="102" t="n"/>
+      <c r="B14" s="116" t="n"/>
+      <c r="C14" s="116" t="n"/>
+      <c r="D14" s="116" t="n"/>
+      <c r="E14" s="116" t="n"/>
+      <c r="F14" s="116" t="n"/>
+      <c r="G14" s="116" t="n"/>
+      <c r="H14" s="116" t="n"/>
+      <c r="I14" s="116" t="n"/>
+      <c r="J14" s="116" t="n"/>
+      <c r="K14" s="116" t="n"/>
+      <c r="L14" s="116" t="n"/>
+      <c r="M14" s="116" t="n"/>
+      <c r="N14" s="116" t="n"/>
+      <c r="O14" s="116" t="n"/>
+      <c r="P14" s="116" t="n"/>
+      <c r="Q14" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>MAQUINARIA Y MEDIOS AUXILIARES</t>
+        </is>
+      </c>
+      <c r="B15" s="116" t="n"/>
+      <c r="C15" s="116" t="n"/>
+      <c r="D15" s="116" t="n"/>
+      <c r="E15" s="116" t="n"/>
+      <c r="F15" s="116" t="n"/>
+      <c r="G15" s="116" t="n"/>
+      <c r="H15" s="116" t="n"/>
+      <c r="I15" s="116" t="n"/>
+      <c r="J15" s="116" t="n"/>
+      <c r="K15" s="116" t="n"/>
+      <c r="L15" s="116" t="n"/>
+      <c r="M15" s="116" t="n"/>
+      <c r="N15" s="116" t="n"/>
+      <c r="O15" s="116" t="n"/>
+      <c r="P15" s="116" t="n"/>
+      <c r="Q15" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="16">
+      <c r="A16" s="55" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B16" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C16" s="117" t="n"/>
+      <c r="D16" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="117" t="n"/>
+      <c r="F16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="117" t="n"/>
+      <c r="H16" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="117" t="n"/>
+      <c r="J16" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="117" t="n"/>
+      <c r="N16" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O16" s="116" t="n"/>
+      <c r="P16" s="116" t="n"/>
+      <c r="Q16" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17">
+      <c r="A17" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B17" s="105">
+        <f>VLOOKUP(A17,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C17" s="117" t="n"/>
+      <c r="D17" s="101" t="n"/>
+      <c r="E17" s="117" t="n"/>
+      <c r="F17" s="101" t="n"/>
+      <c r="G17" s="117" t="n"/>
+      <c r="H17" s="101" t="n"/>
+      <c r="I17" s="117" t="n"/>
+      <c r="J17" s="101" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="101" t="n"/>
+      <c r="M17" s="117" t="n"/>
+      <c r="N17" s="101" t="n"/>
+      <c r="O17" s="116" t="n"/>
+      <c r="P17" s="116" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="18">
+      <c r="A18" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B18" s="105">
+        <f>VLOOKUP(A18,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C18" s="117" t="n"/>
+      <c r="D18" s="101" t="n"/>
+      <c r="E18" s="117" t="n"/>
+      <c r="F18" s="101" t="n"/>
+      <c r="G18" s="117" t="n"/>
+      <c r="H18" s="101" t="n"/>
+      <c r="I18" s="117" t="n"/>
+      <c r="J18" s="101" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="101" t="n"/>
+      <c r="M18" s="117" t="n"/>
+      <c r="N18" s="101" t="n"/>
+      <c r="O18" s="116" t="n"/>
+      <c r="P18" s="116" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19">
+      <c r="A19" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B19" s="105">
+        <f>VLOOKUP(A19,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C19" s="117" t="n"/>
+      <c r="D19" s="101" t="n"/>
+      <c r="E19" s="117" t="n"/>
+      <c r="F19" s="101" t="n"/>
+      <c r="G19" s="117" t="n"/>
+      <c r="H19" s="101" t="n"/>
+      <c r="I19" s="117" t="n"/>
+      <c r="J19" s="101" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="101" t="n"/>
+      <c r="M19" s="117" t="n"/>
+      <c r="N19" s="101" t="n"/>
+      <c r="O19" s="116" t="n"/>
+      <c r="P19" s="116" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="20">
+      <c r="A20" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="105">
+        <f>VLOOKUP(A20,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="117" t="n"/>
+      <c r="D20" s="101" t="n"/>
+      <c r="E20" s="117" t="n"/>
+      <c r="F20" s="101" t="n"/>
+      <c r="G20" s="117" t="n"/>
+      <c r="H20" s="101" t="n"/>
+      <c r="I20" s="117" t="n"/>
+      <c r="J20" s="101" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="101" t="n"/>
+      <c r="M20" s="117" t="n"/>
+      <c r="N20" s="101" t="n"/>
+      <c r="O20" s="116" t="n"/>
+      <c r="P20" s="116" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21">
+      <c r="A21" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="105">
+        <f>VLOOKUP(A21,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C21" s="117" t="n"/>
+      <c r="D21" s="101" t="n"/>
+      <c r="E21" s="117" t="n"/>
+      <c r="F21" s="101" t="n"/>
+      <c r="G21" s="117" t="n"/>
+      <c r="H21" s="101" t="n"/>
+      <c r="I21" s="117" t="n"/>
+      <c r="J21" s="101" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="101" t="n"/>
+      <c r="M21" s="117" t="n"/>
+      <c r="N21" s="101" t="n"/>
+      <c r="O21" s="116" t="n"/>
+      <c r="P21" s="116" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="22">
+      <c r="A22" s="102" t="n"/>
+      <c r="B22" s="116" t="n"/>
+      <c r="C22" s="116" t="n"/>
+      <c r="D22" s="116" t="n"/>
+      <c r="E22" s="116" t="n"/>
+      <c r="F22" s="116" t="n"/>
+      <c r="G22" s="116" t="n"/>
+      <c r="H22" s="116" t="n"/>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="116" t="n"/>
+      <c r="L22" s="116" t="n"/>
+      <c r="M22" s="116" t="n"/>
+      <c r="N22" s="116" t="n"/>
+      <c r="O22" s="116" t="n"/>
+      <c r="P22" s="116" t="n"/>
+      <c r="Q22" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="23">
+      <c r="A23" s="63" t="inlineStr">
+        <is>
+          <t>MATERIALES</t>
+        </is>
+      </c>
+      <c r="B23" s="116" t="n"/>
+      <c r="C23" s="116" t="n"/>
+      <c r="D23" s="116" t="n"/>
+      <c r="E23" s="116" t="n"/>
+      <c r="F23" s="116" t="n"/>
+      <c r="G23" s="116" t="n"/>
+      <c r="H23" s="116" t="n"/>
+      <c r="I23" s="116" t="n"/>
+      <c r="J23" s="116" t="n"/>
+      <c r="K23" s="116" t="n"/>
+      <c r="L23" s="116" t="n"/>
+      <c r="M23" s="116" t="n"/>
+      <c r="N23" s="116" t="n"/>
+      <c r="O23" s="116" t="n"/>
+      <c r="P23" s="116" t="n"/>
+      <c r="Q23" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="24">
+      <c r="A24" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B24" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="117" t="n"/>
+      <c r="F24" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="117" t="n"/>
+      <c r="H24" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="117" t="n"/>
+      <c r="J24" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="117" t="n"/>
+      <c r="L24" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="117" t="n"/>
+      <c r="N24" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="116" t="n"/>
+      <c r="Q24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="25">
+      <c r="A25" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B25" s="100">
+        <f>VLOOKUP(A25,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C25" s="117" t="n"/>
+      <c r="D25" s="101" t="n"/>
+      <c r="E25" s="117" t="n"/>
+      <c r="F25" s="101" t="n"/>
+      <c r="G25" s="117" t="n"/>
+      <c r="H25" s="101" t="n"/>
+      <c r="I25" s="117" t="n"/>
+      <c r="J25" s="101" t="n"/>
+      <c r="K25" s="117" t="n"/>
+      <c r="L25" s="101" t="n"/>
+      <c r="M25" s="117" t="n"/>
+      <c r="N25" s="101" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="116" t="n"/>
+      <c r="Q25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="26">
+      <c r="A26" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B26" s="100">
+        <f>VLOOKUP(A26,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C26" s="117" t="n"/>
+      <c r="D26" s="101" t="n"/>
+      <c r="E26" s="117" t="n"/>
+      <c r="F26" s="101" t="n"/>
+      <c r="G26" s="117" t="n"/>
+      <c r="H26" s="101" t="n"/>
+      <c r="I26" s="117" t="n"/>
+      <c r="J26" s="101" t="n"/>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="101" t="n"/>
+      <c r="M26" s="117" t="n"/>
+      <c r="N26" s="101" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="116" t="n"/>
+      <c r="Q26" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="27">
+      <c r="A27" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B27" s="100">
+        <f>VLOOKUP(A27,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="117" t="n"/>
+      <c r="D27" s="101" t="n"/>
+      <c r="E27" s="117" t="n"/>
+      <c r="F27" s="101" t="n"/>
+      <c r="G27" s="117" t="n"/>
+      <c r="H27" s="101" t="n"/>
+      <c r="I27" s="117" t="n"/>
+      <c r="J27" s="101" t="n"/>
+      <c r="K27" s="117" t="n"/>
+      <c r="L27" s="101" t="n"/>
+      <c r="M27" s="117" t="n"/>
+      <c r="N27" s="101" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="116" t="n"/>
+      <c r="Q27" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="28">
+      <c r="A28" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B28" s="100">
+        <f>VLOOKUP(A28,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C28" s="117" t="n"/>
+      <c r="D28" s="101" t="n"/>
+      <c r="E28" s="117" t="n"/>
+      <c r="F28" s="101" t="n"/>
+      <c r="G28" s="117" t="n"/>
+      <c r="H28" s="101" t="n"/>
+      <c r="I28" s="117" t="n"/>
+      <c r="J28" s="101" t="n"/>
+      <c r="K28" s="117" t="n"/>
+      <c r="L28" s="101" t="n"/>
+      <c r="M28" s="117" t="n"/>
+      <c r="N28" s="101" t="n"/>
+      <c r="O28" s="116" t="n"/>
+      <c r="P28" s="116" t="n"/>
+      <c r="Q28" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="29">
+      <c r="A29" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B29" s="100">
+        <f>VLOOKUP(A29,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="117" t="n"/>
+      <c r="D29" s="101" t="n"/>
+      <c r="E29" s="117" t="n"/>
+      <c r="F29" s="101" t="n"/>
+      <c r="G29" s="117" t="n"/>
+      <c r="H29" s="101" t="n"/>
+      <c r="I29" s="117" t="n"/>
+      <c r="J29" s="101" t="n"/>
+      <c r="K29" s="117" t="n"/>
+      <c r="L29" s="101" t="n"/>
+      <c r="M29" s="117" t="n"/>
+      <c r="N29" s="101" t="n"/>
+      <c r="O29" s="116" t="n"/>
+      <c r="P29" s="116" t="n"/>
+      <c r="Q29" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="30">
+      <c r="A30" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B30" s="100">
+        <f>VLOOKUP(A30,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="117" t="n"/>
+      <c r="D30" s="101" t="n"/>
+      <c r="E30" s="117" t="n"/>
+      <c r="F30" s="101" t="n"/>
+      <c r="G30" s="117" t="n"/>
+      <c r="H30" s="101" t="n"/>
+      <c r="I30" s="117" t="n"/>
+      <c r="J30" s="101" t="n"/>
+      <c r="K30" s="117" t="n"/>
+      <c r="L30" s="101" t="n"/>
+      <c r="M30" s="117" t="n"/>
+      <c r="N30" s="101" t="n"/>
+      <c r="O30" s="116" t="n"/>
+      <c r="P30" s="116" t="n"/>
+      <c r="Q30" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="31">
+      <c r="A31" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B31" s="100">
+        <f>VLOOKUP(A31,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="117" t="n"/>
+      <c r="D31" s="101" t="n"/>
+      <c r="E31" s="117" t="n"/>
+      <c r="F31" s="101" t="n"/>
+      <c r="G31" s="117" t="n"/>
+      <c r="H31" s="101" t="n"/>
+      <c r="I31" s="117" t="n"/>
+      <c r="J31" s="101" t="n"/>
+      <c r="K31" s="117" t="n"/>
+      <c r="L31" s="101" t="n"/>
+      <c r="M31" s="117" t="n"/>
+      <c r="N31" s="101" t="n"/>
+      <c r="O31" s="116" t="n"/>
+      <c r="P31" s="116" t="n"/>
+      <c r="Q31" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="32">
+      <c r="A32" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B32" s="100">
+        <f>VLOOKUP(A32,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="117" t="n"/>
+      <c r="D32" s="101" t="n"/>
+      <c r="E32" s="117" t="n"/>
+      <c r="F32" s="101" t="n"/>
+      <c r="G32" s="117" t="n"/>
+      <c r="H32" s="101" t="n"/>
+      <c r="I32" s="117" t="n"/>
+      <c r="J32" s="101" t="n"/>
+      <c r="K32" s="117" t="n"/>
+      <c r="L32" s="101" t="n"/>
+      <c r="M32" s="117" t="n"/>
+      <c r="N32" s="101" t="n"/>
+      <c r="O32" s="116" t="n"/>
+      <c r="P32" s="116" t="n"/>
+      <c r="Q32" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="33">
+      <c r="A33" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B33" s="100">
+        <f>VLOOKUP(A33,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="117" t="n"/>
+      <c r="D33" s="101" t="n"/>
+      <c r="E33" s="117" t="n"/>
+      <c r="F33" s="101" t="n"/>
+      <c r="G33" s="117" t="n"/>
+      <c r="H33" s="101" t="n"/>
+      <c r="I33" s="117" t="n"/>
+      <c r="J33" s="101" t="n"/>
+      <c r="K33" s="117" t="n"/>
+      <c r="L33" s="101" t="n"/>
+      <c r="M33" s="117" t="n"/>
+      <c r="N33" s="101" t="n"/>
+      <c r="O33" s="116" t="n"/>
+      <c r="P33" s="116" t="n"/>
+      <c r="Q33" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="34">
+      <c r="A34" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B34" s="100">
+        <f>VLOOKUP(A34,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C34" s="117" t="n"/>
+      <c r="D34" s="101" t="n"/>
+      <c r="E34" s="117" t="n"/>
+      <c r="F34" s="101" t="n"/>
+      <c r="G34" s="117" t="n"/>
+      <c r="H34" s="101" t="n"/>
+      <c r="I34" s="117" t="n"/>
+      <c r="J34" s="101" t="n"/>
+      <c r="K34" s="117" t="n"/>
+      <c r="L34" s="101" t="n"/>
+      <c r="M34" s="117" t="n"/>
+      <c r="N34" s="101" t="n"/>
+      <c r="O34" s="116" t="n"/>
+      <c r="P34" s="116" t="n"/>
+      <c r="Q34" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="35">
+      <c r="A35" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B35" s="100">
+        <f>VLOOKUP(A35,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C35" s="117" t="n"/>
+      <c r="D35" s="101" t="n"/>
+      <c r="E35" s="117" t="n"/>
+      <c r="F35" s="101" t="n"/>
+      <c r="G35" s="117" t="n"/>
+      <c r="H35" s="101" t="n"/>
+      <c r="I35" s="117" t="n"/>
+      <c r="J35" s="101" t="n"/>
+      <c r="K35" s="117" t="n"/>
+      <c r="L35" s="101" t="n"/>
+      <c r="M35" s="117" t="n"/>
+      <c r="N35" s="101" t="n"/>
+      <c r="O35" s="116" t="n"/>
+      <c r="P35" s="116" t="n"/>
+      <c r="Q35" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="36">
+      <c r="A36" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B36" s="100">
+        <f>VLOOKUP(A36,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C36" s="117" t="n"/>
+      <c r="D36" s="101" t="n"/>
+      <c r="E36" s="117" t="n"/>
+      <c r="F36" s="101" t="n"/>
+      <c r="G36" s="117" t="n"/>
+      <c r="H36" s="101" t="n"/>
+      <c r="I36" s="117" t="n"/>
+      <c r="J36" s="101" t="n"/>
+      <c r="K36" s="117" t="n"/>
+      <c r="L36" s="101" t="n"/>
+      <c r="M36" s="117" t="n"/>
+      <c r="N36" s="101" t="n"/>
+      <c r="O36" s="116" t="n"/>
+      <c r="P36" s="116" t="n"/>
+      <c r="Q36" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="37">
+      <c r="A37" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B37" s="100">
+        <f>VLOOKUP(A37,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C37" s="117" t="n"/>
+      <c r="D37" s="101" t="n"/>
+      <c r="E37" s="117" t="n"/>
+      <c r="F37" s="101" t="n"/>
+      <c r="G37" s="117" t="n"/>
+      <c r="H37" s="101" t="n"/>
+      <c r="I37" s="117" t="n"/>
+      <c r="J37" s="101" t="n"/>
+      <c r="K37" s="117" t="n"/>
+      <c r="L37" s="101" t="n"/>
+      <c r="M37" s="117" t="n"/>
+      <c r="N37" s="101" t="n"/>
+      <c r="O37" s="116" t="n"/>
+      <c r="P37" s="116" t="n"/>
+      <c r="Q37" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="1048576"/>
+  </sheetData>
+  <mergeCells count="203">
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.747916666666667" footer="0.511805555555555" header="0.511805555555555" left="0.433333333333333" right="0.433333333333333" top="0.354166666666667"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="97" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="49" width="3.42578125"/>
+    <col customWidth="1" max="2" min="2" style="49" width="1.5703125"/>
+    <col customWidth="1" max="3" min="3" style="49" width="5"/>
+    <col customWidth="1" max="4" min="4" style="49" width="4"/>
+    <col customWidth="1" max="5" min="5" style="49" width="13.7109375"/>
+    <col customWidth="1" max="6" min="6" style="49" width="11.5703125"/>
+    <col customWidth="1" max="7" min="7" style="49" width="4.85546875"/>
+    <col customWidth="1" max="8" min="8" style="49" width="3.7109375"/>
+    <col customWidth="1" max="9" min="9" style="49" width="7.85546875"/>
+    <col customWidth="1" max="10" min="10" style="49" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" style="49" width="5.140625"/>
+    <col customWidth="1" max="15" min="12" style="49" width="4.7109375"/>
+    <col customWidth="1" max="17" min="16" style="49" width="5.7109375"/>
+    <col customWidth="1" max="29" min="18" style="49" width="4.7109375"/>
+    <col customWidth="1" max="1025" min="30" style="49" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="21.75" r="1">
+      <c r="A1" s="89" t="n"/>
+      <c r="B1" s="114" t="n"/>
+      <c r="C1" s="114" t="n"/>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="115" t="n"/>
+      <c r="F1" s="90" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="114" t="n"/>
+      <c r="L1" s="114" t="n"/>
+      <c r="M1" s="114" t="n"/>
+      <c r="N1" s="114" t="n"/>
+      <c r="O1" s="114" t="n"/>
+      <c r="P1" s="114" t="n"/>
+      <c r="Q1" s="114" t="n"/>
+      <c r="R1" s="114" t="n"/>
+      <c r="S1" s="114" t="n"/>
+      <c r="T1" s="114" t="n"/>
+      <c r="U1" s="114" t="n"/>
+      <c r="V1" s="115" t="n"/>
+      <c r="W1" s="18" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="X1" s="19" t="n"/>
+      <c r="Y1" s="91" t="inlineStr">
+        <is>
+          <t>0010/20</t>
+        </is>
+      </c>
+      <c r="Z1" s="116" t="n"/>
+      <c r="AA1" s="116" t="n"/>
+      <c r="AB1" s="116" t="n"/>
+      <c r="AC1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2">
+      <c r="A2" s="118" t="n"/>
+      <c r="E2" s="119" t="n"/>
+      <c r="F2" s="118" t="n"/>
+      <c r="V2" s="119" t="n"/>
+      <c r="W2" s="92" t="n"/>
+      <c r="X2" s="114" t="n"/>
+      <c r="Y2" s="114" t="n"/>
+      <c r="Z2" s="114" t="n"/>
+      <c r="AA2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" s="20" t="n"/>
+      <c r="AC2" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="3">
+      <c r="A3" s="118" t="n"/>
+      <c r="E3" s="119" t="n"/>
+      <c r="F3" s="118" t="n"/>
+      <c r="V3" s="119" t="n"/>
+      <c r="W3" s="22" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="X3" s="23" t="n"/>
+      <c r="Y3" s="23" t="n"/>
+      <c r="Z3" s="23" t="n"/>
+      <c r="AA3" s="23" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="AB3" s="23" t="n"/>
+      <c r="AC3" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="4">
+      <c r="A4" s="120" t="n"/>
+      <c r="B4" s="121" t="n"/>
+      <c r="C4" s="121" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="122" t="n"/>
+      <c r="F4" s="120" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="121" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="121" t="n"/>
+      <c r="R4" s="121" t="n"/>
+      <c r="S4" s="121" t="n"/>
+      <c r="T4" s="121" t="n"/>
+      <c r="U4" s="121" t="n"/>
+      <c r="V4" s="122" t="n"/>
+      <c r="W4" s="93" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="X4" s="121" t="n"/>
+      <c r="Y4" s="121" t="n"/>
+      <c r="Z4" s="121" t="n"/>
+      <c r="AA4" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 1 de 2</t>
+        </is>
+      </c>
+      <c r="AB4" s="121" t="n"/>
+      <c r="AC4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+      <c r="S5" s="28" t="n"/>
+      <c r="T5" s="27" t="n"/>
+      <c r="U5" s="27" t="n"/>
+      <c r="V5" s="27" t="n"/>
+      <c r="W5" s="27" t="n"/>
+      <c r="X5" s="27" t="n"/>
+      <c r="Y5" s="27" t="n"/>
+      <c r="Z5" s="27" t="n"/>
+      <c r="AA5" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.5" r="6">
+      <c r="A6" s="95" t="inlineStr">
+        <is>
+          <t>NOMBRE EQUIPO</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="96" t="inlineStr">
+        <is>
+          <t>Comunicaciones</t>
+        </is>
+      </c>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="97" t="inlineStr">
+        <is>
+          <t>MATRÍCULA</t>
+        </is>
+      </c>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="97" t="inlineStr">
+        <is>
+          <t>KMS</t>
+        </is>
+      </c>
+      <c r="M6" s="99" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="116" t="n"/>
+      <c r="R6" s="116" t="n"/>
+      <c r="S6" s="116" t="n"/>
+      <c r="T6" s="116" t="n"/>
+      <c r="U6" s="116" t="n"/>
+      <c r="V6" s="116" t="n"/>
+      <c r="W6" s="116" t="n"/>
+      <c r="X6" s="116" t="n"/>
+      <c r="Y6" s="116" t="n"/>
+      <c r="Z6" s="116" t="n"/>
+      <c r="AA6" s="116" t="n"/>
+      <c r="AB6" s="116" t="n"/>
+      <c r="AC6" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="7">
+      <c r="A7" s="86" t="inlineStr">
+        <is>
+          <t>OPERACIONES</t>
+        </is>
+      </c>
+      <c r="B7" s="116" t="n"/>
+      <c r="C7" s="116" t="n"/>
+      <c r="D7" s="116" t="n"/>
+      <c r="E7" s="116" t="n"/>
+      <c r="F7" s="116" t="n"/>
+      <c r="G7" s="116" t="n"/>
+      <c r="H7" s="116" t="n"/>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="86" t="inlineStr">
+        <is>
+          <t>SITUACIÓN</t>
+        </is>
+      </c>
+      <c r="K7" s="116" t="n"/>
+      <c r="L7" s="116" t="n"/>
+      <c r="M7" s="116" t="n"/>
+      <c r="N7" s="116" t="n"/>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+      <c r="R7" s="87" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="S7" s="87" t="inlineStr">
+        <is>
+          <t>RCH</t>
+        </is>
+      </c>
+      <c r="T7" s="87" t="inlineStr">
+        <is>
+          <t>P.E.</t>
+        </is>
+      </c>
+      <c r="U7" s="88" t="inlineStr">
+        <is>
+          <t>Nº N.C. Ó INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="V7" s="88" t="inlineStr">
+        <is>
+          <t>Nº CROQUIS DE SEÑALI-ZACIÓN</t>
+        </is>
+      </c>
+      <c r="W7" s="86" t="inlineStr">
+        <is>
+          <t>MEDIDAS PREVENTIVAS*</t>
+        </is>
+      </c>
+      <c r="X7" s="116" t="n"/>
+      <c r="Y7" s="116" t="n"/>
+      <c r="Z7" s="116" t="n"/>
+      <c r="AA7" s="116" t="n"/>
+      <c r="AB7" s="116" t="n"/>
+      <c r="AC7" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="30">
+      <c r="A8" s="88" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B8" s="86" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="88" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="E8" s="116" t="n"/>
+      <c r="F8" s="116" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="88" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="I8" s="88" t="inlineStr">
+        <is>
+          <t>MEDICIÓN</t>
+        </is>
+      </c>
+      <c r="J8" s="88" t="inlineStr">
+        <is>
+          <t>CTRA.</t>
+        </is>
+      </c>
+      <c r="K8" s="88" t="inlineStr">
+        <is>
+          <t>Calz</t>
+        </is>
+      </c>
+      <c r="L8" s="88" t="inlineStr">
+        <is>
+          <t>PK al PK</t>
+        </is>
+      </c>
+      <c r="M8" s="116" t="n"/>
+      <c r="N8" s="116" t="n"/>
+      <c r="O8" s="117" t="n"/>
+      <c r="P8" s="88" t="inlineStr">
+        <is>
+          <t>HORA INICIAL</t>
+        </is>
+      </c>
+      <c r="Q8" s="88" t="inlineStr">
+        <is>
+          <t>HORA FINAL</t>
+        </is>
+      </c>
+      <c r="R8" s="123" t="n"/>
+      <c r="S8" s="123" t="n"/>
+      <c r="T8" s="123" t="n"/>
+      <c r="U8" s="123" t="n"/>
+      <c r="V8" s="123" t="n"/>
+      <c r="W8" s="88" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="X8" s="88" t="inlineStr">
+        <is>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="Y8" s="88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Z8" s="88" t="inlineStr">
+        <is>
+          <t>FIRMA DEL RESPONSABLE</t>
+        </is>
+      </c>
+      <c r="AA8" s="116" t="n"/>
+      <c r="AB8" s="116" t="n"/>
+      <c r="AC8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="9">
+      <c r="A9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="77">
+        <f>VLOOKUP(B9,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="116" t="n"/>
+      <c r="F9" s="116" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="80" t="n"/>
+      <c r="I9" s="80" t="n"/>
+      <c r="J9" s="80" t="inlineStr">
+        <is>
+          <t>C.C.</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="124" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="124" t="n"/>
+      <c r="O9" s="117" t="n"/>
+      <c r="P9" s="80" t="n"/>
+      <c r="Q9" s="80" t="n"/>
+      <c r="R9" s="33" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="80" t="n"/>
+      <c r="U9" s="125" t="n"/>
+      <c r="V9" s="33" t="n"/>
+      <c r="W9" s="33" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="33" t="n"/>
+      <c r="Z9" s="80" t="n"/>
+      <c r="AA9" s="116" t="n"/>
+      <c r="AB9" s="116" t="n"/>
+      <c r="AC9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="10">
+      <c r="A10" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="77">
+        <f>VLOOKUP(B10,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="116" t="n"/>
+      <c r="F10" s="116" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="80" t="n"/>
+      <c r="I10" s="80" t="n"/>
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="126" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="124" t="n"/>
+      <c r="O10" s="117" t="n"/>
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="80" t="n"/>
+      <c r="R10" s="33" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="80" t="n"/>
+      <c r="U10" s="125" t="n"/>
+      <c r="V10" s="33" t="n"/>
+      <c r="W10" s="33" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="33" t="n"/>
+      <c r="Z10" s="80" t="n"/>
+      <c r="AA10" s="116" t="n"/>
+      <c r="AB10" s="116" t="n"/>
+      <c r="AC10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="11">
+      <c r="A11" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="77">
+        <f>VLOOKUP(B11,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="116" t="n"/>
+      <c r="F11" s="116" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="80" t="n"/>
+      <c r="I11" s="80" t="n"/>
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="126" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="124" t="n"/>
+      <c r="O11" s="117" t="n"/>
+      <c r="P11" s="80" t="n"/>
+      <c r="Q11" s="80" t="n"/>
+      <c r="R11" s="33" t="n"/>
+      <c r="S11" s="33" t="n"/>
+      <c r="T11" s="80" t="n"/>
+      <c r="U11" s="125" t="n"/>
+      <c r="V11" s="33" t="n"/>
+      <c r="W11" s="33" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="33" t="n"/>
+      <c r="Z11" s="80" t="n"/>
+      <c r="AA11" s="116" t="n"/>
+      <c r="AB11" s="116" t="n"/>
+      <c r="AC11" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="12">
+      <c r="A12" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="77">
+        <f>VLOOKUP(B12,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E12" s="116" t="n"/>
+      <c r="F12" s="116" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="80" t="n"/>
+      <c r="I12" s="80" t="n"/>
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="126" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="124" t="n"/>
+      <c r="O12" s="117" t="n"/>
+      <c r="P12" s="80" t="n"/>
+      <c r="Q12" s="80" t="n"/>
+      <c r="R12" s="33" t="n"/>
+      <c r="S12" s="33" t="n"/>
+      <c r="T12" s="80" t="n"/>
+      <c r="U12" s="125" t="n"/>
+      <c r="V12" s="33" t="n"/>
+      <c r="W12" s="33" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="33" t="n"/>
+      <c r="Z12" s="80" t="n"/>
+      <c r="AA12" s="116" t="n"/>
+      <c r="AB12" s="116" t="n"/>
+      <c r="AC12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13">
+      <c r="A13" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="77">
+        <f>VLOOKUP(B13,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E13" s="116" t="n"/>
+      <c r="F13" s="116" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="80" t="n"/>
+      <c r="I13" s="80" t="n"/>
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="126" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="124" t="n"/>
+      <c r="O13" s="117" t="n"/>
+      <c r="P13" s="80" t="n"/>
+      <c r="Q13" s="80" t="n"/>
+      <c r="R13" s="33" t="n"/>
+      <c r="S13" s="33" t="n"/>
+      <c r="T13" s="80" t="n"/>
+      <c r="U13" s="125" t="n"/>
+      <c r="V13" s="33" t="n"/>
+      <c r="W13" s="33" t="n"/>
+      <c r="X13" s="33" t="n"/>
+      <c r="Y13" s="33" t="n"/>
+      <c r="Z13" s="80" t="n"/>
+      <c r="AA13" s="116" t="n"/>
+      <c r="AB13" s="116" t="n"/>
+      <c r="AC13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>OBSERVACIONES</t>
+        </is>
+      </c>
+      <c r="B14" s="36" t="n"/>
+      <c r="C14" s="36" t="n"/>
+      <c r="D14" s="36" t="n"/>
+      <c r="E14" s="36" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="36" t="n"/>
+      <c r="L14" s="36" t="n"/>
+      <c r="M14" s="36" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="36" t="n"/>
+      <c r="P14" s="36" t="n"/>
+      <c r="Q14" s="36" t="n"/>
+      <c r="R14" s="36" t="n"/>
+      <c r="S14" s="36" t="n"/>
+      <c r="T14" s="36" t="n"/>
+      <c r="U14" s="36" t="n"/>
+      <c r="V14" s="36" t="n"/>
+      <c r="W14" s="36" t="n"/>
+      <c r="X14" s="36" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="46.5" r="15">
+      <c r="A15" s="81" t="n"/>
+      <c r="B15" s="121" t="n"/>
+      <c r="C15" s="121" t="n"/>
+      <c r="D15" s="121" t="n"/>
+      <c r="E15" s="121" t="n"/>
+      <c r="F15" s="121" t="n"/>
+      <c r="G15" s="121" t="n"/>
+      <c r="H15" s="121" t="n"/>
+      <c r="I15" s="121" t="n"/>
+      <c r="J15" s="121" t="n"/>
+      <c r="K15" s="121" t="n"/>
+      <c r="L15" s="121" t="n"/>
+      <c r="M15" s="121" t="n"/>
+      <c r="N15" s="121" t="n"/>
+      <c r="O15" s="121" t="n"/>
+      <c r="P15" s="121" t="n"/>
+      <c r="Q15" s="121" t="n"/>
+      <c r="R15" s="121" t="n"/>
+      <c r="S15" s="121" t="n"/>
+      <c r="T15" s="121" t="n"/>
+      <c r="U15" s="121" t="n"/>
+      <c r="V15" s="121" t="n"/>
+      <c r="W15" s="121" t="n"/>
+      <c r="X15" s="121" t="n"/>
+      <c r="Y15" s="121" t="n"/>
+      <c r="Z15" s="121" t="n"/>
+      <c r="AA15" s="121" t="n"/>
+      <c r="AB15" s="121" t="n"/>
+      <c r="AC15" s="122" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="16" s="38">
+      <c r="A16" s="82" t="inlineStr">
+        <is>
+          <t>NºOP.</t>
+        </is>
+      </c>
+      <c r="B16" s="119" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>MOTIVO DEL RECHAZO</t>
+        </is>
+      </c>
+      <c r="G16" s="84" t="inlineStr">
+        <is>
+          <t>Registro entradas y salidas</t>
+        </is>
+      </c>
+      <c r="H16" s="116" t="n"/>
+      <c r="I16" s="116" t="n"/>
+      <c r="J16" s="116" t="n"/>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="M16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="N16" s="117" t="n"/>
+      <c r="O16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="P16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Q16" s="117" t="n"/>
+      <c r="R16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="S16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="T16" s="117" t="n"/>
+      <c r="U16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="V16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="W16" s="117" t="n"/>
+      <c r="X16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="Y16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Z16" s="117" t="n"/>
+      <c r="AA16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="AB16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="AC16" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="17" s="38">
+      <c r="A17" s="118" t="n"/>
+      <c r="B17" s="119" t="n"/>
+      <c r="C17" s="118" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H17" s="68">
+        <f>IF(G17="","",VLOOKUP(G17,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I17" s="116" t="n"/>
+      <c r="J17" s="116" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="127" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="117" t="n"/>
+      <c r="O17" s="69" t="n"/>
+      <c r="P17" s="69" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+      <c r="R17" s="69" t="n"/>
+      <c r="S17" s="69" t="n"/>
+      <c r="T17" s="117" t="n"/>
+      <c r="U17" s="69" t="n"/>
+      <c r="V17" s="69" t="n"/>
+      <c r="W17" s="117" t="n"/>
+      <c r="X17" s="69" t="n"/>
+      <c r="Y17" s="69" t="n"/>
+      <c r="Z17" s="117" t="n"/>
+      <c r="AA17" s="69" t="n"/>
+      <c r="AB17" s="76" t="n"/>
+      <c r="AC17" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="18" s="38">
+      <c r="A18" s="118" t="n"/>
+      <c r="B18" s="119" t="n"/>
+      <c r="C18" s="118" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="68">
+        <f>IF(G18="","",VLOOKUP(G18,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I18" s="116" t="n"/>
+      <c r="J18" s="116" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="127" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="117" t="n"/>
+      <c r="O18" s="69" t="n"/>
+      <c r="P18" s="69" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+      <c r="R18" s="69" t="n"/>
+      <c r="S18" s="69" t="n"/>
+      <c r="T18" s="117" t="n"/>
+      <c r="U18" s="69" t="n"/>
+      <c r="V18" s="69" t="n"/>
+      <c r="W18" s="117" t="n"/>
+      <c r="X18" s="69" t="n"/>
+      <c r="Y18" s="69" t="n"/>
+      <c r="Z18" s="117" t="n"/>
+      <c r="AA18" s="69" t="n"/>
+      <c r="AB18" s="76" t="n"/>
+      <c r="AC18" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="19" s="38">
+      <c r="A19" s="118" t="n"/>
+      <c r="B19" s="119" t="n"/>
+      <c r="C19" s="118" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="68">
+        <f>IF(G19="","",VLOOKUP(G19,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I19" s="116" t="n"/>
+      <c r="J19" s="116" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="127" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="117" t="n"/>
+      <c r="O19" s="69" t="n"/>
+      <c r="P19" s="69" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+      <c r="R19" s="69" t="n"/>
+      <c r="S19" s="69" t="n"/>
+      <c r="T19" s="117" t="n"/>
+      <c r="U19" s="69" t="n"/>
+      <c r="V19" s="69" t="n"/>
+      <c r="W19" s="117" t="n"/>
+      <c r="X19" s="69" t="n"/>
+      <c r="Y19" s="69" t="n"/>
+      <c r="Z19" s="117" t="n"/>
+      <c r="AA19" s="69" t="n"/>
+      <c r="AB19" s="76" t="n"/>
+      <c r="AC19" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="20" s="38">
+      <c r="A20" s="118" t="n"/>
+      <c r="B20" s="119" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="68">
+        <f>IF(G20="","",VLOOKUP(G20,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I20" s="116" t="n"/>
+      <c r="J20" s="116" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="127" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="117" t="n"/>
+      <c r="O20" s="69" t="n"/>
+      <c r="P20" s="69" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+      <c r="R20" s="69" t="n"/>
+      <c r="S20" s="69" t="n"/>
+      <c r="T20" s="117" t="n"/>
+      <c r="U20" s="69" t="n"/>
+      <c r="V20" s="69" t="n"/>
+      <c r="W20" s="117" t="n"/>
+      <c r="X20" s="69" t="n"/>
+      <c r="Y20" s="69" t="n"/>
+      <c r="Z20" s="117" t="n"/>
+      <c r="AA20" s="69" t="n"/>
+      <c r="AB20" s="76" t="n"/>
+      <c r="AC20" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="21" s="38">
+      <c r="A21" s="118" t="n"/>
+      <c r="B21" s="119" t="n"/>
+      <c r="C21" s="118" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="68">
+        <f>IF(G21="","",VLOOKUP(G21,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I21" s="116" t="n"/>
+      <c r="J21" s="116" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="127" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="117" t="n"/>
+      <c r="O21" s="69" t="n"/>
+      <c r="P21" s="69" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+      <c r="R21" s="69" t="n"/>
+      <c r="S21" s="69" t="n"/>
+      <c r="T21" s="117" t="n"/>
+      <c r="U21" s="69" t="n"/>
+      <c r="V21" s="69" t="n"/>
+      <c r="W21" s="117" t="n"/>
+      <c r="X21" s="69" t="n"/>
+      <c r="Y21" s="69" t="n"/>
+      <c r="Z21" s="117" t="n"/>
+      <c r="AA21" s="69" t="n"/>
+      <c r="AB21" s="76" t="n"/>
+      <c r="AC21" s="115" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="22">
+      <c r="A22" s="120" t="n"/>
+      <c r="B22" s="122" t="n"/>
+      <c r="C22" s="120" t="n"/>
+      <c r="D22" s="121" t="n"/>
+      <c r="E22" s="121" t="n"/>
+      <c r="F22" s="121" t="n"/>
+      <c r="G22" s="41" t="n"/>
+      <c r="H22" s="68">
+        <f>IF(G22="","",VLOOKUP(G22,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="117" t="n"/>
+      <c r="L22" s="127" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="117" t="n"/>
+      <c r="O22" s="42" t="n"/>
+      <c r="P22" s="69" t="n"/>
+      <c r="Q22" s="117" t="n"/>
+      <c r="R22" s="42" t="n"/>
+      <c r="S22" s="69" t="n"/>
+      <c r="T22" s="117" t="n"/>
+      <c r="U22" s="42" t="n"/>
+      <c r="V22" s="69" t="n"/>
+      <c r="W22" s="117" t="n"/>
+      <c r="X22" s="42" t="n"/>
+      <c r="Y22" s="69" t="n"/>
+      <c r="Z22" s="117" t="n"/>
+      <c r="AA22" s="42" t="n"/>
+      <c r="AB22" s="69" t="n"/>
+      <c r="AC22" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="23">
+      <c r="A23" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="24">
+      <c r="A24" s="63" t="inlineStr">
+        <is>
+          <t>PREPARADO</t>
+        </is>
+      </c>
+      <c r="B24" s="116" t="n"/>
+      <c r="C24" s="116" t="n"/>
+      <c r="D24" s="117" t="n"/>
+      <c r="E24" s="72" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="F24" s="71" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="G24" s="116" t="n"/>
+      <c r="H24" s="117" t="n"/>
+      <c r="I24" s="63" t="inlineStr">
+        <is>
+          <t>CUMPLIMENTADO</t>
+        </is>
+      </c>
+      <c r="J24" s="117" t="n"/>
+      <c r="K24" s="72" t="inlineStr">
+        <is>
+          <t>(Jefe de equipo)</t>
+        </is>
+      </c>
+      <c r="L24" s="116" t="n"/>
+      <c r="M24" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N24" s="116" t="n"/>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="117" t="n"/>
+      <c r="Q24" s="63" t="inlineStr">
+        <is>
+          <t>CONFORME</t>
+        </is>
+      </c>
+      <c r="R24" s="116" t="n"/>
+      <c r="S24" s="117" t="n"/>
+      <c r="T24" s="74" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="U24" s="117" t="n"/>
+      <c r="V24" s="75" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="W24" s="116" t="n"/>
+      <c r="X24" s="116" t="n"/>
+      <c r="Y24" s="116" t="n"/>
+      <c r="Z24" s="116" t="n"/>
+      <c r="AA24" s="116" t="n"/>
+      <c r="AB24" s="116" t="n"/>
+      <c r="AC24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="25">
+      <c r="A25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B25" s="116" t="n"/>
+      <c r="C25" s="116" t="n"/>
+      <c r="D25" s="117" t="n"/>
+      <c r="E25" s="128" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="F25" s="116" t="n"/>
+      <c r="G25" s="116" t="n"/>
+      <c r="H25" s="117" t="n"/>
+      <c r="I25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="J25" s="117" t="n"/>
+      <c r="K25" s="129" t="n"/>
+      <c r="L25" s="116" t="n"/>
+      <c r="M25" s="116" t="n"/>
+      <c r="N25" s="116" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="117" t="n"/>
+      <c r="Q25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="R25" s="116" t="n"/>
+      <c r="S25" s="117" t="n"/>
+      <c r="T25" s="129" t="n"/>
+      <c r="U25" s="116" t="n"/>
+      <c r="V25" s="116" t="n"/>
+      <c r="W25" s="116" t="n"/>
+      <c r="X25" s="116" t="n"/>
+      <c r="Y25" s="116" t="n"/>
+      <c r="Z25" s="116" t="n"/>
+      <c r="AA25" s="116" t="n"/>
+      <c r="AB25" s="116" t="n"/>
+      <c r="AC25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="26">
+      <c r="A26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="B26" s="116" t="n"/>
+      <c r="C26" s="116" t="n"/>
+      <c r="D26" s="117" t="n"/>
+      <c r="E26" s="66" t="n"/>
+      <c r="F26" s="116" t="n"/>
+      <c r="G26" s="116" t="n"/>
+      <c r="H26" s="117" t="n"/>
+      <c r="I26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="J26" s="117" t="n"/>
+      <c r="K26" s="67" t="n"/>
+      <c r="L26" s="116" t="n"/>
+      <c r="M26" s="116" t="n"/>
+      <c r="N26" s="116" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="117" t="n"/>
+      <c r="Q26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="R26" s="116" t="n"/>
+      <c r="S26" s="117" t="n"/>
+      <c r="T26" s="67" t="n"/>
+      <c r="U26" s="116" t="n"/>
+      <c r="V26" s="116" t="n"/>
+      <c r="W26" s="116" t="n"/>
+      <c r="X26" s="116" t="n"/>
+      <c r="Y26" s="116" t="n"/>
+      <c r="Z26" s="116" t="n"/>
+      <c r="AA26" s="116" t="n"/>
+      <c r="AB26" s="116" t="n"/>
+      <c r="AC26" s="117" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>ACP = Operación aceptada; RCH = Operación rechazada; P.E. = Punto de espera.</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="n"/>
+      <c r="C27" s="43" t="n"/>
+      <c r="D27" s="43" t="n"/>
+      <c r="E27" s="43" t="n"/>
+      <c r="F27" s="43" t="n"/>
+      <c r="G27" s="43" t="n"/>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="43" t="n"/>
+      <c r="J27" s="43" t="n"/>
+      <c r="K27" s="43" t="n"/>
+      <c r="L27" s="43" t="n"/>
+      <c r="M27" s="43" t="n"/>
+      <c r="N27" s="43" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>En el caso de que la operación sea rechazada, indicar en el apartado observaciones el motivo.</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="n"/>
+      <c r="C28" s="43" t="n"/>
+      <c r="D28" s="43" t="n"/>
+      <c r="E28" s="43" t="n"/>
+      <c r="F28" s="43" t="n"/>
+      <c r="G28" s="43" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="43" t="n"/>
+      <c r="J28" s="43" t="n"/>
+      <c r="K28" s="43" t="n"/>
+      <c r="L28" s="43" t="n"/>
+      <c r="M28" s="43" t="n"/>
+      <c r="N28" s="43" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*En el caso de no ser satisfactoria indicar el motivo en el apartado "Comentarios". </t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="n"/>
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="43" t="n"/>
+      <c r="G29" s="43" t="n"/>
+      <c r="H29" s="43" t="n"/>
+      <c r="I29" s="43" t="n"/>
+      <c r="J29" s="43" t="n"/>
+      <c r="K29" s="43" t="n"/>
+      <c r="L29" s="43" t="n"/>
+      <c r="M29" s="43" t="n"/>
+      <c r="N29" s="43" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:V4"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:AC6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="A15:AC15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="C16:F22"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="A23:AA23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:AC26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0" footer="0.511805555555555" header="0.511805555555555" left="0.118055555555556" right="0.118055555555556" top="0.236111111111111"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="landscape" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="52" width="6.5703125"/>
+    <col customWidth="1" max="2" min="2" style="52" width="15"/>
+    <col customWidth="1" max="3" min="3" style="52" width="18.85546875"/>
+    <col customWidth="1" max="4" min="4" style="52" width="4.28515625"/>
+    <col customWidth="1" max="13" min="5" style="45" width="4.28515625"/>
+    <col customWidth="1" max="14" min="14" style="52" width="2.7109375"/>
+    <col customWidth="1" max="15" min="15" style="45" width="2.28515625"/>
+    <col customWidth="1" max="16" min="16" style="52" width="4"/>
+    <col customWidth="1" max="17" min="17" style="52" width="3.85546875"/>
+    <col customWidth="1" max="1025" min="18" style="52" width="10.5703125"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="46" t="n"/>
+      <c r="B1" s="47" t="n"/>
+      <c r="C1" s="106" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="114" t="n"/>
+      <c r="F1" s="114" t="n"/>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="115" t="n"/>
+      <c r="L1" s="107" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="M1" s="116" t="n"/>
+      <c r="N1" s="108" t="inlineStr">
+        <is>
+          <t>0010/20</t>
+        </is>
+      </c>
+      <c r="O1" s="116" t="n"/>
+      <c r="P1" s="116" t="n"/>
+      <c r="Q1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="118" t="n"/>
+      <c r="K2" s="119" t="n"/>
+      <c r="L2" s="109" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="M2" s="114" t="n"/>
+      <c r="N2" s="110" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="O2" s="114" t="n"/>
+      <c r="P2" s="114" t="n"/>
+      <c r="Q2" s="21" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="n"/>
+      <c r="B3" s="49" t="n"/>
+      <c r="C3" s="118" t="n"/>
+      <c r="K3" s="119" t="n"/>
+      <c r="L3" s="130" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="O3" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 2 de 2</t>
+        </is>
+      </c>
+      <c r="Q3" s="119" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="51" t="n"/>
+      <c r="C4" s="112" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="121" t="n"/>
+      <c r="F4" s="121" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="122" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="113" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
+      <c r="H5" s="116" t="n"/>
+      <c r="I5" s="116" t="n"/>
+      <c r="J5" s="116" t="n"/>
+      <c r="K5" s="116" t="n"/>
+      <c r="L5" s="116" t="n"/>
+      <c r="M5" s="116" t="n"/>
+      <c r="N5" s="116" t="n"/>
+      <c r="O5" s="116" t="n"/>
+      <c r="P5" s="116" t="n"/>
+      <c r="Q5" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>PERSONAL</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="116" t="n"/>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="116" t="n"/>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="116" t="n"/>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="116" t="n"/>
+      <c r="M6" s="116" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="117" t="n"/>
+      <c r="R6" s="52" t="n"/>
+      <c r="S6" s="52" t="n"/>
+      <c r="T6" s="52" t="n"/>
+      <c r="U6" s="52" t="n"/>
+      <c r="V6" s="52" t="n"/>
+      <c r="W6" s="52" t="n"/>
+      <c r="X6" s="52" t="n"/>
+      <c r="Y6" s="52" t="n"/>
+      <c r="Z6" s="52" t="n"/>
+      <c r="AA6" s="52" t="n"/>
+      <c r="AB6" s="52" t="n"/>
+      <c r="AC6" s="52" t="n"/>
+      <c r="AD6" s="52" t="n"/>
+      <c r="AE6" s="52" t="n"/>
+      <c r="AF6" s="52" t="n"/>
+      <c r="AG6" s="52" t="n"/>
+      <c r="AH6" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="7">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B7" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE Y APELLIDOS</t>
+        </is>
+      </c>
+      <c r="C7" s="117" t="n"/>
+      <c r="D7" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="117" t="n"/>
+      <c r="F7" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="117" t="n"/>
+      <c r="H7" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="117" t="n"/>
+      <c r="L7" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="117" t="n"/>
+      <c r="N7" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="8">
+      <c r="A8" s="54" t="inlineStr">
+        <is>
+          <t>29</t>
         </is>
       </c>
       <c r="B8" s="105">

--- a/dissenyador/07.04.2020.xlsx
+++ b/dissenyador/07.04.2020.xlsx
@@ -7,13 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Listas" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="parte 0009A" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="parte 0009B" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="parte 0010A" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="parte 0010B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="parte 0019A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parte 0019B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parte 0020A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="parte 0020B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="parte 0021A" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="parte 0021B" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="parte 0022A" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="parte 0022B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="parte 0023A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="parte 0023B" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="CALZ">Listas!$F$2:$F$10</definedName>
@@ -1069,6 +1075,36 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -1139,6 +1175,156 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="1428750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1428750" cy="666750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1809750" cy="666750"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
@@ -10261,6 +10447,2490 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="49" width="3.42578125"/>
+    <col customWidth="1" max="2" min="2" style="49" width="1.5703125"/>
+    <col customWidth="1" max="3" min="3" style="49" width="5"/>
+    <col customWidth="1" max="4" min="4" style="49" width="4"/>
+    <col customWidth="1" max="5" min="5" style="49" width="13.7109375"/>
+    <col customWidth="1" max="6" min="6" style="49" width="11.5703125"/>
+    <col customWidth="1" max="7" min="7" style="49" width="4.85546875"/>
+    <col customWidth="1" max="8" min="8" style="49" width="3.7109375"/>
+    <col customWidth="1" max="9" min="9" style="49" width="7.85546875"/>
+    <col customWidth="1" max="10" min="10" style="49" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" style="49" width="5.140625"/>
+    <col customWidth="1" max="15" min="12" style="49" width="4.7109375"/>
+    <col customWidth="1" max="17" min="16" style="49" width="5.7109375"/>
+    <col customWidth="1" max="29" min="18" style="49" width="4.7109375"/>
+    <col customWidth="1" max="1025" min="30" style="49" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="21.75" r="1">
+      <c r="A1" s="89" t="n"/>
+      <c r="B1" s="114" t="n"/>
+      <c r="C1" s="114" t="n"/>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="115" t="n"/>
+      <c r="F1" s="90" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="114" t="n"/>
+      <c r="L1" s="114" t="n"/>
+      <c r="M1" s="114" t="n"/>
+      <c r="N1" s="114" t="n"/>
+      <c r="O1" s="114" t="n"/>
+      <c r="P1" s="114" t="n"/>
+      <c r="Q1" s="114" t="n"/>
+      <c r="R1" s="114" t="n"/>
+      <c r="S1" s="114" t="n"/>
+      <c r="T1" s="114" t="n"/>
+      <c r="U1" s="114" t="n"/>
+      <c r="V1" s="115" t="n"/>
+      <c r="W1" s="18" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="X1" s="19" t="n"/>
+      <c r="Y1" s="91" t="inlineStr">
+        <is>
+          <t>0023/20</t>
+        </is>
+      </c>
+      <c r="Z1" s="116" t="n"/>
+      <c r="AA1" s="116" t="n"/>
+      <c r="AB1" s="116" t="n"/>
+      <c r="AC1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2">
+      <c r="A2" s="118" t="n"/>
+      <c r="E2" s="119" t="n"/>
+      <c r="F2" s="118" t="n"/>
+      <c r="V2" s="119" t="n"/>
+      <c r="W2" s="92" t="n"/>
+      <c r="X2" s="114" t="n"/>
+      <c r="Y2" s="114" t="n"/>
+      <c r="Z2" s="114" t="n"/>
+      <c r="AA2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" s="20" t="n"/>
+      <c r="AC2" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="3">
+      <c r="A3" s="118" t="n"/>
+      <c r="E3" s="119" t="n"/>
+      <c r="F3" s="118" t="n"/>
+      <c r="V3" s="119" t="n"/>
+      <c r="W3" s="22" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="X3" s="23" t="n"/>
+      <c r="Y3" s="23" t="n"/>
+      <c r="Z3" s="23" t="n"/>
+      <c r="AA3" s="23" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="AB3" s="23" t="n"/>
+      <c r="AC3" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="4">
+      <c r="A4" s="120" t="n"/>
+      <c r="B4" s="121" t="n"/>
+      <c r="C4" s="121" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="122" t="n"/>
+      <c r="F4" s="120" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="121" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="121" t="n"/>
+      <c r="R4" s="121" t="n"/>
+      <c r="S4" s="121" t="n"/>
+      <c r="T4" s="121" t="n"/>
+      <c r="U4" s="121" t="n"/>
+      <c r="V4" s="122" t="n"/>
+      <c r="W4" s="93" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="X4" s="121" t="n"/>
+      <c r="Y4" s="121" t="n"/>
+      <c r="Z4" s="121" t="n"/>
+      <c r="AA4" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 1 de 2</t>
+        </is>
+      </c>
+      <c r="AB4" s="121" t="n"/>
+      <c r="AC4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+      <c r="S5" s="28" t="n"/>
+      <c r="T5" s="27" t="n"/>
+      <c r="U5" s="27" t="n"/>
+      <c r="V5" s="27" t="n"/>
+      <c r="W5" s="27" t="n"/>
+      <c r="X5" s="27" t="n"/>
+      <c r="Y5" s="27" t="n"/>
+      <c r="Z5" s="27" t="n"/>
+      <c r="AA5" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.5" r="6">
+      <c r="A6" s="95" t="inlineStr">
+        <is>
+          <t>NOMBRE EQUIPO</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="96" t="inlineStr">
+        <is>
+          <t>Vigilancia</t>
+        </is>
+      </c>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="97" t="inlineStr">
+        <is>
+          <t>MATRÍCULA</t>
+        </is>
+      </c>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="97" t="inlineStr">
+        <is>
+          <t>KMS</t>
+        </is>
+      </c>
+      <c r="M6" s="99" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="116" t="n"/>
+      <c r="R6" s="116" t="n"/>
+      <c r="S6" s="116" t="n"/>
+      <c r="T6" s="116" t="n"/>
+      <c r="U6" s="116" t="n"/>
+      <c r="V6" s="116" t="n"/>
+      <c r="W6" s="116" t="n"/>
+      <c r="X6" s="116" t="n"/>
+      <c r="Y6" s="116" t="n"/>
+      <c r="Z6" s="116" t="n"/>
+      <c r="AA6" s="116" t="n"/>
+      <c r="AB6" s="116" t="n"/>
+      <c r="AC6" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="7">
+      <c r="A7" s="86" t="inlineStr">
+        <is>
+          <t>OPERACIONES</t>
+        </is>
+      </c>
+      <c r="B7" s="116" t="n"/>
+      <c r="C7" s="116" t="n"/>
+      <c r="D7" s="116" t="n"/>
+      <c r="E7" s="116" t="n"/>
+      <c r="F7" s="116" t="n"/>
+      <c r="G7" s="116" t="n"/>
+      <c r="H7" s="116" t="n"/>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="86" t="inlineStr">
+        <is>
+          <t>SITUACIÓN</t>
+        </is>
+      </c>
+      <c r="K7" s="116" t="n"/>
+      <c r="L7" s="116" t="n"/>
+      <c r="M7" s="116" t="n"/>
+      <c r="N7" s="116" t="n"/>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+      <c r="R7" s="87" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="S7" s="87" t="inlineStr">
+        <is>
+          <t>RCH</t>
+        </is>
+      </c>
+      <c r="T7" s="87" t="inlineStr">
+        <is>
+          <t>P.E.</t>
+        </is>
+      </c>
+      <c r="U7" s="88" t="inlineStr">
+        <is>
+          <t>Nº N.C. Ó INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="V7" s="88" t="inlineStr">
+        <is>
+          <t>Nº CROQUIS DE SEÑALI-ZACIÓN</t>
+        </is>
+      </c>
+      <c r="W7" s="86" t="inlineStr">
+        <is>
+          <t>MEDIDAS PREVENTIVAS*</t>
+        </is>
+      </c>
+      <c r="X7" s="116" t="n"/>
+      <c r="Y7" s="116" t="n"/>
+      <c r="Z7" s="116" t="n"/>
+      <c r="AA7" s="116" t="n"/>
+      <c r="AB7" s="116" t="n"/>
+      <c r="AC7" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="30">
+      <c r="A8" s="88" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B8" s="86" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="88" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="E8" s="116" t="n"/>
+      <c r="F8" s="116" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="88" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="I8" s="88" t="inlineStr">
+        <is>
+          <t>MEDICIÓN</t>
+        </is>
+      </c>
+      <c r="J8" s="88" t="inlineStr">
+        <is>
+          <t>CTRA.</t>
+        </is>
+      </c>
+      <c r="K8" s="88" t="inlineStr">
+        <is>
+          <t>Calz</t>
+        </is>
+      </c>
+      <c r="L8" s="88" t="inlineStr">
+        <is>
+          <t>PK al PK</t>
+        </is>
+      </c>
+      <c r="M8" s="116" t="n"/>
+      <c r="N8" s="116" t="n"/>
+      <c r="O8" s="117" t="n"/>
+      <c r="P8" s="88" t="inlineStr">
+        <is>
+          <t>HORA INICIAL</t>
+        </is>
+      </c>
+      <c r="Q8" s="88" t="inlineStr">
+        <is>
+          <t>HORA FINAL</t>
+        </is>
+      </c>
+      <c r="R8" s="123" t="n"/>
+      <c r="S8" s="123" t="n"/>
+      <c r="T8" s="123" t="n"/>
+      <c r="U8" s="123" t="n"/>
+      <c r="V8" s="123" t="n"/>
+      <c r="W8" s="88" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="X8" s="88" t="inlineStr">
+        <is>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="Y8" s="88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Z8" s="88" t="inlineStr">
+        <is>
+          <t>FIRMA DEL RESPONSABLE</t>
+        </is>
+      </c>
+      <c r="AA8" s="116" t="n"/>
+      <c r="AB8" s="116" t="n"/>
+      <c r="AC8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="9">
+      <c r="A9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="77">
+        <f>VLOOKUP(B9,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="116" t="n"/>
+      <c r="F9" s="116" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="80" t="n"/>
+      <c r="I9" s="80" t="n"/>
+      <c r="J9" s="80" t="inlineStr">
+        <is>
+          <t>T.S.</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="124" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="124" t="n"/>
+      <c r="O9" s="117" t="n"/>
+      <c r="P9" s="80" t="n"/>
+      <c r="Q9" s="80" t="n"/>
+      <c r="R9" s="33" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="80" t="n"/>
+      <c r="U9" s="125" t="n"/>
+      <c r="V9" s="33" t="n"/>
+      <c r="W9" s="33" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="33" t="n"/>
+      <c r="Z9" s="80" t="n"/>
+      <c r="AA9" s="116" t="n"/>
+      <c r="AB9" s="116" t="n"/>
+      <c r="AC9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="10">
+      <c r="A10" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="77">
+        <f>VLOOKUP(B10,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="116" t="n"/>
+      <c r="F10" s="116" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="80" t="n"/>
+      <c r="I10" s="80" t="n"/>
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="126" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="124" t="n"/>
+      <c r="O10" s="117" t="n"/>
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="80" t="n"/>
+      <c r="R10" s="33" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="80" t="n"/>
+      <c r="U10" s="125" t="n"/>
+      <c r="V10" s="33" t="n"/>
+      <c r="W10" s="33" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="33" t="n"/>
+      <c r="Z10" s="80" t="n"/>
+      <c r="AA10" s="116" t="n"/>
+      <c r="AB10" s="116" t="n"/>
+      <c r="AC10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="11">
+      <c r="A11" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="77">
+        <f>VLOOKUP(B11,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="116" t="n"/>
+      <c r="F11" s="116" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="80" t="n"/>
+      <c r="I11" s="80" t="n"/>
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="126" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="124" t="n"/>
+      <c r="O11" s="117" t="n"/>
+      <c r="P11" s="80" t="n"/>
+      <c r="Q11" s="80" t="n"/>
+      <c r="R11" s="33" t="n"/>
+      <c r="S11" s="33" t="n"/>
+      <c r="T11" s="80" t="n"/>
+      <c r="U11" s="125" t="n"/>
+      <c r="V11" s="33" t="n"/>
+      <c r="W11" s="33" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="33" t="n"/>
+      <c r="Z11" s="80" t="n"/>
+      <c r="AA11" s="116" t="n"/>
+      <c r="AB11" s="116" t="n"/>
+      <c r="AC11" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="12">
+      <c r="A12" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="77">
+        <f>VLOOKUP(B12,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E12" s="116" t="n"/>
+      <c r="F12" s="116" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="80" t="n"/>
+      <c r="I12" s="80" t="n"/>
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="126" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="124" t="n"/>
+      <c r="O12" s="117" t="n"/>
+      <c r="P12" s="80" t="n"/>
+      <c r="Q12" s="80" t="n"/>
+      <c r="R12" s="33" t="n"/>
+      <c r="S12" s="33" t="n"/>
+      <c r="T12" s="80" t="n"/>
+      <c r="U12" s="125" t="n"/>
+      <c r="V12" s="33" t="n"/>
+      <c r="W12" s="33" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="33" t="n"/>
+      <c r="Z12" s="80" t="n"/>
+      <c r="AA12" s="116" t="n"/>
+      <c r="AB12" s="116" t="n"/>
+      <c r="AC12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13">
+      <c r="A13" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="75" t="n">
+        <v>30002</v>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="77" t="inlineStr">
+        <is>
+          <t>Atención a incidencias fuera del horario laboral</t>
+        </is>
+      </c>
+      <c r="E13" s="116" t="n"/>
+      <c r="F13" s="116" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="80" t="n"/>
+      <c r="I13" s="80" t="n"/>
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="126" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="124" t="n"/>
+      <c r="O13" s="117" t="n"/>
+      <c r="P13" s="80" t="n"/>
+      <c r="Q13" s="80" t="n"/>
+      <c r="R13" s="33" t="n"/>
+      <c r="S13" s="33" t="n"/>
+      <c r="T13" s="80" t="n"/>
+      <c r="U13" s="125" t="n"/>
+      <c r="V13" s="33" t="n"/>
+      <c r="W13" s="33" t="n"/>
+      <c r="X13" s="33" t="n"/>
+      <c r="Y13" s="33" t="n"/>
+      <c r="Z13" s="80" t="n"/>
+      <c r="AA13" s="116" t="n"/>
+      <c r="AB13" s="116" t="n"/>
+      <c r="AC13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>OBSERVACIONES</t>
+        </is>
+      </c>
+      <c r="B14" s="36" t="n"/>
+      <c r="C14" s="36" t="n"/>
+      <c r="D14" s="36" t="n"/>
+      <c r="E14" s="36" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="36" t="n"/>
+      <c r="L14" s="36" t="n"/>
+      <c r="M14" s="36" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="36" t="n"/>
+      <c r="P14" s="36" t="n"/>
+      <c r="Q14" s="36" t="n"/>
+      <c r="R14" s="36" t="n"/>
+      <c r="S14" s="36" t="n"/>
+      <c r="T14" s="36" t="n"/>
+      <c r="U14" s="36" t="n"/>
+      <c r="V14" s="36" t="n"/>
+      <c r="W14" s="36" t="n"/>
+      <c r="X14" s="36" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="46.5" r="15">
+      <c r="A15" s="81" t="n"/>
+      <c r="B15" s="121" t="n"/>
+      <c r="C15" s="121" t="n"/>
+      <c r="D15" s="121" t="n"/>
+      <c r="E15" s="121" t="n"/>
+      <c r="F15" s="121" t="n"/>
+      <c r="G15" s="121" t="n"/>
+      <c r="H15" s="121" t="n"/>
+      <c r="I15" s="121" t="n"/>
+      <c r="J15" s="121" t="n"/>
+      <c r="K15" s="121" t="n"/>
+      <c r="L15" s="121" t="n"/>
+      <c r="M15" s="121" t="n"/>
+      <c r="N15" s="121" t="n"/>
+      <c r="O15" s="121" t="n"/>
+      <c r="P15" s="121" t="n"/>
+      <c r="Q15" s="121" t="n"/>
+      <c r="R15" s="121" t="n"/>
+      <c r="S15" s="121" t="n"/>
+      <c r="T15" s="121" t="n"/>
+      <c r="U15" s="121" t="n"/>
+      <c r="V15" s="121" t="n"/>
+      <c r="W15" s="121" t="n"/>
+      <c r="X15" s="121" t="n"/>
+      <c r="Y15" s="121" t="n"/>
+      <c r="Z15" s="121" t="n"/>
+      <c r="AA15" s="121" t="n"/>
+      <c r="AB15" s="121" t="n"/>
+      <c r="AC15" s="122" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="16" s="38">
+      <c r="A16" s="82" t="inlineStr">
+        <is>
+          <t>NºOP.</t>
+        </is>
+      </c>
+      <c r="B16" s="119" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>MOTIVO DEL RECHAZO</t>
+        </is>
+      </c>
+      <c r="G16" s="84" t="inlineStr">
+        <is>
+          <t>Registro entradas y salidas</t>
+        </is>
+      </c>
+      <c r="H16" s="116" t="n"/>
+      <c r="I16" s="116" t="n"/>
+      <c r="J16" s="116" t="n"/>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="M16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="N16" s="117" t="n"/>
+      <c r="O16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="P16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Q16" s="117" t="n"/>
+      <c r="R16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="S16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="T16" s="117" t="n"/>
+      <c r="U16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="V16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="W16" s="117" t="n"/>
+      <c r="X16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="Y16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Z16" s="117" t="n"/>
+      <c r="AA16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="AB16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="AC16" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="17" s="38">
+      <c r="A17" s="118" t="n"/>
+      <c r="B17" s="119" t="n"/>
+      <c r="C17" s="118" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H17" s="68">
+        <f>IF(G17="","",VLOOKUP(G17,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I17" s="116" t="n"/>
+      <c r="J17" s="116" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="127" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="117" t="n"/>
+      <c r="O17" s="69" t="n"/>
+      <c r="P17" s="69" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+      <c r="R17" s="69" t="n"/>
+      <c r="S17" s="69" t="n"/>
+      <c r="T17" s="117" t="n"/>
+      <c r="U17" s="69" t="n"/>
+      <c r="V17" s="69" t="n"/>
+      <c r="W17" s="117" t="n"/>
+      <c r="X17" s="69" t="n"/>
+      <c r="Y17" s="69" t="n"/>
+      <c r="Z17" s="117" t="n"/>
+      <c r="AA17" s="69" t="n"/>
+      <c r="AB17" s="76" t="n"/>
+      <c r="AC17" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="18" s="38">
+      <c r="A18" s="118" t="n"/>
+      <c r="B18" s="119" t="n"/>
+      <c r="C18" s="118" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="68">
+        <f>IF(G18="","",VLOOKUP(G18,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I18" s="116" t="n"/>
+      <c r="J18" s="116" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="127" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="117" t="n"/>
+      <c r="O18" s="69" t="n"/>
+      <c r="P18" s="69" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+      <c r="R18" s="69" t="n"/>
+      <c r="S18" s="69" t="n"/>
+      <c r="T18" s="117" t="n"/>
+      <c r="U18" s="69" t="n"/>
+      <c r="V18" s="69" t="n"/>
+      <c r="W18" s="117" t="n"/>
+      <c r="X18" s="69" t="n"/>
+      <c r="Y18" s="69" t="n"/>
+      <c r="Z18" s="117" t="n"/>
+      <c r="AA18" s="69" t="n"/>
+      <c r="AB18" s="76" t="n"/>
+      <c r="AC18" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="19" s="38">
+      <c r="A19" s="118" t="n"/>
+      <c r="B19" s="119" t="n"/>
+      <c r="C19" s="118" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="68">
+        <f>IF(G19="","",VLOOKUP(G19,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I19" s="116" t="n"/>
+      <c r="J19" s="116" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="127" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="117" t="n"/>
+      <c r="O19" s="69" t="n"/>
+      <c r="P19" s="69" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+      <c r="R19" s="69" t="n"/>
+      <c r="S19" s="69" t="n"/>
+      <c r="T19" s="117" t="n"/>
+      <c r="U19" s="69" t="n"/>
+      <c r="V19" s="69" t="n"/>
+      <c r="W19" s="117" t="n"/>
+      <c r="X19" s="69" t="n"/>
+      <c r="Y19" s="69" t="n"/>
+      <c r="Z19" s="117" t="n"/>
+      <c r="AA19" s="69" t="n"/>
+      <c r="AB19" s="76" t="n"/>
+      <c r="AC19" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="20" s="38">
+      <c r="A20" s="118" t="n"/>
+      <c r="B20" s="119" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="68">
+        <f>IF(G20="","",VLOOKUP(G20,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I20" s="116" t="n"/>
+      <c r="J20" s="116" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="127" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="117" t="n"/>
+      <c r="O20" s="69" t="n"/>
+      <c r="P20" s="69" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+      <c r="R20" s="69" t="n"/>
+      <c r="S20" s="69" t="n"/>
+      <c r="T20" s="117" t="n"/>
+      <c r="U20" s="69" t="n"/>
+      <c r="V20" s="69" t="n"/>
+      <c r="W20" s="117" t="n"/>
+      <c r="X20" s="69" t="n"/>
+      <c r="Y20" s="69" t="n"/>
+      <c r="Z20" s="117" t="n"/>
+      <c r="AA20" s="69" t="n"/>
+      <c r="AB20" s="76" t="n"/>
+      <c r="AC20" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="21" s="38">
+      <c r="A21" s="118" t="n"/>
+      <c r="B21" s="119" t="n"/>
+      <c r="C21" s="118" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="68">
+        <f>IF(G21="","",VLOOKUP(G21,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I21" s="116" t="n"/>
+      <c r="J21" s="116" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="127" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="117" t="n"/>
+      <c r="O21" s="69" t="n"/>
+      <c r="P21" s="69" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+      <c r="R21" s="69" t="n"/>
+      <c r="S21" s="69" t="n"/>
+      <c r="T21" s="117" t="n"/>
+      <c r="U21" s="69" t="n"/>
+      <c r="V21" s="69" t="n"/>
+      <c r="W21" s="117" t="n"/>
+      <c r="X21" s="69" t="n"/>
+      <c r="Y21" s="69" t="n"/>
+      <c r="Z21" s="117" t="n"/>
+      <c r="AA21" s="69" t="n"/>
+      <c r="AB21" s="76" t="n"/>
+      <c r="AC21" s="115" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="22">
+      <c r="A22" s="120" t="n"/>
+      <c r="B22" s="122" t="n"/>
+      <c r="C22" s="120" t="n"/>
+      <c r="D22" s="121" t="n"/>
+      <c r="E22" s="121" t="n"/>
+      <c r="F22" s="121" t="n"/>
+      <c r="G22" s="41" t="n"/>
+      <c r="H22" s="68">
+        <f>IF(G22="","",VLOOKUP(G22,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="117" t="n"/>
+      <c r="L22" s="127" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="117" t="n"/>
+      <c r="O22" s="42" t="n"/>
+      <c r="P22" s="69" t="n"/>
+      <c r="Q22" s="117" t="n"/>
+      <c r="R22" s="42" t="n"/>
+      <c r="S22" s="69" t="n"/>
+      <c r="T22" s="117" t="n"/>
+      <c r="U22" s="42" t="n"/>
+      <c r="V22" s="69" t="n"/>
+      <c r="W22" s="117" t="n"/>
+      <c r="X22" s="42" t="n"/>
+      <c r="Y22" s="69" t="n"/>
+      <c r="Z22" s="117" t="n"/>
+      <c r="AA22" s="42" t="n"/>
+      <c r="AB22" s="69" t="n"/>
+      <c r="AC22" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="23">
+      <c r="A23" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="24">
+      <c r="A24" s="63" t="inlineStr">
+        <is>
+          <t>PREPARADO</t>
+        </is>
+      </c>
+      <c r="B24" s="116" t="n"/>
+      <c r="C24" s="116" t="n"/>
+      <c r="D24" s="117" t="n"/>
+      <c r="E24" s="72" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="F24" s="71" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="G24" s="116" t="n"/>
+      <c r="H24" s="117" t="n"/>
+      <c r="I24" s="63" t="inlineStr">
+        <is>
+          <t>CUMPLIMENTADO</t>
+        </is>
+      </c>
+      <c r="J24" s="117" t="n"/>
+      <c r="K24" s="72" t="inlineStr">
+        <is>
+          <t>(Jefe de equipo)</t>
+        </is>
+      </c>
+      <c r="L24" s="116" t="n"/>
+      <c r="M24" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N24" s="116" t="n"/>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="117" t="n"/>
+      <c r="Q24" s="63" t="inlineStr">
+        <is>
+          <t>CONFORME</t>
+        </is>
+      </c>
+      <c r="R24" s="116" t="n"/>
+      <c r="S24" s="117" t="n"/>
+      <c r="T24" s="74" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="U24" s="117" t="n"/>
+      <c r="V24" s="75" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="W24" s="116" t="n"/>
+      <c r="X24" s="116" t="n"/>
+      <c r="Y24" s="116" t="n"/>
+      <c r="Z24" s="116" t="n"/>
+      <c r="AA24" s="116" t="n"/>
+      <c r="AB24" s="116" t="n"/>
+      <c r="AC24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="25">
+      <c r="A25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B25" s="116" t="n"/>
+      <c r="C25" s="116" t="n"/>
+      <c r="D25" s="117" t="n"/>
+      <c r="E25" s="128" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="F25" s="116" t="n"/>
+      <c r="G25" s="116" t="n"/>
+      <c r="H25" s="117" t="n"/>
+      <c r="I25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="J25" s="117" t="n"/>
+      <c r="K25" s="129" t="n"/>
+      <c r="L25" s="116" t="n"/>
+      <c r="M25" s="116" t="n"/>
+      <c r="N25" s="116" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="117" t="n"/>
+      <c r="Q25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="R25" s="116" t="n"/>
+      <c r="S25" s="117" t="n"/>
+      <c r="T25" s="129" t="n"/>
+      <c r="U25" s="116" t="n"/>
+      <c r="V25" s="116" t="n"/>
+      <c r="W25" s="116" t="n"/>
+      <c r="X25" s="116" t="n"/>
+      <c r="Y25" s="116" t="n"/>
+      <c r="Z25" s="116" t="n"/>
+      <c r="AA25" s="116" t="n"/>
+      <c r="AB25" s="116" t="n"/>
+      <c r="AC25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="26">
+      <c r="A26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="B26" s="116" t="n"/>
+      <c r="C26" s="116" t="n"/>
+      <c r="D26" s="117" t="n"/>
+      <c r="E26" s="66" t="n"/>
+      <c r="F26" s="116" t="n"/>
+      <c r="G26" s="116" t="n"/>
+      <c r="H26" s="117" t="n"/>
+      <c r="I26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="J26" s="117" t="n"/>
+      <c r="K26" s="67" t="n"/>
+      <c r="L26" s="116" t="n"/>
+      <c r="M26" s="116" t="n"/>
+      <c r="N26" s="116" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="117" t="n"/>
+      <c r="Q26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="R26" s="116" t="n"/>
+      <c r="S26" s="117" t="n"/>
+      <c r="T26" s="67" t="n"/>
+      <c r="U26" s="116" t="n"/>
+      <c r="V26" s="116" t="n"/>
+      <c r="W26" s="116" t="n"/>
+      <c r="X26" s="116" t="n"/>
+      <c r="Y26" s="116" t="n"/>
+      <c r="Z26" s="116" t="n"/>
+      <c r="AA26" s="116" t="n"/>
+      <c r="AB26" s="116" t="n"/>
+      <c r="AC26" s="117" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>ACP = Operación aceptada; RCH = Operación rechazada; P.E. = Punto de espera.</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="n"/>
+      <c r="C27" s="43" t="n"/>
+      <c r="D27" s="43" t="n"/>
+      <c r="E27" s="43" t="n"/>
+      <c r="F27" s="43" t="n"/>
+      <c r="G27" s="43" t="n"/>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="43" t="n"/>
+      <c r="J27" s="43" t="n"/>
+      <c r="K27" s="43" t="n"/>
+      <c r="L27" s="43" t="n"/>
+      <c r="M27" s="43" t="n"/>
+      <c r="N27" s="43" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>En el caso de que la operación sea rechazada, indicar en el apartado observaciones el motivo.</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="n"/>
+      <c r="C28" s="43" t="n"/>
+      <c r="D28" s="43" t="n"/>
+      <c r="E28" s="43" t="n"/>
+      <c r="F28" s="43" t="n"/>
+      <c r="G28" s="43" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="43" t="n"/>
+      <c r="J28" s="43" t="n"/>
+      <c r="K28" s="43" t="n"/>
+      <c r="L28" s="43" t="n"/>
+      <c r="M28" s="43" t="n"/>
+      <c r="N28" s="43" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*En el caso de no ser satisfactoria indicar el motivo en el apartado "Comentarios". </t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="n"/>
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="43" t="n"/>
+      <c r="G29" s="43" t="n"/>
+      <c r="H29" s="43" t="n"/>
+      <c r="I29" s="43" t="n"/>
+      <c r="J29" s="43" t="n"/>
+      <c r="K29" s="43" t="n"/>
+      <c r="L29" s="43" t="n"/>
+      <c r="M29" s="43" t="n"/>
+      <c r="N29" s="43" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:V4"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:AC6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="A15:AC15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="C16:F22"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="A23:AA23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:AC26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0" footer="0.511805555555555" header="0.511805555555555" left="0.118055555555556" right="0.118055555555556" top="0.236111111111111"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="landscape" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="52" width="6.5703125"/>
+    <col customWidth="1" max="2" min="2" style="52" width="15"/>
+    <col customWidth="1" max="3" min="3" style="52" width="18.85546875"/>
+    <col customWidth="1" max="4" min="4" style="52" width="4.28515625"/>
+    <col customWidth="1" max="13" min="5" style="45" width="4.28515625"/>
+    <col customWidth="1" max="14" min="14" style="52" width="2.7109375"/>
+    <col customWidth="1" max="15" min="15" style="45" width="2.28515625"/>
+    <col customWidth="1" max="16" min="16" style="52" width="4"/>
+    <col customWidth="1" max="17" min="17" style="52" width="3.85546875"/>
+    <col customWidth="1" max="1025" min="18" style="52" width="10.5703125"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="46" t="n"/>
+      <c r="B1" s="47" t="n"/>
+      <c r="C1" s="106" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="114" t="n"/>
+      <c r="F1" s="114" t="n"/>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="115" t="n"/>
+      <c r="L1" s="107" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="M1" s="116" t="n"/>
+      <c r="N1" s="108" t="inlineStr">
+        <is>
+          <t>0023/20</t>
+        </is>
+      </c>
+      <c r="O1" s="116" t="n"/>
+      <c r="P1" s="116" t="n"/>
+      <c r="Q1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="118" t="n"/>
+      <c r="K2" s="119" t="n"/>
+      <c r="L2" s="109" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="M2" s="114" t="n"/>
+      <c r="N2" s="110" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="O2" s="114" t="n"/>
+      <c r="P2" s="114" t="n"/>
+      <c r="Q2" s="21" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="n"/>
+      <c r="B3" s="49" t="n"/>
+      <c r="C3" s="118" t="n"/>
+      <c r="K3" s="119" t="n"/>
+      <c r="L3" s="130" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="O3" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 2 de 2</t>
+        </is>
+      </c>
+      <c r="Q3" s="119" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="51" t="n"/>
+      <c r="C4" s="112" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="121" t="n"/>
+      <c r="F4" s="121" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="122" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="113" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
+      <c r="H5" s="116" t="n"/>
+      <c r="I5" s="116" t="n"/>
+      <c r="J5" s="116" t="n"/>
+      <c r="K5" s="116" t="n"/>
+      <c r="L5" s="116" t="n"/>
+      <c r="M5" s="116" t="n"/>
+      <c r="N5" s="116" t="n"/>
+      <c r="O5" s="116" t="n"/>
+      <c r="P5" s="116" t="n"/>
+      <c r="Q5" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>PERSONAL</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="116" t="n"/>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="116" t="n"/>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="116" t="n"/>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="116" t="n"/>
+      <c r="M6" s="116" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="117" t="n"/>
+      <c r="R6" s="52" t="n"/>
+      <c r="S6" s="52" t="n"/>
+      <c r="T6" s="52" t="n"/>
+      <c r="U6" s="52" t="n"/>
+      <c r="V6" s="52" t="n"/>
+      <c r="W6" s="52" t="n"/>
+      <c r="X6" s="52" t="n"/>
+      <c r="Y6" s="52" t="n"/>
+      <c r="Z6" s="52" t="n"/>
+      <c r="AA6" s="52" t="n"/>
+      <c r="AB6" s="52" t="n"/>
+      <c r="AC6" s="52" t="n"/>
+      <c r="AD6" s="52" t="n"/>
+      <c r="AE6" s="52" t="n"/>
+      <c r="AF6" s="52" t="n"/>
+      <c r="AG6" s="52" t="n"/>
+      <c r="AH6" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="7">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B7" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE Y APELLIDOS</t>
+        </is>
+      </c>
+      <c r="C7" s="117" t="n"/>
+      <c r="D7" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="117" t="n"/>
+      <c r="F7" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="117" t="n"/>
+      <c r="H7" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="117" t="n"/>
+      <c r="L7" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="117" t="n"/>
+      <c r="N7" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="8">
+      <c r="A8" s="54" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B8" s="105">
+        <f>IF(A8="","",VLOOKUP(A8,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="101" t="n"/>
+      <c r="E8" s="117" t="n"/>
+      <c r="F8" s="101" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="101" t="n"/>
+      <c r="I8" s="117" t="n"/>
+      <c r="J8" s="101" t="n"/>
+      <c r="K8" s="117" t="n"/>
+      <c r="L8" s="101" t="n"/>
+      <c r="M8" s="117" t="n"/>
+      <c r="N8" s="101" t="n"/>
+      <c r="O8" s="116" t="n"/>
+      <c r="P8" s="116" t="n"/>
+      <c r="Q8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9">
+      <c r="A9" s="54" t="n"/>
+      <c r="B9" s="105">
+        <f>IF(A9="","",VLOOKUP(A9,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="101" t="n"/>
+      <c r="E9" s="117" t="n"/>
+      <c r="F9" s="101" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="101" t="n"/>
+      <c r="I9" s="117" t="n"/>
+      <c r="J9" s="101" t="n"/>
+      <c r="K9" s="117" t="n"/>
+      <c r="L9" s="101" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="101" t="n"/>
+      <c r="O9" s="116" t="n"/>
+      <c r="P9" s="116" t="n"/>
+      <c r="Q9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10">
+      <c r="A10" s="54" t="n"/>
+      <c r="B10" s="105">
+        <f>IF(A10="","",VLOOKUP(A10,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="101" t="n"/>
+      <c r="E10" s="117" t="n"/>
+      <c r="F10" s="101" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="101" t="n"/>
+      <c r="I10" s="117" t="n"/>
+      <c r="J10" s="101" t="n"/>
+      <c r="K10" s="117" t="n"/>
+      <c r="L10" s="101" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="101" t="n"/>
+      <c r="O10" s="116" t="n"/>
+      <c r="P10" s="116" t="n"/>
+      <c r="Q10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11">
+      <c r="A11" s="54" t="n"/>
+      <c r="B11" s="105">
+        <f>IF(A11="","",VLOOKUP(A11,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="101" t="n"/>
+      <c r="E11" s="117" t="n"/>
+      <c r="F11" s="101" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="101" t="n"/>
+      <c r="I11" s="117" t="n"/>
+      <c r="J11" s="101" t="n"/>
+      <c r="K11" s="117" t="n"/>
+      <c r="L11" s="101" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="101" t="n"/>
+      <c r="O11" s="116" t="n"/>
+      <c r="P11" s="116" t="n"/>
+      <c r="Q11" s="117" t="n"/>
+      <c r="T11" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12">
+      <c r="A12" s="54" t="n"/>
+      <c r="B12" s="105">
+        <f>IF(A12="","",VLOOKUP(A12,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="101" t="n"/>
+      <c r="E12" s="117" t="n"/>
+      <c r="F12" s="101" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="101" t="n"/>
+      <c r="I12" s="117" t="n"/>
+      <c r="J12" s="101" t="n"/>
+      <c r="K12" s="117" t="n"/>
+      <c r="L12" s="101" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="101" t="n"/>
+      <c r="O12" s="116" t="n"/>
+      <c r="P12" s="116" t="n"/>
+      <c r="Q12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="13">
+      <c r="A13" s="54" t="n"/>
+      <c r="B13" s="105">
+        <f>IF(A13="","",VLOOKUP(A13,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="101" t="n"/>
+      <c r="E13" s="117" t="n"/>
+      <c r="F13" s="101" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="101" t="n"/>
+      <c r="I13" s="117" t="n"/>
+      <c r="J13" s="101" t="n"/>
+      <c r="K13" s="117" t="n"/>
+      <c r="L13" s="101" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="101" t="n"/>
+      <c r="O13" s="116" t="n"/>
+      <c r="P13" s="116" t="n"/>
+      <c r="Q13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="14">
+      <c r="A14" s="102" t="n"/>
+      <c r="B14" s="116" t="n"/>
+      <c r="C14" s="116" t="n"/>
+      <c r="D14" s="116" t="n"/>
+      <c r="E14" s="116" t="n"/>
+      <c r="F14" s="116" t="n"/>
+      <c r="G14" s="116" t="n"/>
+      <c r="H14" s="116" t="n"/>
+      <c r="I14" s="116" t="n"/>
+      <c r="J14" s="116" t="n"/>
+      <c r="K14" s="116" t="n"/>
+      <c r="L14" s="116" t="n"/>
+      <c r="M14" s="116" t="n"/>
+      <c r="N14" s="116" t="n"/>
+      <c r="O14" s="116" t="n"/>
+      <c r="P14" s="116" t="n"/>
+      <c r="Q14" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>MAQUINARIA Y MEDIOS AUXILIARES</t>
+        </is>
+      </c>
+      <c r="B15" s="116" t="n"/>
+      <c r="C15" s="116" t="n"/>
+      <c r="D15" s="116" t="n"/>
+      <c r="E15" s="116" t="n"/>
+      <c r="F15" s="116" t="n"/>
+      <c r="G15" s="116" t="n"/>
+      <c r="H15" s="116" t="n"/>
+      <c r="I15" s="116" t="n"/>
+      <c r="J15" s="116" t="n"/>
+      <c r="K15" s="116" t="n"/>
+      <c r="L15" s="116" t="n"/>
+      <c r="M15" s="116" t="n"/>
+      <c r="N15" s="116" t="n"/>
+      <c r="O15" s="116" t="n"/>
+      <c r="P15" s="116" t="n"/>
+      <c r="Q15" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="16">
+      <c r="A16" s="55" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B16" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C16" s="117" t="n"/>
+      <c r="D16" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="117" t="n"/>
+      <c r="F16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="117" t="n"/>
+      <c r="H16" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="117" t="n"/>
+      <c r="J16" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="117" t="n"/>
+      <c r="N16" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O16" s="116" t="n"/>
+      <c r="P16" s="116" t="n"/>
+      <c r="Q16" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17">
+      <c r="A17" s="54" t="n">
+        <v>203</v>
+      </c>
+      <c r="B17" s="105">
+        <f>VLOOKUP(A17,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C17" s="117" t="n"/>
+      <c r="D17" s="101" t="n"/>
+      <c r="E17" s="117" t="n"/>
+      <c r="F17" s="101" t="n"/>
+      <c r="G17" s="117" t="n"/>
+      <c r="H17" s="101" t="n"/>
+      <c r="I17" s="117" t="n"/>
+      <c r="J17" s="101" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="101" t="n"/>
+      <c r="M17" s="117" t="n"/>
+      <c r="N17" s="101" t="n"/>
+      <c r="O17" s="116" t="n"/>
+      <c r="P17" s="116" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="18">
+      <c r="A18" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B18" s="105">
+        <f>VLOOKUP(A18,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C18" s="117" t="n"/>
+      <c r="D18" s="101" t="n"/>
+      <c r="E18" s="117" t="n"/>
+      <c r="F18" s="101" t="n"/>
+      <c r="G18" s="117" t="n"/>
+      <c r="H18" s="101" t="n"/>
+      <c r="I18" s="117" t="n"/>
+      <c r="J18" s="101" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="101" t="n"/>
+      <c r="M18" s="117" t="n"/>
+      <c r="N18" s="101" t="n"/>
+      <c r="O18" s="116" t="n"/>
+      <c r="P18" s="116" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19">
+      <c r="A19" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B19" s="105">
+        <f>VLOOKUP(A19,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C19" s="117" t="n"/>
+      <c r="D19" s="101" t="n"/>
+      <c r="E19" s="117" t="n"/>
+      <c r="F19" s="101" t="n"/>
+      <c r="G19" s="117" t="n"/>
+      <c r="H19" s="101" t="n"/>
+      <c r="I19" s="117" t="n"/>
+      <c r="J19" s="101" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="101" t="n"/>
+      <c r="M19" s="117" t="n"/>
+      <c r="N19" s="101" t="n"/>
+      <c r="O19" s="116" t="n"/>
+      <c r="P19" s="116" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="20">
+      <c r="A20" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="105">
+        <f>VLOOKUP(A20,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="117" t="n"/>
+      <c r="D20" s="101" t="n"/>
+      <c r="E20" s="117" t="n"/>
+      <c r="F20" s="101" t="n"/>
+      <c r="G20" s="117" t="n"/>
+      <c r="H20" s="101" t="n"/>
+      <c r="I20" s="117" t="n"/>
+      <c r="J20" s="101" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="101" t="n"/>
+      <c r="M20" s="117" t="n"/>
+      <c r="N20" s="101" t="n"/>
+      <c r="O20" s="116" t="n"/>
+      <c r="P20" s="116" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21">
+      <c r="A21" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="105">
+        <f>VLOOKUP(A21,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C21" s="117" t="n"/>
+      <c r="D21" s="101" t="n"/>
+      <c r="E21" s="117" t="n"/>
+      <c r="F21" s="101" t="n"/>
+      <c r="G21" s="117" t="n"/>
+      <c r="H21" s="101" t="n"/>
+      <c r="I21" s="117" t="n"/>
+      <c r="J21" s="101" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="101" t="n"/>
+      <c r="M21" s="117" t="n"/>
+      <c r="N21" s="101" t="n"/>
+      <c r="O21" s="116" t="n"/>
+      <c r="P21" s="116" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="22">
+      <c r="A22" s="102" t="n"/>
+      <c r="B22" s="116" t="n"/>
+      <c r="C22" s="116" t="n"/>
+      <c r="D22" s="116" t="n"/>
+      <c r="E22" s="116" t="n"/>
+      <c r="F22" s="116" t="n"/>
+      <c r="G22" s="116" t="n"/>
+      <c r="H22" s="116" t="n"/>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="116" t="n"/>
+      <c r="L22" s="116" t="n"/>
+      <c r="M22" s="116" t="n"/>
+      <c r="N22" s="116" t="n"/>
+      <c r="O22" s="116" t="n"/>
+      <c r="P22" s="116" t="n"/>
+      <c r="Q22" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="23">
+      <c r="A23" s="63" t="inlineStr">
+        <is>
+          <t>MATERIALES</t>
+        </is>
+      </c>
+      <c r="B23" s="116" t="n"/>
+      <c r="C23" s="116" t="n"/>
+      <c r="D23" s="116" t="n"/>
+      <c r="E23" s="116" t="n"/>
+      <c r="F23" s="116" t="n"/>
+      <c r="G23" s="116" t="n"/>
+      <c r="H23" s="116" t="n"/>
+      <c r="I23" s="116" t="n"/>
+      <c r="J23" s="116" t="n"/>
+      <c r="K23" s="116" t="n"/>
+      <c r="L23" s="116" t="n"/>
+      <c r="M23" s="116" t="n"/>
+      <c r="N23" s="116" t="n"/>
+      <c r="O23" s="116" t="n"/>
+      <c r="P23" s="116" t="n"/>
+      <c r="Q23" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="24">
+      <c r="A24" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B24" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="117" t="n"/>
+      <c r="F24" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="117" t="n"/>
+      <c r="H24" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="117" t="n"/>
+      <c r="J24" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="117" t="n"/>
+      <c r="L24" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="117" t="n"/>
+      <c r="N24" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="116" t="n"/>
+      <c r="Q24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="25">
+      <c r="A25" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B25" s="100">
+        <f>VLOOKUP(A25,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C25" s="117" t="n"/>
+      <c r="D25" s="101" t="n"/>
+      <c r="E25" s="117" t="n"/>
+      <c r="F25" s="101" t="n"/>
+      <c r="G25" s="117" t="n"/>
+      <c r="H25" s="101" t="n"/>
+      <c r="I25" s="117" t="n"/>
+      <c r="J25" s="101" t="n"/>
+      <c r="K25" s="117" t="n"/>
+      <c r="L25" s="101" t="n"/>
+      <c r="M25" s="117" t="n"/>
+      <c r="N25" s="101" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="116" t="n"/>
+      <c r="Q25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="26">
+      <c r="A26" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B26" s="100">
+        <f>VLOOKUP(A26,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C26" s="117" t="n"/>
+      <c r="D26" s="101" t="n"/>
+      <c r="E26" s="117" t="n"/>
+      <c r="F26" s="101" t="n"/>
+      <c r="G26" s="117" t="n"/>
+      <c r="H26" s="101" t="n"/>
+      <c r="I26" s="117" t="n"/>
+      <c r="J26" s="101" t="n"/>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="101" t="n"/>
+      <c r="M26" s="117" t="n"/>
+      <c r="N26" s="101" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="116" t="n"/>
+      <c r="Q26" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="27">
+      <c r="A27" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B27" s="100">
+        <f>VLOOKUP(A27,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="117" t="n"/>
+      <c r="D27" s="101" t="n"/>
+      <c r="E27" s="117" t="n"/>
+      <c r="F27" s="101" t="n"/>
+      <c r="G27" s="117" t="n"/>
+      <c r="H27" s="101" t="n"/>
+      <c r="I27" s="117" t="n"/>
+      <c r="J27" s="101" t="n"/>
+      <c r="K27" s="117" t="n"/>
+      <c r="L27" s="101" t="n"/>
+      <c r="M27" s="117" t="n"/>
+      <c r="N27" s="101" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="116" t="n"/>
+      <c r="Q27" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="28">
+      <c r="A28" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B28" s="100">
+        <f>VLOOKUP(A28,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C28" s="117" t="n"/>
+      <c r="D28" s="101" t="n"/>
+      <c r="E28" s="117" t="n"/>
+      <c r="F28" s="101" t="n"/>
+      <c r="G28" s="117" t="n"/>
+      <c r="H28" s="101" t="n"/>
+      <c r="I28" s="117" t="n"/>
+      <c r="J28" s="101" t="n"/>
+      <c r="K28" s="117" t="n"/>
+      <c r="L28" s="101" t="n"/>
+      <c r="M28" s="117" t="n"/>
+      <c r="N28" s="101" t="n"/>
+      <c r="O28" s="116" t="n"/>
+      <c r="P28" s="116" t="n"/>
+      <c r="Q28" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="29">
+      <c r="A29" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B29" s="100">
+        <f>VLOOKUP(A29,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="117" t="n"/>
+      <c r="D29" s="101" t="n"/>
+      <c r="E29" s="117" t="n"/>
+      <c r="F29" s="101" t="n"/>
+      <c r="G29" s="117" t="n"/>
+      <c r="H29" s="101" t="n"/>
+      <c r="I29" s="117" t="n"/>
+      <c r="J29" s="101" t="n"/>
+      <c r="K29" s="117" t="n"/>
+      <c r="L29" s="101" t="n"/>
+      <c r="M29" s="117" t="n"/>
+      <c r="N29" s="101" t="n"/>
+      <c r="O29" s="116" t="n"/>
+      <c r="P29" s="116" t="n"/>
+      <c r="Q29" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="30">
+      <c r="A30" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B30" s="100">
+        <f>VLOOKUP(A30,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="117" t="n"/>
+      <c r="D30" s="101" t="n"/>
+      <c r="E30" s="117" t="n"/>
+      <c r="F30" s="101" t="n"/>
+      <c r="G30" s="117" t="n"/>
+      <c r="H30" s="101" t="n"/>
+      <c r="I30" s="117" t="n"/>
+      <c r="J30" s="101" t="n"/>
+      <c r="K30" s="117" t="n"/>
+      <c r="L30" s="101" t="n"/>
+      <c r="M30" s="117" t="n"/>
+      <c r="N30" s="101" t="n"/>
+      <c r="O30" s="116" t="n"/>
+      <c r="P30" s="116" t="n"/>
+      <c r="Q30" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="31">
+      <c r="A31" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B31" s="100">
+        <f>VLOOKUP(A31,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="117" t="n"/>
+      <c r="D31" s="101" t="n"/>
+      <c r="E31" s="117" t="n"/>
+      <c r="F31" s="101" t="n"/>
+      <c r="G31" s="117" t="n"/>
+      <c r="H31" s="101" t="n"/>
+      <c r="I31" s="117" t="n"/>
+      <c r="J31" s="101" t="n"/>
+      <c r="K31" s="117" t="n"/>
+      <c r="L31" s="101" t="n"/>
+      <c r="M31" s="117" t="n"/>
+      <c r="N31" s="101" t="n"/>
+      <c r="O31" s="116" t="n"/>
+      <c r="P31" s="116" t="n"/>
+      <c r="Q31" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="32">
+      <c r="A32" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B32" s="100">
+        <f>VLOOKUP(A32,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="117" t="n"/>
+      <c r="D32" s="101" t="n"/>
+      <c r="E32" s="117" t="n"/>
+      <c r="F32" s="101" t="n"/>
+      <c r="G32" s="117" t="n"/>
+      <c r="H32" s="101" t="n"/>
+      <c r="I32" s="117" t="n"/>
+      <c r="J32" s="101" t="n"/>
+      <c r="K32" s="117" t="n"/>
+      <c r="L32" s="101" t="n"/>
+      <c r="M32" s="117" t="n"/>
+      <c r="N32" s="101" t="n"/>
+      <c r="O32" s="116" t="n"/>
+      <c r="P32" s="116" t="n"/>
+      <c r="Q32" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="33">
+      <c r="A33" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B33" s="100">
+        <f>VLOOKUP(A33,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="117" t="n"/>
+      <c r="D33" s="101" t="n"/>
+      <c r="E33" s="117" t="n"/>
+      <c r="F33" s="101" t="n"/>
+      <c r="G33" s="117" t="n"/>
+      <c r="H33" s="101" t="n"/>
+      <c r="I33" s="117" t="n"/>
+      <c r="J33" s="101" t="n"/>
+      <c r="K33" s="117" t="n"/>
+      <c r="L33" s="101" t="n"/>
+      <c r="M33" s="117" t="n"/>
+      <c r="N33" s="101" t="n"/>
+      <c r="O33" s="116" t="n"/>
+      <c r="P33" s="116" t="n"/>
+      <c r="Q33" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="34">
+      <c r="A34" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B34" s="100">
+        <f>VLOOKUP(A34,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C34" s="117" t="n"/>
+      <c r="D34" s="101" t="n"/>
+      <c r="E34" s="117" t="n"/>
+      <c r="F34" s="101" t="n"/>
+      <c r="G34" s="117" t="n"/>
+      <c r="H34" s="101" t="n"/>
+      <c r="I34" s="117" t="n"/>
+      <c r="J34" s="101" t="n"/>
+      <c r="K34" s="117" t="n"/>
+      <c r="L34" s="101" t="n"/>
+      <c r="M34" s="117" t="n"/>
+      <c r="N34" s="101" t="n"/>
+      <c r="O34" s="116" t="n"/>
+      <c r="P34" s="116" t="n"/>
+      <c r="Q34" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="35">
+      <c r="A35" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B35" s="100">
+        <f>VLOOKUP(A35,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C35" s="117" t="n"/>
+      <c r="D35" s="101" t="n"/>
+      <c r="E35" s="117" t="n"/>
+      <c r="F35" s="101" t="n"/>
+      <c r="G35" s="117" t="n"/>
+      <c r="H35" s="101" t="n"/>
+      <c r="I35" s="117" t="n"/>
+      <c r="J35" s="101" t="n"/>
+      <c r="K35" s="117" t="n"/>
+      <c r="L35" s="101" t="n"/>
+      <c r="M35" s="117" t="n"/>
+      <c r="N35" s="101" t="n"/>
+      <c r="O35" s="116" t="n"/>
+      <c r="P35" s="116" t="n"/>
+      <c r="Q35" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="36">
+      <c r="A36" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B36" s="100">
+        <f>VLOOKUP(A36,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C36" s="117" t="n"/>
+      <c r="D36" s="101" t="n"/>
+      <c r="E36" s="117" t="n"/>
+      <c r="F36" s="101" t="n"/>
+      <c r="G36" s="117" t="n"/>
+      <c r="H36" s="101" t="n"/>
+      <c r="I36" s="117" t="n"/>
+      <c r="J36" s="101" t="n"/>
+      <c r="K36" s="117" t="n"/>
+      <c r="L36" s="101" t="n"/>
+      <c r="M36" s="117" t="n"/>
+      <c r="N36" s="101" t="n"/>
+      <c r="O36" s="116" t="n"/>
+      <c r="P36" s="116" t="n"/>
+      <c r="Q36" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="37">
+      <c r="A37" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B37" s="100">
+        <f>VLOOKUP(A37,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C37" s="117" t="n"/>
+      <c r="D37" s="101" t="n"/>
+      <c r="E37" s="117" t="n"/>
+      <c r="F37" s="101" t="n"/>
+      <c r="G37" s="117" t="n"/>
+      <c r="H37" s="101" t="n"/>
+      <c r="I37" s="117" t="n"/>
+      <c r="J37" s="101" t="n"/>
+      <c r="K37" s="117" t="n"/>
+      <c r="L37" s="101" t="n"/>
+      <c r="M37" s="117" t="n"/>
+      <c r="N37" s="101" t="n"/>
+      <c r="O37" s="116" t="n"/>
+      <c r="P37" s="116" t="n"/>
+      <c r="Q37" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="1048576"/>
+  </sheetData>
+  <mergeCells count="203">
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.747916666666667" footer="0.511805555555555" header="0.511805555555555" left="0.433333333333333" right="0.433333333333333" top="0.354166666666667"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="97" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -10327,7 +12997,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0009/20</t>
+          <t>0019/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -11596,7 +14266,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0009/20</t>
+          <t>0019/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -12814,7 +15484,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0010/20</t>
+          <t>0020/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -14083,7 +16753,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0010/20</t>
+          <t>0020/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -14475,6 +17145,4974 @@
         <is>
           <t xml:space="preserve"> </t>
         </is>
+      </c>
+      <c r="B17" s="105">
+        <f>VLOOKUP(A17,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C17" s="117" t="n"/>
+      <c r="D17" s="101" t="n"/>
+      <c r="E17" s="117" t="n"/>
+      <c r="F17" s="101" t="n"/>
+      <c r="G17" s="117" t="n"/>
+      <c r="H17" s="101" t="n"/>
+      <c r="I17" s="117" t="n"/>
+      <c r="J17" s="101" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="101" t="n"/>
+      <c r="M17" s="117" t="n"/>
+      <c r="N17" s="101" t="n"/>
+      <c r="O17" s="116" t="n"/>
+      <c r="P17" s="116" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="18">
+      <c r="A18" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B18" s="105">
+        <f>VLOOKUP(A18,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C18" s="117" t="n"/>
+      <c r="D18" s="101" t="n"/>
+      <c r="E18" s="117" t="n"/>
+      <c r="F18" s="101" t="n"/>
+      <c r="G18" s="117" t="n"/>
+      <c r="H18" s="101" t="n"/>
+      <c r="I18" s="117" t="n"/>
+      <c r="J18" s="101" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="101" t="n"/>
+      <c r="M18" s="117" t="n"/>
+      <c r="N18" s="101" t="n"/>
+      <c r="O18" s="116" t="n"/>
+      <c r="P18" s="116" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19">
+      <c r="A19" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B19" s="105">
+        <f>VLOOKUP(A19,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C19" s="117" t="n"/>
+      <c r="D19" s="101" t="n"/>
+      <c r="E19" s="117" t="n"/>
+      <c r="F19" s="101" t="n"/>
+      <c r="G19" s="117" t="n"/>
+      <c r="H19" s="101" t="n"/>
+      <c r="I19" s="117" t="n"/>
+      <c r="J19" s="101" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="101" t="n"/>
+      <c r="M19" s="117" t="n"/>
+      <c r="N19" s="101" t="n"/>
+      <c r="O19" s="116" t="n"/>
+      <c r="P19" s="116" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="20">
+      <c r="A20" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="105">
+        <f>VLOOKUP(A20,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="117" t="n"/>
+      <c r="D20" s="101" t="n"/>
+      <c r="E20" s="117" t="n"/>
+      <c r="F20" s="101" t="n"/>
+      <c r="G20" s="117" t="n"/>
+      <c r="H20" s="101" t="n"/>
+      <c r="I20" s="117" t="n"/>
+      <c r="J20" s="101" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="101" t="n"/>
+      <c r="M20" s="117" t="n"/>
+      <c r="N20" s="101" t="n"/>
+      <c r="O20" s="116" t="n"/>
+      <c r="P20" s="116" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21">
+      <c r="A21" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="105">
+        <f>VLOOKUP(A21,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C21" s="117" t="n"/>
+      <c r="D21" s="101" t="n"/>
+      <c r="E21" s="117" t="n"/>
+      <c r="F21" s="101" t="n"/>
+      <c r="G21" s="117" t="n"/>
+      <c r="H21" s="101" t="n"/>
+      <c r="I21" s="117" t="n"/>
+      <c r="J21" s="101" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="101" t="n"/>
+      <c r="M21" s="117" t="n"/>
+      <c r="N21" s="101" t="n"/>
+      <c r="O21" s="116" t="n"/>
+      <c r="P21" s="116" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="22">
+      <c r="A22" s="102" t="n"/>
+      <c r="B22" s="116" t="n"/>
+      <c r="C22" s="116" t="n"/>
+      <c r="D22" s="116" t="n"/>
+      <c r="E22" s="116" t="n"/>
+      <c r="F22" s="116" t="n"/>
+      <c r="G22" s="116" t="n"/>
+      <c r="H22" s="116" t="n"/>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="116" t="n"/>
+      <c r="L22" s="116" t="n"/>
+      <c r="M22" s="116" t="n"/>
+      <c r="N22" s="116" t="n"/>
+      <c r="O22" s="116" t="n"/>
+      <c r="P22" s="116" t="n"/>
+      <c r="Q22" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="23">
+      <c r="A23" s="63" t="inlineStr">
+        <is>
+          <t>MATERIALES</t>
+        </is>
+      </c>
+      <c r="B23" s="116" t="n"/>
+      <c r="C23" s="116" t="n"/>
+      <c r="D23" s="116" t="n"/>
+      <c r="E23" s="116" t="n"/>
+      <c r="F23" s="116" t="n"/>
+      <c r="G23" s="116" t="n"/>
+      <c r="H23" s="116" t="n"/>
+      <c r="I23" s="116" t="n"/>
+      <c r="J23" s="116" t="n"/>
+      <c r="K23" s="116" t="n"/>
+      <c r="L23" s="116" t="n"/>
+      <c r="M23" s="116" t="n"/>
+      <c r="N23" s="116" t="n"/>
+      <c r="O23" s="116" t="n"/>
+      <c r="P23" s="116" t="n"/>
+      <c r="Q23" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="24">
+      <c r="A24" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B24" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="117" t="n"/>
+      <c r="F24" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="117" t="n"/>
+      <c r="H24" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="117" t="n"/>
+      <c r="J24" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="117" t="n"/>
+      <c r="L24" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="117" t="n"/>
+      <c r="N24" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="116" t="n"/>
+      <c r="Q24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="25">
+      <c r="A25" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B25" s="100">
+        <f>VLOOKUP(A25,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C25" s="117" t="n"/>
+      <c r="D25" s="101" t="n"/>
+      <c r="E25" s="117" t="n"/>
+      <c r="F25" s="101" t="n"/>
+      <c r="G25" s="117" t="n"/>
+      <c r="H25" s="101" t="n"/>
+      <c r="I25" s="117" t="n"/>
+      <c r="J25" s="101" t="n"/>
+      <c r="K25" s="117" t="n"/>
+      <c r="L25" s="101" t="n"/>
+      <c r="M25" s="117" t="n"/>
+      <c r="N25" s="101" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="116" t="n"/>
+      <c r="Q25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="26">
+      <c r="A26" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B26" s="100">
+        <f>VLOOKUP(A26,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C26" s="117" t="n"/>
+      <c r="D26" s="101" t="n"/>
+      <c r="E26" s="117" t="n"/>
+      <c r="F26" s="101" t="n"/>
+      <c r="G26" s="117" t="n"/>
+      <c r="H26" s="101" t="n"/>
+      <c r="I26" s="117" t="n"/>
+      <c r="J26" s="101" t="n"/>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="101" t="n"/>
+      <c r="M26" s="117" t="n"/>
+      <c r="N26" s="101" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="116" t="n"/>
+      <c r="Q26" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="27">
+      <c r="A27" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B27" s="100">
+        <f>VLOOKUP(A27,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="117" t="n"/>
+      <c r="D27" s="101" t="n"/>
+      <c r="E27" s="117" t="n"/>
+      <c r="F27" s="101" t="n"/>
+      <c r="G27" s="117" t="n"/>
+      <c r="H27" s="101" t="n"/>
+      <c r="I27" s="117" t="n"/>
+      <c r="J27" s="101" t="n"/>
+      <c r="K27" s="117" t="n"/>
+      <c r="L27" s="101" t="n"/>
+      <c r="M27" s="117" t="n"/>
+      <c r="N27" s="101" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="116" t="n"/>
+      <c r="Q27" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="28">
+      <c r="A28" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B28" s="100">
+        <f>VLOOKUP(A28,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C28" s="117" t="n"/>
+      <c r="D28" s="101" t="n"/>
+      <c r="E28" s="117" t="n"/>
+      <c r="F28" s="101" t="n"/>
+      <c r="G28" s="117" t="n"/>
+      <c r="H28" s="101" t="n"/>
+      <c r="I28" s="117" t="n"/>
+      <c r="J28" s="101" t="n"/>
+      <c r="K28" s="117" t="n"/>
+      <c r="L28" s="101" t="n"/>
+      <c r="M28" s="117" t="n"/>
+      <c r="N28" s="101" t="n"/>
+      <c r="O28" s="116" t="n"/>
+      <c r="P28" s="116" t="n"/>
+      <c r="Q28" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="29">
+      <c r="A29" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B29" s="100">
+        <f>VLOOKUP(A29,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="117" t="n"/>
+      <c r="D29" s="101" t="n"/>
+      <c r="E29" s="117" t="n"/>
+      <c r="F29" s="101" t="n"/>
+      <c r="G29" s="117" t="n"/>
+      <c r="H29" s="101" t="n"/>
+      <c r="I29" s="117" t="n"/>
+      <c r="J29" s="101" t="n"/>
+      <c r="K29" s="117" t="n"/>
+      <c r="L29" s="101" t="n"/>
+      <c r="M29" s="117" t="n"/>
+      <c r="N29" s="101" t="n"/>
+      <c r="O29" s="116" t="n"/>
+      <c r="P29" s="116" t="n"/>
+      <c r="Q29" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="30">
+      <c r="A30" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B30" s="100">
+        <f>VLOOKUP(A30,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="117" t="n"/>
+      <c r="D30" s="101" t="n"/>
+      <c r="E30" s="117" t="n"/>
+      <c r="F30" s="101" t="n"/>
+      <c r="G30" s="117" t="n"/>
+      <c r="H30" s="101" t="n"/>
+      <c r="I30" s="117" t="n"/>
+      <c r="J30" s="101" t="n"/>
+      <c r="K30" s="117" t="n"/>
+      <c r="L30" s="101" t="n"/>
+      <c r="M30" s="117" t="n"/>
+      <c r="N30" s="101" t="n"/>
+      <c r="O30" s="116" t="n"/>
+      <c r="P30" s="116" t="n"/>
+      <c r="Q30" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="31">
+      <c r="A31" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B31" s="100">
+        <f>VLOOKUP(A31,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="117" t="n"/>
+      <c r="D31" s="101" t="n"/>
+      <c r="E31" s="117" t="n"/>
+      <c r="F31" s="101" t="n"/>
+      <c r="G31" s="117" t="n"/>
+      <c r="H31" s="101" t="n"/>
+      <c r="I31" s="117" t="n"/>
+      <c r="J31" s="101" t="n"/>
+      <c r="K31" s="117" t="n"/>
+      <c r="L31" s="101" t="n"/>
+      <c r="M31" s="117" t="n"/>
+      <c r="N31" s="101" t="n"/>
+      <c r="O31" s="116" t="n"/>
+      <c r="P31" s="116" t="n"/>
+      <c r="Q31" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="32">
+      <c r="A32" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B32" s="100">
+        <f>VLOOKUP(A32,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="117" t="n"/>
+      <c r="D32" s="101" t="n"/>
+      <c r="E32" s="117" t="n"/>
+      <c r="F32" s="101" t="n"/>
+      <c r="G32" s="117" t="n"/>
+      <c r="H32" s="101" t="n"/>
+      <c r="I32" s="117" t="n"/>
+      <c r="J32" s="101" t="n"/>
+      <c r="K32" s="117" t="n"/>
+      <c r="L32" s="101" t="n"/>
+      <c r="M32" s="117" t="n"/>
+      <c r="N32" s="101" t="n"/>
+      <c r="O32" s="116" t="n"/>
+      <c r="P32" s="116" t="n"/>
+      <c r="Q32" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="33">
+      <c r="A33" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B33" s="100">
+        <f>VLOOKUP(A33,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="117" t="n"/>
+      <c r="D33" s="101" t="n"/>
+      <c r="E33" s="117" t="n"/>
+      <c r="F33" s="101" t="n"/>
+      <c r="G33" s="117" t="n"/>
+      <c r="H33" s="101" t="n"/>
+      <c r="I33" s="117" t="n"/>
+      <c r="J33" s="101" t="n"/>
+      <c r="K33" s="117" t="n"/>
+      <c r="L33" s="101" t="n"/>
+      <c r="M33" s="117" t="n"/>
+      <c r="N33" s="101" t="n"/>
+      <c r="O33" s="116" t="n"/>
+      <c r="P33" s="116" t="n"/>
+      <c r="Q33" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="34">
+      <c r="A34" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B34" s="100">
+        <f>VLOOKUP(A34,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C34" s="117" t="n"/>
+      <c r="D34" s="101" t="n"/>
+      <c r="E34" s="117" t="n"/>
+      <c r="F34" s="101" t="n"/>
+      <c r="G34" s="117" t="n"/>
+      <c r="H34" s="101" t="n"/>
+      <c r="I34" s="117" t="n"/>
+      <c r="J34" s="101" t="n"/>
+      <c r="K34" s="117" t="n"/>
+      <c r="L34" s="101" t="n"/>
+      <c r="M34" s="117" t="n"/>
+      <c r="N34" s="101" t="n"/>
+      <c r="O34" s="116" t="n"/>
+      <c r="P34" s="116" t="n"/>
+      <c r="Q34" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="35">
+      <c r="A35" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B35" s="100">
+        <f>VLOOKUP(A35,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C35" s="117" t="n"/>
+      <c r="D35" s="101" t="n"/>
+      <c r="E35" s="117" t="n"/>
+      <c r="F35" s="101" t="n"/>
+      <c r="G35" s="117" t="n"/>
+      <c r="H35" s="101" t="n"/>
+      <c r="I35" s="117" t="n"/>
+      <c r="J35" s="101" t="n"/>
+      <c r="K35" s="117" t="n"/>
+      <c r="L35" s="101" t="n"/>
+      <c r="M35" s="117" t="n"/>
+      <c r="N35" s="101" t="n"/>
+      <c r="O35" s="116" t="n"/>
+      <c r="P35" s="116" t="n"/>
+      <c r="Q35" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="36">
+      <c r="A36" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B36" s="100">
+        <f>VLOOKUP(A36,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C36" s="117" t="n"/>
+      <c r="D36" s="101" t="n"/>
+      <c r="E36" s="117" t="n"/>
+      <c r="F36" s="101" t="n"/>
+      <c r="G36" s="117" t="n"/>
+      <c r="H36" s="101" t="n"/>
+      <c r="I36" s="117" t="n"/>
+      <c r="J36" s="101" t="n"/>
+      <c r="K36" s="117" t="n"/>
+      <c r="L36" s="101" t="n"/>
+      <c r="M36" s="117" t="n"/>
+      <c r="N36" s="101" t="n"/>
+      <c r="O36" s="116" t="n"/>
+      <c r="P36" s="116" t="n"/>
+      <c r="Q36" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="37">
+      <c r="A37" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B37" s="100">
+        <f>VLOOKUP(A37,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C37" s="117" t="n"/>
+      <c r="D37" s="101" t="n"/>
+      <c r="E37" s="117" t="n"/>
+      <c r="F37" s="101" t="n"/>
+      <c r="G37" s="117" t="n"/>
+      <c r="H37" s="101" t="n"/>
+      <c r="I37" s="117" t="n"/>
+      <c r="J37" s="101" t="n"/>
+      <c r="K37" s="117" t="n"/>
+      <c r="L37" s="101" t="n"/>
+      <c r="M37" s="117" t="n"/>
+      <c r="N37" s="101" t="n"/>
+      <c r="O37" s="116" t="n"/>
+      <c r="P37" s="116" t="n"/>
+      <c r="Q37" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="1048576"/>
+  </sheetData>
+  <mergeCells count="203">
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.747916666666667" footer="0.511805555555555" header="0.511805555555555" left="0.433333333333333" right="0.433333333333333" top="0.354166666666667"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="97" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="49" width="3.42578125"/>
+    <col customWidth="1" max="2" min="2" style="49" width="1.5703125"/>
+    <col customWidth="1" max="3" min="3" style="49" width="5"/>
+    <col customWidth="1" max="4" min="4" style="49" width="4"/>
+    <col customWidth="1" max="5" min="5" style="49" width="13.7109375"/>
+    <col customWidth="1" max="6" min="6" style="49" width="11.5703125"/>
+    <col customWidth="1" max="7" min="7" style="49" width="4.85546875"/>
+    <col customWidth="1" max="8" min="8" style="49" width="3.7109375"/>
+    <col customWidth="1" max="9" min="9" style="49" width="7.85546875"/>
+    <col customWidth="1" max="10" min="10" style="49" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" style="49" width="5.140625"/>
+    <col customWidth="1" max="15" min="12" style="49" width="4.7109375"/>
+    <col customWidth="1" max="17" min="16" style="49" width="5.7109375"/>
+    <col customWidth="1" max="29" min="18" style="49" width="4.7109375"/>
+    <col customWidth="1" max="1025" min="30" style="49" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="21.75" r="1">
+      <c r="A1" s="89" t="n"/>
+      <c r="B1" s="114" t="n"/>
+      <c r="C1" s="114" t="n"/>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="115" t="n"/>
+      <c r="F1" s="90" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="114" t="n"/>
+      <c r="L1" s="114" t="n"/>
+      <c r="M1" s="114" t="n"/>
+      <c r="N1" s="114" t="n"/>
+      <c r="O1" s="114" t="n"/>
+      <c r="P1" s="114" t="n"/>
+      <c r="Q1" s="114" t="n"/>
+      <c r="R1" s="114" t="n"/>
+      <c r="S1" s="114" t="n"/>
+      <c r="T1" s="114" t="n"/>
+      <c r="U1" s="114" t="n"/>
+      <c r="V1" s="115" t="n"/>
+      <c r="W1" s="18" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="X1" s="19" t="n"/>
+      <c r="Y1" s="91" t="inlineStr">
+        <is>
+          <t>0021/20</t>
+        </is>
+      </c>
+      <c r="Z1" s="116" t="n"/>
+      <c r="AA1" s="116" t="n"/>
+      <c r="AB1" s="116" t="n"/>
+      <c r="AC1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2">
+      <c r="A2" s="118" t="n"/>
+      <c r="E2" s="119" t="n"/>
+      <c r="F2" s="118" t="n"/>
+      <c r="V2" s="119" t="n"/>
+      <c r="W2" s="92" t="n"/>
+      <c r="X2" s="114" t="n"/>
+      <c r="Y2" s="114" t="n"/>
+      <c r="Z2" s="114" t="n"/>
+      <c r="AA2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" s="20" t="n"/>
+      <c r="AC2" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="3">
+      <c r="A3" s="118" t="n"/>
+      <c r="E3" s="119" t="n"/>
+      <c r="F3" s="118" t="n"/>
+      <c r="V3" s="119" t="n"/>
+      <c r="W3" s="22" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="X3" s="23" t="n"/>
+      <c r="Y3" s="23" t="n"/>
+      <c r="Z3" s="23" t="n"/>
+      <c r="AA3" s="23" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="AB3" s="23" t="n"/>
+      <c r="AC3" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="4">
+      <c r="A4" s="120" t="n"/>
+      <c r="B4" s="121" t="n"/>
+      <c r="C4" s="121" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="122" t="n"/>
+      <c r="F4" s="120" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="121" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="121" t="n"/>
+      <c r="R4" s="121" t="n"/>
+      <c r="S4" s="121" t="n"/>
+      <c r="T4" s="121" t="n"/>
+      <c r="U4" s="121" t="n"/>
+      <c r="V4" s="122" t="n"/>
+      <c r="W4" s="93" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="X4" s="121" t="n"/>
+      <c r="Y4" s="121" t="n"/>
+      <c r="Z4" s="121" t="n"/>
+      <c r="AA4" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 1 de 2</t>
+        </is>
+      </c>
+      <c r="AB4" s="121" t="n"/>
+      <c r="AC4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+      <c r="S5" s="28" t="n"/>
+      <c r="T5" s="27" t="n"/>
+      <c r="U5" s="27" t="n"/>
+      <c r="V5" s="27" t="n"/>
+      <c r="W5" s="27" t="n"/>
+      <c r="X5" s="27" t="n"/>
+      <c r="Y5" s="27" t="n"/>
+      <c r="Z5" s="27" t="n"/>
+      <c r="AA5" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.5" r="6">
+      <c r="A6" s="95" t="inlineStr">
+        <is>
+          <t>NOMBRE EQUIPO</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="96" t="inlineStr">
+        <is>
+          <t>Vigilancia</t>
+        </is>
+      </c>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="97" t="inlineStr">
+        <is>
+          <t>MATRÍCULA</t>
+        </is>
+      </c>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="97" t="inlineStr">
+        <is>
+          <t>KMS</t>
+        </is>
+      </c>
+      <c r="M6" s="99" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="116" t="n"/>
+      <c r="R6" s="116" t="n"/>
+      <c r="S6" s="116" t="n"/>
+      <c r="T6" s="116" t="n"/>
+      <c r="U6" s="116" t="n"/>
+      <c r="V6" s="116" t="n"/>
+      <c r="W6" s="116" t="n"/>
+      <c r="X6" s="116" t="n"/>
+      <c r="Y6" s="116" t="n"/>
+      <c r="Z6" s="116" t="n"/>
+      <c r="AA6" s="116" t="n"/>
+      <c r="AB6" s="116" t="n"/>
+      <c r="AC6" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="7">
+      <c r="A7" s="86" t="inlineStr">
+        <is>
+          <t>OPERACIONES</t>
+        </is>
+      </c>
+      <c r="B7" s="116" t="n"/>
+      <c r="C7" s="116" t="n"/>
+      <c r="D7" s="116" t="n"/>
+      <c r="E7" s="116" t="n"/>
+      <c r="F7" s="116" t="n"/>
+      <c r="G7" s="116" t="n"/>
+      <c r="H7" s="116" t="n"/>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="86" t="inlineStr">
+        <is>
+          <t>SITUACIÓN</t>
+        </is>
+      </c>
+      <c r="K7" s="116" t="n"/>
+      <c r="L7" s="116" t="n"/>
+      <c r="M7" s="116" t="n"/>
+      <c r="N7" s="116" t="n"/>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+      <c r="R7" s="87" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="S7" s="87" t="inlineStr">
+        <is>
+          <t>RCH</t>
+        </is>
+      </c>
+      <c r="T7" s="87" t="inlineStr">
+        <is>
+          <t>P.E.</t>
+        </is>
+      </c>
+      <c r="U7" s="88" t="inlineStr">
+        <is>
+          <t>Nº N.C. Ó INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="V7" s="88" t="inlineStr">
+        <is>
+          <t>Nº CROQUIS DE SEÑALI-ZACIÓN</t>
+        </is>
+      </c>
+      <c r="W7" s="86" t="inlineStr">
+        <is>
+          <t>MEDIDAS PREVENTIVAS*</t>
+        </is>
+      </c>
+      <c r="X7" s="116" t="n"/>
+      <c r="Y7" s="116" t="n"/>
+      <c r="Z7" s="116" t="n"/>
+      <c r="AA7" s="116" t="n"/>
+      <c r="AB7" s="116" t="n"/>
+      <c r="AC7" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="30">
+      <c r="A8" s="88" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B8" s="86" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="88" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="E8" s="116" t="n"/>
+      <c r="F8" s="116" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="88" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="I8" s="88" t="inlineStr">
+        <is>
+          <t>MEDICIÓN</t>
+        </is>
+      </c>
+      <c r="J8" s="88" t="inlineStr">
+        <is>
+          <t>CTRA.</t>
+        </is>
+      </c>
+      <c r="K8" s="88" t="inlineStr">
+        <is>
+          <t>Calz</t>
+        </is>
+      </c>
+      <c r="L8" s="88" t="inlineStr">
+        <is>
+          <t>PK al PK</t>
+        </is>
+      </c>
+      <c r="M8" s="116" t="n"/>
+      <c r="N8" s="116" t="n"/>
+      <c r="O8" s="117" t="n"/>
+      <c r="P8" s="88" t="inlineStr">
+        <is>
+          <t>HORA INICIAL</t>
+        </is>
+      </c>
+      <c r="Q8" s="88" t="inlineStr">
+        <is>
+          <t>HORA FINAL</t>
+        </is>
+      </c>
+      <c r="R8" s="123" t="n"/>
+      <c r="S8" s="123" t="n"/>
+      <c r="T8" s="123" t="n"/>
+      <c r="U8" s="123" t="n"/>
+      <c r="V8" s="123" t="n"/>
+      <c r="W8" s="88" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="X8" s="88" t="inlineStr">
+        <is>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="Y8" s="88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Z8" s="88" t="inlineStr">
+        <is>
+          <t>FIRMA DEL RESPONSABLE</t>
+        </is>
+      </c>
+      <c r="AA8" s="116" t="n"/>
+      <c r="AB8" s="116" t="n"/>
+      <c r="AC8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="9">
+      <c r="A9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="77">
+        <f>VLOOKUP(B9,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="116" t="n"/>
+      <c r="F9" s="116" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="80" t="n"/>
+      <c r="I9" s="80" t="n"/>
+      <c r="J9" s="80" t="inlineStr">
+        <is>
+          <t>T.S.</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="124" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="124" t="n"/>
+      <c r="O9" s="117" t="n"/>
+      <c r="P9" s="80" t="n"/>
+      <c r="Q9" s="80" t="n"/>
+      <c r="R9" s="33" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="80" t="n"/>
+      <c r="U9" s="125" t="n"/>
+      <c r="V9" s="33" t="n"/>
+      <c r="W9" s="33" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="33" t="n"/>
+      <c r="Z9" s="80" t="n"/>
+      <c r="AA9" s="116" t="n"/>
+      <c r="AB9" s="116" t="n"/>
+      <c r="AC9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="10">
+      <c r="A10" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="77">
+        <f>VLOOKUP(B10,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="116" t="n"/>
+      <c r="F10" s="116" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="80" t="n"/>
+      <c r="I10" s="80" t="n"/>
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="126" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="124" t="n"/>
+      <c r="O10" s="117" t="n"/>
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="80" t="n"/>
+      <c r="R10" s="33" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="80" t="n"/>
+      <c r="U10" s="125" t="n"/>
+      <c r="V10" s="33" t="n"/>
+      <c r="W10" s="33" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="33" t="n"/>
+      <c r="Z10" s="80" t="n"/>
+      <c r="AA10" s="116" t="n"/>
+      <c r="AB10" s="116" t="n"/>
+      <c r="AC10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="11">
+      <c r="A11" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="77">
+        <f>VLOOKUP(B11,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="116" t="n"/>
+      <c r="F11" s="116" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="80" t="n"/>
+      <c r="I11" s="80" t="n"/>
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="126" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="124" t="n"/>
+      <c r="O11" s="117" t="n"/>
+      <c r="P11" s="80" t="n"/>
+      <c r="Q11" s="80" t="n"/>
+      <c r="R11" s="33" t="n"/>
+      <c r="S11" s="33" t="n"/>
+      <c r="T11" s="80" t="n"/>
+      <c r="U11" s="125" t="n"/>
+      <c r="V11" s="33" t="n"/>
+      <c r="W11" s="33" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="33" t="n"/>
+      <c r="Z11" s="80" t="n"/>
+      <c r="AA11" s="116" t="n"/>
+      <c r="AB11" s="116" t="n"/>
+      <c r="AC11" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="12">
+      <c r="A12" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="77">
+        <f>VLOOKUP(B12,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E12" s="116" t="n"/>
+      <c r="F12" s="116" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="80" t="n"/>
+      <c r="I12" s="80" t="n"/>
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="126" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="124" t="n"/>
+      <c r="O12" s="117" t="n"/>
+      <c r="P12" s="80" t="n"/>
+      <c r="Q12" s="80" t="n"/>
+      <c r="R12" s="33" t="n"/>
+      <c r="S12" s="33" t="n"/>
+      <c r="T12" s="80" t="n"/>
+      <c r="U12" s="125" t="n"/>
+      <c r="V12" s="33" t="n"/>
+      <c r="W12" s="33" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="33" t="n"/>
+      <c r="Z12" s="80" t="n"/>
+      <c r="AA12" s="116" t="n"/>
+      <c r="AB12" s="116" t="n"/>
+      <c r="AC12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13">
+      <c r="A13" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="75" t="n">
+        <v>30002</v>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="77" t="inlineStr">
+        <is>
+          <t>Atención a incidencias fuera del horario laboral</t>
+        </is>
+      </c>
+      <c r="E13" s="116" t="n"/>
+      <c r="F13" s="116" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="80" t="n"/>
+      <c r="I13" s="80" t="n"/>
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="126" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="124" t="n"/>
+      <c r="O13" s="117" t="n"/>
+      <c r="P13" s="80" t="n"/>
+      <c r="Q13" s="80" t="n"/>
+      <c r="R13" s="33" t="n"/>
+      <c r="S13" s="33" t="n"/>
+      <c r="T13" s="80" t="n"/>
+      <c r="U13" s="125" t="n"/>
+      <c r="V13" s="33" t="n"/>
+      <c r="W13" s="33" t="n"/>
+      <c r="X13" s="33" t="n"/>
+      <c r="Y13" s="33" t="n"/>
+      <c r="Z13" s="80" t="n"/>
+      <c r="AA13" s="116" t="n"/>
+      <c r="AB13" s="116" t="n"/>
+      <c r="AC13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>OBSERVACIONES</t>
+        </is>
+      </c>
+      <c r="B14" s="36" t="n"/>
+      <c r="C14" s="36" t="n"/>
+      <c r="D14" s="36" t="n"/>
+      <c r="E14" s="36" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="36" t="n"/>
+      <c r="L14" s="36" t="n"/>
+      <c r="M14" s="36" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="36" t="n"/>
+      <c r="P14" s="36" t="n"/>
+      <c r="Q14" s="36" t="n"/>
+      <c r="R14" s="36" t="n"/>
+      <c r="S14" s="36" t="n"/>
+      <c r="T14" s="36" t="n"/>
+      <c r="U14" s="36" t="n"/>
+      <c r="V14" s="36" t="n"/>
+      <c r="W14" s="36" t="n"/>
+      <c r="X14" s="36" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="46.5" r="15">
+      <c r="A15" s="81" t="n"/>
+      <c r="B15" s="121" t="n"/>
+      <c r="C15" s="121" t="n"/>
+      <c r="D15" s="121" t="n"/>
+      <c r="E15" s="121" t="n"/>
+      <c r="F15" s="121" t="n"/>
+      <c r="G15" s="121" t="n"/>
+      <c r="H15" s="121" t="n"/>
+      <c r="I15" s="121" t="n"/>
+      <c r="J15" s="121" t="n"/>
+      <c r="K15" s="121" t="n"/>
+      <c r="L15" s="121" t="n"/>
+      <c r="M15" s="121" t="n"/>
+      <c r="N15" s="121" t="n"/>
+      <c r="O15" s="121" t="n"/>
+      <c r="P15" s="121" t="n"/>
+      <c r="Q15" s="121" t="n"/>
+      <c r="R15" s="121" t="n"/>
+      <c r="S15" s="121" t="n"/>
+      <c r="T15" s="121" t="n"/>
+      <c r="U15" s="121" t="n"/>
+      <c r="V15" s="121" t="n"/>
+      <c r="W15" s="121" t="n"/>
+      <c r="X15" s="121" t="n"/>
+      <c r="Y15" s="121" t="n"/>
+      <c r="Z15" s="121" t="n"/>
+      <c r="AA15" s="121" t="n"/>
+      <c r="AB15" s="121" t="n"/>
+      <c r="AC15" s="122" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="16" s="38">
+      <c r="A16" s="82" t="inlineStr">
+        <is>
+          <t>NºOP.</t>
+        </is>
+      </c>
+      <c r="B16" s="119" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>MOTIVO DEL RECHAZO</t>
+        </is>
+      </c>
+      <c r="G16" s="84" t="inlineStr">
+        <is>
+          <t>Registro entradas y salidas</t>
+        </is>
+      </c>
+      <c r="H16" s="116" t="n"/>
+      <c r="I16" s="116" t="n"/>
+      <c r="J16" s="116" t="n"/>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="M16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="N16" s="117" t="n"/>
+      <c r="O16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="P16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Q16" s="117" t="n"/>
+      <c r="R16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="S16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="T16" s="117" t="n"/>
+      <c r="U16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="V16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="W16" s="117" t="n"/>
+      <c r="X16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="Y16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Z16" s="117" t="n"/>
+      <c r="AA16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="AB16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="AC16" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="17" s="38">
+      <c r="A17" s="118" t="n"/>
+      <c r="B17" s="119" t="n"/>
+      <c r="C17" s="118" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H17" s="68">
+        <f>IF(G17="","",VLOOKUP(G17,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I17" s="116" t="n"/>
+      <c r="J17" s="116" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="127" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="117" t="n"/>
+      <c r="O17" s="69" t="n"/>
+      <c r="P17" s="69" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+      <c r="R17" s="69" t="n"/>
+      <c r="S17" s="69" t="n"/>
+      <c r="T17" s="117" t="n"/>
+      <c r="U17" s="69" t="n"/>
+      <c r="V17" s="69" t="n"/>
+      <c r="W17" s="117" t="n"/>
+      <c r="X17" s="69" t="n"/>
+      <c r="Y17" s="69" t="n"/>
+      <c r="Z17" s="117" t="n"/>
+      <c r="AA17" s="69" t="n"/>
+      <c r="AB17" s="76" t="n"/>
+      <c r="AC17" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="18" s="38">
+      <c r="A18" s="118" t="n"/>
+      <c r="B18" s="119" t="n"/>
+      <c r="C18" s="118" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="68">
+        <f>IF(G18="","",VLOOKUP(G18,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I18" s="116" t="n"/>
+      <c r="J18" s="116" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="127" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="117" t="n"/>
+      <c r="O18" s="69" t="n"/>
+      <c r="P18" s="69" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+      <c r="R18" s="69" t="n"/>
+      <c r="S18" s="69" t="n"/>
+      <c r="T18" s="117" t="n"/>
+      <c r="U18" s="69" t="n"/>
+      <c r="V18" s="69" t="n"/>
+      <c r="W18" s="117" t="n"/>
+      <c r="X18" s="69" t="n"/>
+      <c r="Y18" s="69" t="n"/>
+      <c r="Z18" s="117" t="n"/>
+      <c r="AA18" s="69" t="n"/>
+      <c r="AB18" s="76" t="n"/>
+      <c r="AC18" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="19" s="38">
+      <c r="A19" s="118" t="n"/>
+      <c r="B19" s="119" t="n"/>
+      <c r="C19" s="118" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="68">
+        <f>IF(G19="","",VLOOKUP(G19,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I19" s="116" t="n"/>
+      <c r="J19" s="116" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="127" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="117" t="n"/>
+      <c r="O19" s="69" t="n"/>
+      <c r="P19" s="69" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+      <c r="R19" s="69" t="n"/>
+      <c r="S19" s="69" t="n"/>
+      <c r="T19" s="117" t="n"/>
+      <c r="U19" s="69" t="n"/>
+      <c r="V19" s="69" t="n"/>
+      <c r="W19" s="117" t="n"/>
+      <c r="X19" s="69" t="n"/>
+      <c r="Y19" s="69" t="n"/>
+      <c r="Z19" s="117" t="n"/>
+      <c r="AA19" s="69" t="n"/>
+      <c r="AB19" s="76" t="n"/>
+      <c r="AC19" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="20" s="38">
+      <c r="A20" s="118" t="n"/>
+      <c r="B20" s="119" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="68">
+        <f>IF(G20="","",VLOOKUP(G20,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I20" s="116" t="n"/>
+      <c r="J20" s="116" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="127" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="117" t="n"/>
+      <c r="O20" s="69" t="n"/>
+      <c r="P20" s="69" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+      <c r="R20" s="69" t="n"/>
+      <c r="S20" s="69" t="n"/>
+      <c r="T20" s="117" t="n"/>
+      <c r="U20" s="69" t="n"/>
+      <c r="V20" s="69" t="n"/>
+      <c r="W20" s="117" t="n"/>
+      <c r="X20" s="69" t="n"/>
+      <c r="Y20" s="69" t="n"/>
+      <c r="Z20" s="117" t="n"/>
+      <c r="AA20" s="69" t="n"/>
+      <c r="AB20" s="76" t="n"/>
+      <c r="AC20" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="21" s="38">
+      <c r="A21" s="118" t="n"/>
+      <c r="B21" s="119" t="n"/>
+      <c r="C21" s="118" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="68">
+        <f>IF(G21="","",VLOOKUP(G21,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I21" s="116" t="n"/>
+      <c r="J21" s="116" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="127" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="117" t="n"/>
+      <c r="O21" s="69" t="n"/>
+      <c r="P21" s="69" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+      <c r="R21" s="69" t="n"/>
+      <c r="S21" s="69" t="n"/>
+      <c r="T21" s="117" t="n"/>
+      <c r="U21" s="69" t="n"/>
+      <c r="V21" s="69" t="n"/>
+      <c r="W21" s="117" t="n"/>
+      <c r="X21" s="69" t="n"/>
+      <c r="Y21" s="69" t="n"/>
+      <c r="Z21" s="117" t="n"/>
+      <c r="AA21" s="69" t="n"/>
+      <c r="AB21" s="76" t="n"/>
+      <c r="AC21" s="115" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="22">
+      <c r="A22" s="120" t="n"/>
+      <c r="B22" s="122" t="n"/>
+      <c r="C22" s="120" t="n"/>
+      <c r="D22" s="121" t="n"/>
+      <c r="E22" s="121" t="n"/>
+      <c r="F22" s="121" t="n"/>
+      <c r="G22" s="41" t="n"/>
+      <c r="H22" s="68">
+        <f>IF(G22="","",VLOOKUP(G22,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="117" t="n"/>
+      <c r="L22" s="127" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="117" t="n"/>
+      <c r="O22" s="42" t="n"/>
+      <c r="P22" s="69" t="n"/>
+      <c r="Q22" s="117" t="n"/>
+      <c r="R22" s="42" t="n"/>
+      <c r="S22" s="69" t="n"/>
+      <c r="T22" s="117" t="n"/>
+      <c r="U22" s="42" t="n"/>
+      <c r="V22" s="69" t="n"/>
+      <c r="W22" s="117" t="n"/>
+      <c r="X22" s="42" t="n"/>
+      <c r="Y22" s="69" t="n"/>
+      <c r="Z22" s="117" t="n"/>
+      <c r="AA22" s="42" t="n"/>
+      <c r="AB22" s="69" t="n"/>
+      <c r="AC22" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="23">
+      <c r="A23" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="24">
+      <c r="A24" s="63" t="inlineStr">
+        <is>
+          <t>PREPARADO</t>
+        </is>
+      </c>
+      <c r="B24" s="116" t="n"/>
+      <c r="C24" s="116" t="n"/>
+      <c r="D24" s="117" t="n"/>
+      <c r="E24" s="72" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="F24" s="71" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="G24" s="116" t="n"/>
+      <c r="H24" s="117" t="n"/>
+      <c r="I24" s="63" t="inlineStr">
+        <is>
+          <t>CUMPLIMENTADO</t>
+        </is>
+      </c>
+      <c r="J24" s="117" t="n"/>
+      <c r="K24" s="72" t="inlineStr">
+        <is>
+          <t>(Jefe de equipo)</t>
+        </is>
+      </c>
+      <c r="L24" s="116" t="n"/>
+      <c r="M24" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N24" s="116" t="n"/>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="117" t="n"/>
+      <c r="Q24" s="63" t="inlineStr">
+        <is>
+          <t>CONFORME</t>
+        </is>
+      </c>
+      <c r="R24" s="116" t="n"/>
+      <c r="S24" s="117" t="n"/>
+      <c r="T24" s="74" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="U24" s="117" t="n"/>
+      <c r="V24" s="75" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="W24" s="116" t="n"/>
+      <c r="X24" s="116" t="n"/>
+      <c r="Y24" s="116" t="n"/>
+      <c r="Z24" s="116" t="n"/>
+      <c r="AA24" s="116" t="n"/>
+      <c r="AB24" s="116" t="n"/>
+      <c r="AC24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="25">
+      <c r="A25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B25" s="116" t="n"/>
+      <c r="C25" s="116" t="n"/>
+      <c r="D25" s="117" t="n"/>
+      <c r="E25" s="128" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="F25" s="116" t="n"/>
+      <c r="G25" s="116" t="n"/>
+      <c r="H25" s="117" t="n"/>
+      <c r="I25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="J25" s="117" t="n"/>
+      <c r="K25" s="129" t="n"/>
+      <c r="L25" s="116" t="n"/>
+      <c r="M25" s="116" t="n"/>
+      <c r="N25" s="116" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="117" t="n"/>
+      <c r="Q25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="R25" s="116" t="n"/>
+      <c r="S25" s="117" t="n"/>
+      <c r="T25" s="129" t="n"/>
+      <c r="U25" s="116" t="n"/>
+      <c r="V25" s="116" t="n"/>
+      <c r="W25" s="116" t="n"/>
+      <c r="X25" s="116" t="n"/>
+      <c r="Y25" s="116" t="n"/>
+      <c r="Z25" s="116" t="n"/>
+      <c r="AA25" s="116" t="n"/>
+      <c r="AB25" s="116" t="n"/>
+      <c r="AC25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="26">
+      <c r="A26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="B26" s="116" t="n"/>
+      <c r="C26" s="116" t="n"/>
+      <c r="D26" s="117" t="n"/>
+      <c r="E26" s="66" t="n"/>
+      <c r="F26" s="116" t="n"/>
+      <c r="G26" s="116" t="n"/>
+      <c r="H26" s="117" t="n"/>
+      <c r="I26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="J26" s="117" t="n"/>
+      <c r="K26" s="67" t="n"/>
+      <c r="L26" s="116" t="n"/>
+      <c r="M26" s="116" t="n"/>
+      <c r="N26" s="116" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="117" t="n"/>
+      <c r="Q26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="R26" s="116" t="n"/>
+      <c r="S26" s="117" t="n"/>
+      <c r="T26" s="67" t="n"/>
+      <c r="U26" s="116" t="n"/>
+      <c r="V26" s="116" t="n"/>
+      <c r="W26" s="116" t="n"/>
+      <c r="X26" s="116" t="n"/>
+      <c r="Y26" s="116" t="n"/>
+      <c r="Z26" s="116" t="n"/>
+      <c r="AA26" s="116" t="n"/>
+      <c r="AB26" s="116" t="n"/>
+      <c r="AC26" s="117" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>ACP = Operación aceptada; RCH = Operación rechazada; P.E. = Punto de espera.</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="n"/>
+      <c r="C27" s="43" t="n"/>
+      <c r="D27" s="43" t="n"/>
+      <c r="E27" s="43" t="n"/>
+      <c r="F27" s="43" t="n"/>
+      <c r="G27" s="43" t="n"/>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="43" t="n"/>
+      <c r="J27" s="43" t="n"/>
+      <c r="K27" s="43" t="n"/>
+      <c r="L27" s="43" t="n"/>
+      <c r="M27" s="43" t="n"/>
+      <c r="N27" s="43" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>En el caso de que la operación sea rechazada, indicar en el apartado observaciones el motivo.</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="n"/>
+      <c r="C28" s="43" t="n"/>
+      <c r="D28" s="43" t="n"/>
+      <c r="E28" s="43" t="n"/>
+      <c r="F28" s="43" t="n"/>
+      <c r="G28" s="43" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="43" t="n"/>
+      <c r="J28" s="43" t="n"/>
+      <c r="K28" s="43" t="n"/>
+      <c r="L28" s="43" t="n"/>
+      <c r="M28" s="43" t="n"/>
+      <c r="N28" s="43" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*En el caso de no ser satisfactoria indicar el motivo en el apartado "Comentarios". </t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="n"/>
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="43" t="n"/>
+      <c r="G29" s="43" t="n"/>
+      <c r="H29" s="43" t="n"/>
+      <c r="I29" s="43" t="n"/>
+      <c r="J29" s="43" t="n"/>
+      <c r="K29" s="43" t="n"/>
+      <c r="L29" s="43" t="n"/>
+      <c r="M29" s="43" t="n"/>
+      <c r="N29" s="43" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:V4"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:AC6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="A15:AC15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="C16:F22"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="A23:AA23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:AC26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0" footer="0.511805555555555" header="0.511805555555555" left="0.118055555555556" right="0.118055555555556" top="0.236111111111111"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="landscape" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="52" width="6.5703125"/>
+    <col customWidth="1" max="2" min="2" style="52" width="15"/>
+    <col customWidth="1" max="3" min="3" style="52" width="18.85546875"/>
+    <col customWidth="1" max="4" min="4" style="52" width="4.28515625"/>
+    <col customWidth="1" max="13" min="5" style="45" width="4.28515625"/>
+    <col customWidth="1" max="14" min="14" style="52" width="2.7109375"/>
+    <col customWidth="1" max="15" min="15" style="45" width="2.28515625"/>
+    <col customWidth="1" max="16" min="16" style="52" width="4"/>
+    <col customWidth="1" max="17" min="17" style="52" width="3.85546875"/>
+    <col customWidth="1" max="1025" min="18" style="52" width="10.5703125"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="46" t="n"/>
+      <c r="B1" s="47" t="n"/>
+      <c r="C1" s="106" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="114" t="n"/>
+      <c r="F1" s="114" t="n"/>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="115" t="n"/>
+      <c r="L1" s="107" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="M1" s="116" t="n"/>
+      <c r="N1" s="108" t="inlineStr">
+        <is>
+          <t>0021/20</t>
+        </is>
+      </c>
+      <c r="O1" s="116" t="n"/>
+      <c r="P1" s="116" t="n"/>
+      <c r="Q1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="118" t="n"/>
+      <c r="K2" s="119" t="n"/>
+      <c r="L2" s="109" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="M2" s="114" t="n"/>
+      <c r="N2" s="110" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="O2" s="114" t="n"/>
+      <c r="P2" s="114" t="n"/>
+      <c r="Q2" s="21" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="n"/>
+      <c r="B3" s="49" t="n"/>
+      <c r="C3" s="118" t="n"/>
+      <c r="K3" s="119" t="n"/>
+      <c r="L3" s="130" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="O3" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 2 de 2</t>
+        </is>
+      </c>
+      <c r="Q3" s="119" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="51" t="n"/>
+      <c r="C4" s="112" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="121" t="n"/>
+      <c r="F4" s="121" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="122" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="113" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
+      <c r="H5" s="116" t="n"/>
+      <c r="I5" s="116" t="n"/>
+      <c r="J5" s="116" t="n"/>
+      <c r="K5" s="116" t="n"/>
+      <c r="L5" s="116" t="n"/>
+      <c r="M5" s="116" t="n"/>
+      <c r="N5" s="116" t="n"/>
+      <c r="O5" s="116" t="n"/>
+      <c r="P5" s="116" t="n"/>
+      <c r="Q5" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>PERSONAL</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="116" t="n"/>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="116" t="n"/>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="116" t="n"/>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="116" t="n"/>
+      <c r="M6" s="116" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="117" t="n"/>
+      <c r="R6" s="52" t="n"/>
+      <c r="S6" s="52" t="n"/>
+      <c r="T6" s="52" t="n"/>
+      <c r="U6" s="52" t="n"/>
+      <c r="V6" s="52" t="n"/>
+      <c r="W6" s="52" t="n"/>
+      <c r="X6" s="52" t="n"/>
+      <c r="Y6" s="52" t="n"/>
+      <c r="Z6" s="52" t="n"/>
+      <c r="AA6" s="52" t="n"/>
+      <c r="AB6" s="52" t="n"/>
+      <c r="AC6" s="52" t="n"/>
+      <c r="AD6" s="52" t="n"/>
+      <c r="AE6" s="52" t="n"/>
+      <c r="AF6" s="52" t="n"/>
+      <c r="AG6" s="52" t="n"/>
+      <c r="AH6" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="7">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B7" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE Y APELLIDOS</t>
+        </is>
+      </c>
+      <c r="C7" s="117" t="n"/>
+      <c r="D7" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="117" t="n"/>
+      <c r="F7" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="117" t="n"/>
+      <c r="H7" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="117" t="n"/>
+      <c r="L7" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="117" t="n"/>
+      <c r="N7" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="8">
+      <c r="A8" s="54" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B8" s="105">
+        <f>IF(A8="","",VLOOKUP(A8,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="101" t="n"/>
+      <c r="E8" s="117" t="n"/>
+      <c r="F8" s="101" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="101" t="n"/>
+      <c r="I8" s="117" t="n"/>
+      <c r="J8" s="101" t="n"/>
+      <c r="K8" s="117" t="n"/>
+      <c r="L8" s="101" t="n"/>
+      <c r="M8" s="117" t="n"/>
+      <c r="N8" s="101" t="n"/>
+      <c r="O8" s="116" t="n"/>
+      <c r="P8" s="116" t="n"/>
+      <c r="Q8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9">
+      <c r="A9" s="54" t="n"/>
+      <c r="B9" s="105">
+        <f>IF(A9="","",VLOOKUP(A9,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="101" t="n"/>
+      <c r="E9" s="117" t="n"/>
+      <c r="F9" s="101" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="101" t="n"/>
+      <c r="I9" s="117" t="n"/>
+      <c r="J9" s="101" t="n"/>
+      <c r="K9" s="117" t="n"/>
+      <c r="L9" s="101" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="101" t="n"/>
+      <c r="O9" s="116" t="n"/>
+      <c r="P9" s="116" t="n"/>
+      <c r="Q9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10">
+      <c r="A10" s="54" t="n"/>
+      <c r="B10" s="105">
+        <f>IF(A10="","",VLOOKUP(A10,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="101" t="n"/>
+      <c r="E10" s="117" t="n"/>
+      <c r="F10" s="101" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="101" t="n"/>
+      <c r="I10" s="117" t="n"/>
+      <c r="J10" s="101" t="n"/>
+      <c r="K10" s="117" t="n"/>
+      <c r="L10" s="101" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="101" t="n"/>
+      <c r="O10" s="116" t="n"/>
+      <c r="P10" s="116" t="n"/>
+      <c r="Q10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11">
+      <c r="A11" s="54" t="n"/>
+      <c r="B11" s="105">
+        <f>IF(A11="","",VLOOKUP(A11,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="101" t="n"/>
+      <c r="E11" s="117" t="n"/>
+      <c r="F11" s="101" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="101" t="n"/>
+      <c r="I11" s="117" t="n"/>
+      <c r="J11" s="101" t="n"/>
+      <c r="K11" s="117" t="n"/>
+      <c r="L11" s="101" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="101" t="n"/>
+      <c r="O11" s="116" t="n"/>
+      <c r="P11" s="116" t="n"/>
+      <c r="Q11" s="117" t="n"/>
+      <c r="T11" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12">
+      <c r="A12" s="54" t="n"/>
+      <c r="B12" s="105">
+        <f>IF(A12="","",VLOOKUP(A12,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="101" t="n"/>
+      <c r="E12" s="117" t="n"/>
+      <c r="F12" s="101" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="101" t="n"/>
+      <c r="I12" s="117" t="n"/>
+      <c r="J12" s="101" t="n"/>
+      <c r="K12" s="117" t="n"/>
+      <c r="L12" s="101" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="101" t="n"/>
+      <c r="O12" s="116" t="n"/>
+      <c r="P12" s="116" t="n"/>
+      <c r="Q12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="13">
+      <c r="A13" s="54" t="n"/>
+      <c r="B13" s="105">
+        <f>IF(A13="","",VLOOKUP(A13,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="101" t="n"/>
+      <c r="E13" s="117" t="n"/>
+      <c r="F13" s="101" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="101" t="n"/>
+      <c r="I13" s="117" t="n"/>
+      <c r="J13" s="101" t="n"/>
+      <c r="K13" s="117" t="n"/>
+      <c r="L13" s="101" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="101" t="n"/>
+      <c r="O13" s="116" t="n"/>
+      <c r="P13" s="116" t="n"/>
+      <c r="Q13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="14">
+      <c r="A14" s="102" t="n"/>
+      <c r="B14" s="116" t="n"/>
+      <c r="C14" s="116" t="n"/>
+      <c r="D14" s="116" t="n"/>
+      <c r="E14" s="116" t="n"/>
+      <c r="F14" s="116" t="n"/>
+      <c r="G14" s="116" t="n"/>
+      <c r="H14" s="116" t="n"/>
+      <c r="I14" s="116" t="n"/>
+      <c r="J14" s="116" t="n"/>
+      <c r="K14" s="116" t="n"/>
+      <c r="L14" s="116" t="n"/>
+      <c r="M14" s="116" t="n"/>
+      <c r="N14" s="116" t="n"/>
+      <c r="O14" s="116" t="n"/>
+      <c r="P14" s="116" t="n"/>
+      <c r="Q14" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>MAQUINARIA Y MEDIOS AUXILIARES</t>
+        </is>
+      </c>
+      <c r="B15" s="116" t="n"/>
+      <c r="C15" s="116" t="n"/>
+      <c r="D15" s="116" t="n"/>
+      <c r="E15" s="116" t="n"/>
+      <c r="F15" s="116" t="n"/>
+      <c r="G15" s="116" t="n"/>
+      <c r="H15" s="116" t="n"/>
+      <c r="I15" s="116" t="n"/>
+      <c r="J15" s="116" t="n"/>
+      <c r="K15" s="116" t="n"/>
+      <c r="L15" s="116" t="n"/>
+      <c r="M15" s="116" t="n"/>
+      <c r="N15" s="116" t="n"/>
+      <c r="O15" s="116" t="n"/>
+      <c r="P15" s="116" t="n"/>
+      <c r="Q15" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="16">
+      <c r="A16" s="55" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B16" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C16" s="117" t="n"/>
+      <c r="D16" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="117" t="n"/>
+      <c r="F16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="117" t="n"/>
+      <c r="H16" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="117" t="n"/>
+      <c r="J16" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="117" t="n"/>
+      <c r="N16" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O16" s="116" t="n"/>
+      <c r="P16" s="116" t="n"/>
+      <c r="Q16" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17">
+      <c r="A17" s="54" t="n">
+        <v>203</v>
+      </c>
+      <c r="B17" s="105">
+        <f>VLOOKUP(A17,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C17" s="117" t="n"/>
+      <c r="D17" s="101" t="n"/>
+      <c r="E17" s="117" t="n"/>
+      <c r="F17" s="101" t="n"/>
+      <c r="G17" s="117" t="n"/>
+      <c r="H17" s="101" t="n"/>
+      <c r="I17" s="117" t="n"/>
+      <c r="J17" s="101" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="101" t="n"/>
+      <c r="M17" s="117" t="n"/>
+      <c r="N17" s="101" t="n"/>
+      <c r="O17" s="116" t="n"/>
+      <c r="P17" s="116" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="18">
+      <c r="A18" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B18" s="105">
+        <f>VLOOKUP(A18,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C18" s="117" t="n"/>
+      <c r="D18" s="101" t="n"/>
+      <c r="E18" s="117" t="n"/>
+      <c r="F18" s="101" t="n"/>
+      <c r="G18" s="117" t="n"/>
+      <c r="H18" s="101" t="n"/>
+      <c r="I18" s="117" t="n"/>
+      <c r="J18" s="101" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="101" t="n"/>
+      <c r="M18" s="117" t="n"/>
+      <c r="N18" s="101" t="n"/>
+      <c r="O18" s="116" t="n"/>
+      <c r="P18" s="116" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="19">
+      <c r="A19" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B19" s="105">
+        <f>VLOOKUP(A19,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C19" s="117" t="n"/>
+      <c r="D19" s="101" t="n"/>
+      <c r="E19" s="117" t="n"/>
+      <c r="F19" s="101" t="n"/>
+      <c r="G19" s="117" t="n"/>
+      <c r="H19" s="101" t="n"/>
+      <c r="I19" s="117" t="n"/>
+      <c r="J19" s="101" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="101" t="n"/>
+      <c r="M19" s="117" t="n"/>
+      <c r="N19" s="101" t="n"/>
+      <c r="O19" s="116" t="n"/>
+      <c r="P19" s="116" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="20">
+      <c r="A20" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B20" s="105">
+        <f>VLOOKUP(A20,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C20" s="117" t="n"/>
+      <c r="D20" s="101" t="n"/>
+      <c r="E20" s="117" t="n"/>
+      <c r="F20" s="101" t="n"/>
+      <c r="G20" s="117" t="n"/>
+      <c r="H20" s="101" t="n"/>
+      <c r="I20" s="117" t="n"/>
+      <c r="J20" s="101" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="101" t="n"/>
+      <c r="M20" s="117" t="n"/>
+      <c r="N20" s="101" t="n"/>
+      <c r="O20" s="116" t="n"/>
+      <c r="P20" s="116" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="21">
+      <c r="A21" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B21" s="105">
+        <f>VLOOKUP(A21,Listas!J3:K34,2,0)</f>
+        <v/>
+      </c>
+      <c r="C21" s="117" t="n"/>
+      <c r="D21" s="101" t="n"/>
+      <c r="E21" s="117" t="n"/>
+      <c r="F21" s="101" t="n"/>
+      <c r="G21" s="117" t="n"/>
+      <c r="H21" s="101" t="n"/>
+      <c r="I21" s="117" t="n"/>
+      <c r="J21" s="101" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="101" t="n"/>
+      <c r="M21" s="117" t="n"/>
+      <c r="N21" s="101" t="n"/>
+      <c r="O21" s="116" t="n"/>
+      <c r="P21" s="116" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="22">
+      <c r="A22" s="102" t="n"/>
+      <c r="B22" s="116" t="n"/>
+      <c r="C22" s="116" t="n"/>
+      <c r="D22" s="116" t="n"/>
+      <c r="E22" s="116" t="n"/>
+      <c r="F22" s="116" t="n"/>
+      <c r="G22" s="116" t="n"/>
+      <c r="H22" s="116" t="n"/>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="116" t="n"/>
+      <c r="L22" s="116" t="n"/>
+      <c r="M22" s="116" t="n"/>
+      <c r="N22" s="116" t="n"/>
+      <c r="O22" s="116" t="n"/>
+      <c r="P22" s="116" t="n"/>
+      <c r="Q22" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="23">
+      <c r="A23" s="63" t="inlineStr">
+        <is>
+          <t>MATERIALES</t>
+        </is>
+      </c>
+      <c r="B23" s="116" t="n"/>
+      <c r="C23" s="116" t="n"/>
+      <c r="D23" s="116" t="n"/>
+      <c r="E23" s="116" t="n"/>
+      <c r="F23" s="116" t="n"/>
+      <c r="G23" s="116" t="n"/>
+      <c r="H23" s="116" t="n"/>
+      <c r="I23" s="116" t="n"/>
+      <c r="J23" s="116" t="n"/>
+      <c r="K23" s="116" t="n"/>
+      <c r="L23" s="116" t="n"/>
+      <c r="M23" s="116" t="n"/>
+      <c r="N23" s="116" t="n"/>
+      <c r="O23" s="116" t="n"/>
+      <c r="P23" s="116" t="n"/>
+      <c r="Q23" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="24">
+      <c r="A24" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B24" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C24" s="117" t="n"/>
+      <c r="D24" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="117" t="n"/>
+      <c r="F24" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="117" t="n"/>
+      <c r="H24" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="117" t="n"/>
+      <c r="J24" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K24" s="117" t="n"/>
+      <c r="L24" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" s="117" t="n"/>
+      <c r="N24" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="116" t="n"/>
+      <c r="Q24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="25">
+      <c r="A25" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B25" s="100">
+        <f>VLOOKUP(A25,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C25" s="117" t="n"/>
+      <c r="D25" s="101" t="n"/>
+      <c r="E25" s="117" t="n"/>
+      <c r="F25" s="101" t="n"/>
+      <c r="G25" s="117" t="n"/>
+      <c r="H25" s="101" t="n"/>
+      <c r="I25" s="117" t="n"/>
+      <c r="J25" s="101" t="n"/>
+      <c r="K25" s="117" t="n"/>
+      <c r="L25" s="101" t="n"/>
+      <c r="M25" s="117" t="n"/>
+      <c r="N25" s="101" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="116" t="n"/>
+      <c r="Q25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="26">
+      <c r="A26" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B26" s="100">
+        <f>VLOOKUP(A26,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C26" s="117" t="n"/>
+      <c r="D26" s="101" t="n"/>
+      <c r="E26" s="117" t="n"/>
+      <c r="F26" s="101" t="n"/>
+      <c r="G26" s="117" t="n"/>
+      <c r="H26" s="101" t="n"/>
+      <c r="I26" s="117" t="n"/>
+      <c r="J26" s="101" t="n"/>
+      <c r="K26" s="117" t="n"/>
+      <c r="L26" s="101" t="n"/>
+      <c r="M26" s="117" t="n"/>
+      <c r="N26" s="101" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="116" t="n"/>
+      <c r="Q26" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="27">
+      <c r="A27" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B27" s="100">
+        <f>VLOOKUP(A27,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C27" s="117" t="n"/>
+      <c r="D27" s="101" t="n"/>
+      <c r="E27" s="117" t="n"/>
+      <c r="F27" s="101" t="n"/>
+      <c r="G27" s="117" t="n"/>
+      <c r="H27" s="101" t="n"/>
+      <c r="I27" s="117" t="n"/>
+      <c r="J27" s="101" t="n"/>
+      <c r="K27" s="117" t="n"/>
+      <c r="L27" s="101" t="n"/>
+      <c r="M27" s="117" t="n"/>
+      <c r="N27" s="101" t="n"/>
+      <c r="O27" s="116" t="n"/>
+      <c r="P27" s="116" t="n"/>
+      <c r="Q27" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="28">
+      <c r="A28" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B28" s="100">
+        <f>VLOOKUP(A28,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C28" s="117" t="n"/>
+      <c r="D28" s="101" t="n"/>
+      <c r="E28" s="117" t="n"/>
+      <c r="F28" s="101" t="n"/>
+      <c r="G28" s="117" t="n"/>
+      <c r="H28" s="101" t="n"/>
+      <c r="I28" s="117" t="n"/>
+      <c r="J28" s="101" t="n"/>
+      <c r="K28" s="117" t="n"/>
+      <c r="L28" s="101" t="n"/>
+      <c r="M28" s="117" t="n"/>
+      <c r="N28" s="101" t="n"/>
+      <c r="O28" s="116" t="n"/>
+      <c r="P28" s="116" t="n"/>
+      <c r="Q28" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="29">
+      <c r="A29" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B29" s="100">
+        <f>VLOOKUP(A29,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="117" t="n"/>
+      <c r="D29" s="101" t="n"/>
+      <c r="E29" s="117" t="n"/>
+      <c r="F29" s="101" t="n"/>
+      <c r="G29" s="117" t="n"/>
+      <c r="H29" s="101" t="n"/>
+      <c r="I29" s="117" t="n"/>
+      <c r="J29" s="101" t="n"/>
+      <c r="K29" s="117" t="n"/>
+      <c r="L29" s="101" t="n"/>
+      <c r="M29" s="117" t="n"/>
+      <c r="N29" s="101" t="n"/>
+      <c r="O29" s="116" t="n"/>
+      <c r="P29" s="116" t="n"/>
+      <c r="Q29" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="30">
+      <c r="A30" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B30" s="100">
+        <f>VLOOKUP(A30,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C30" s="117" t="n"/>
+      <c r="D30" s="101" t="n"/>
+      <c r="E30" s="117" t="n"/>
+      <c r="F30" s="101" t="n"/>
+      <c r="G30" s="117" t="n"/>
+      <c r="H30" s="101" t="n"/>
+      <c r="I30" s="117" t="n"/>
+      <c r="J30" s="101" t="n"/>
+      <c r="K30" s="117" t="n"/>
+      <c r="L30" s="101" t="n"/>
+      <c r="M30" s="117" t="n"/>
+      <c r="N30" s="101" t="n"/>
+      <c r="O30" s="116" t="n"/>
+      <c r="P30" s="116" t="n"/>
+      <c r="Q30" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="31">
+      <c r="A31" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B31" s="100">
+        <f>VLOOKUP(A31,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C31" s="117" t="n"/>
+      <c r="D31" s="101" t="n"/>
+      <c r="E31" s="117" t="n"/>
+      <c r="F31" s="101" t="n"/>
+      <c r="G31" s="117" t="n"/>
+      <c r="H31" s="101" t="n"/>
+      <c r="I31" s="117" t="n"/>
+      <c r="J31" s="101" t="n"/>
+      <c r="K31" s="117" t="n"/>
+      <c r="L31" s="101" t="n"/>
+      <c r="M31" s="117" t="n"/>
+      <c r="N31" s="101" t="n"/>
+      <c r="O31" s="116" t="n"/>
+      <c r="P31" s="116" t="n"/>
+      <c r="Q31" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="32">
+      <c r="A32" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B32" s="100">
+        <f>VLOOKUP(A32,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C32" s="117" t="n"/>
+      <c r="D32" s="101" t="n"/>
+      <c r="E32" s="117" t="n"/>
+      <c r="F32" s="101" t="n"/>
+      <c r="G32" s="117" t="n"/>
+      <c r="H32" s="101" t="n"/>
+      <c r="I32" s="117" t="n"/>
+      <c r="J32" s="101" t="n"/>
+      <c r="K32" s="117" t="n"/>
+      <c r="L32" s="101" t="n"/>
+      <c r="M32" s="117" t="n"/>
+      <c r="N32" s="101" t="n"/>
+      <c r="O32" s="116" t="n"/>
+      <c r="P32" s="116" t="n"/>
+      <c r="Q32" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="33">
+      <c r="A33" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B33" s="100">
+        <f>VLOOKUP(A33,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C33" s="117" t="n"/>
+      <c r="D33" s="101" t="n"/>
+      <c r="E33" s="117" t="n"/>
+      <c r="F33" s="101" t="n"/>
+      <c r="G33" s="117" t="n"/>
+      <c r="H33" s="101" t="n"/>
+      <c r="I33" s="117" t="n"/>
+      <c r="J33" s="101" t="n"/>
+      <c r="K33" s="117" t="n"/>
+      <c r="L33" s="101" t="n"/>
+      <c r="M33" s="117" t="n"/>
+      <c r="N33" s="101" t="n"/>
+      <c r="O33" s="116" t="n"/>
+      <c r="P33" s="116" t="n"/>
+      <c r="Q33" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="34">
+      <c r="A34" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B34" s="100">
+        <f>VLOOKUP(A34,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C34" s="117" t="n"/>
+      <c r="D34" s="101" t="n"/>
+      <c r="E34" s="117" t="n"/>
+      <c r="F34" s="101" t="n"/>
+      <c r="G34" s="117" t="n"/>
+      <c r="H34" s="101" t="n"/>
+      <c r="I34" s="117" t="n"/>
+      <c r="J34" s="101" t="n"/>
+      <c r="K34" s="117" t="n"/>
+      <c r="L34" s="101" t="n"/>
+      <c r="M34" s="117" t="n"/>
+      <c r="N34" s="101" t="n"/>
+      <c r="O34" s="116" t="n"/>
+      <c r="P34" s="116" t="n"/>
+      <c r="Q34" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="35">
+      <c r="A35" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B35" s="100">
+        <f>VLOOKUP(A35,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C35" s="117" t="n"/>
+      <c r="D35" s="101" t="n"/>
+      <c r="E35" s="117" t="n"/>
+      <c r="F35" s="101" t="n"/>
+      <c r="G35" s="117" t="n"/>
+      <c r="H35" s="101" t="n"/>
+      <c r="I35" s="117" t="n"/>
+      <c r="J35" s="101" t="n"/>
+      <c r="K35" s="117" t="n"/>
+      <c r="L35" s="101" t="n"/>
+      <c r="M35" s="117" t="n"/>
+      <c r="N35" s="101" t="n"/>
+      <c r="O35" s="116" t="n"/>
+      <c r="P35" s="116" t="n"/>
+      <c r="Q35" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="36">
+      <c r="A36" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B36" s="100">
+        <f>VLOOKUP(A36,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C36" s="117" t="n"/>
+      <c r="D36" s="101" t="n"/>
+      <c r="E36" s="117" t="n"/>
+      <c r="F36" s="101" t="n"/>
+      <c r="G36" s="117" t="n"/>
+      <c r="H36" s="101" t="n"/>
+      <c r="I36" s="117" t="n"/>
+      <c r="J36" s="101" t="n"/>
+      <c r="K36" s="117" t="n"/>
+      <c r="L36" s="101" t="n"/>
+      <c r="M36" s="117" t="n"/>
+      <c r="N36" s="101" t="n"/>
+      <c r="O36" s="116" t="n"/>
+      <c r="P36" s="116" t="n"/>
+      <c r="Q36" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="24" r="37">
+      <c r="A37" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B37" s="100">
+        <f>VLOOKUP(A37,Listas!L3:M568,2,0)</f>
+        <v/>
+      </c>
+      <c r="C37" s="117" t="n"/>
+      <c r="D37" s="101" t="n"/>
+      <c r="E37" s="117" t="n"/>
+      <c r="F37" s="101" t="n"/>
+      <c r="G37" s="117" t="n"/>
+      <c r="H37" s="101" t="n"/>
+      <c r="I37" s="117" t="n"/>
+      <c r="J37" s="101" t="n"/>
+      <c r="K37" s="117" t="n"/>
+      <c r="L37" s="101" t="n"/>
+      <c r="M37" s="117" t="n"/>
+      <c r="N37" s="101" t="n"/>
+      <c r="O37" s="116" t="n"/>
+      <c r="P37" s="116" t="n"/>
+      <c r="Q37" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="1048576"/>
+  </sheetData>
+  <mergeCells count="203">
+    <mergeCell ref="C1:K3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.747916666666667" footer="0.511805555555555" header="0.511805555555555" left="0.433333333333333" right="0.433333333333333" top="0.354166666666667"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" scale="97" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AC29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="49" width="3.42578125"/>
+    <col customWidth="1" max="2" min="2" style="49" width="1.5703125"/>
+    <col customWidth="1" max="3" min="3" style="49" width="5"/>
+    <col customWidth="1" max="4" min="4" style="49" width="4"/>
+    <col customWidth="1" max="5" min="5" style="49" width="13.7109375"/>
+    <col customWidth="1" max="6" min="6" style="49" width="11.5703125"/>
+    <col customWidth="1" max="7" min="7" style="49" width="4.85546875"/>
+    <col customWidth="1" max="8" min="8" style="49" width="3.7109375"/>
+    <col customWidth="1" max="9" min="9" style="49" width="7.85546875"/>
+    <col customWidth="1" max="10" min="10" style="49" width="6.5703125"/>
+    <col customWidth="1" max="11" min="11" style="49" width="5.140625"/>
+    <col customWidth="1" max="15" min="12" style="49" width="4.7109375"/>
+    <col customWidth="1" max="17" min="16" style="49" width="5.7109375"/>
+    <col customWidth="1" max="29" min="18" style="49" width="4.7109375"/>
+    <col customWidth="1" max="1025" min="30" style="49" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="21.75" r="1">
+      <c r="A1" s="89" t="n"/>
+      <c r="B1" s="114" t="n"/>
+      <c r="C1" s="114" t="n"/>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="115" t="n"/>
+      <c r="F1" s="90" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="114" t="n"/>
+      <c r="L1" s="114" t="n"/>
+      <c r="M1" s="114" t="n"/>
+      <c r="N1" s="114" t="n"/>
+      <c r="O1" s="114" t="n"/>
+      <c r="P1" s="114" t="n"/>
+      <c r="Q1" s="114" t="n"/>
+      <c r="R1" s="114" t="n"/>
+      <c r="S1" s="114" t="n"/>
+      <c r="T1" s="114" t="n"/>
+      <c r="U1" s="114" t="n"/>
+      <c r="V1" s="115" t="n"/>
+      <c r="W1" s="18" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="X1" s="19" t="n"/>
+      <c r="Y1" s="91" t="inlineStr">
+        <is>
+          <t>0022/20</t>
+        </is>
+      </c>
+      <c r="Z1" s="116" t="n"/>
+      <c r="AA1" s="116" t="n"/>
+      <c r="AB1" s="116" t="n"/>
+      <c r="AC1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="6" r="2">
+      <c r="A2" s="118" t="n"/>
+      <c r="E2" s="119" t="n"/>
+      <c r="F2" s="118" t="n"/>
+      <c r="V2" s="119" t="n"/>
+      <c r="W2" s="92" t="n"/>
+      <c r="X2" s="114" t="n"/>
+      <c r="Y2" s="114" t="n"/>
+      <c r="Z2" s="114" t="n"/>
+      <c r="AA2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" s="20" t="n"/>
+      <c r="AC2" s="21" t="n"/>
+    </row>
+    <row customHeight="1" ht="12" r="3">
+      <c r="A3" s="118" t="n"/>
+      <c r="E3" s="119" t="n"/>
+      <c r="F3" s="118" t="n"/>
+      <c r="V3" s="119" t="n"/>
+      <c r="W3" s="22" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="X3" s="23" t="n"/>
+      <c r="Y3" s="23" t="n"/>
+      <c r="Z3" s="23" t="n"/>
+      <c r="AA3" s="23" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="AB3" s="23" t="n"/>
+      <c r="AC3" s="24" t="n"/>
+    </row>
+    <row customHeight="1" ht="18.75" r="4">
+      <c r="A4" s="120" t="n"/>
+      <c r="B4" s="121" t="n"/>
+      <c r="C4" s="121" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="122" t="n"/>
+      <c r="F4" s="120" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="121" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="121" t="n"/>
+      <c r="R4" s="121" t="n"/>
+      <c r="S4" s="121" t="n"/>
+      <c r="T4" s="121" t="n"/>
+      <c r="U4" s="121" t="n"/>
+      <c r="V4" s="122" t="n"/>
+      <c r="W4" s="93" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="X4" s="121" t="n"/>
+      <c r="Y4" s="121" t="n"/>
+      <c r="Z4" s="121" t="n"/>
+      <c r="AA4" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 1 de 2</t>
+        </is>
+      </c>
+      <c r="AB4" s="121" t="n"/>
+      <c r="AC4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="5">
+      <c r="A5" s="25" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="26" t="n"/>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="n"/>
+      <c r="E5" s="26" t="n"/>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="28" t="n"/>
+      <c r="N5" s="28" t="n"/>
+      <c r="O5" s="28" t="n"/>
+      <c r="P5" s="28" t="n"/>
+      <c r="Q5" s="28" t="n"/>
+      <c r="R5" s="28" t="n"/>
+      <c r="S5" s="28" t="n"/>
+      <c r="T5" s="27" t="n"/>
+      <c r="U5" s="27" t="n"/>
+      <c r="V5" s="27" t="n"/>
+      <c r="W5" s="27" t="n"/>
+      <c r="X5" s="27" t="n"/>
+      <c r="Y5" s="27" t="n"/>
+      <c r="Z5" s="27" t="n"/>
+      <c r="AA5" s="29" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.5" r="6">
+      <c r="A6" s="95" t="inlineStr">
+        <is>
+          <t>NOMBRE EQUIPO</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="96" t="inlineStr">
+        <is>
+          <t>Vigilancia</t>
+        </is>
+      </c>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="97" t="inlineStr">
+        <is>
+          <t>MATRÍCULA</t>
+        </is>
+      </c>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="97" t="inlineStr">
+        <is>
+          <t>KMS</t>
+        </is>
+      </c>
+      <c r="M6" s="99" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="116" t="n"/>
+      <c r="R6" s="116" t="n"/>
+      <c r="S6" s="116" t="n"/>
+      <c r="T6" s="116" t="n"/>
+      <c r="U6" s="116" t="n"/>
+      <c r="V6" s="116" t="n"/>
+      <c r="W6" s="116" t="n"/>
+      <c r="X6" s="116" t="n"/>
+      <c r="Y6" s="116" t="n"/>
+      <c r="Z6" s="116" t="n"/>
+      <c r="AA6" s="116" t="n"/>
+      <c r="AB6" s="116" t="n"/>
+      <c r="AC6" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.5" r="7">
+      <c r="A7" s="86" t="inlineStr">
+        <is>
+          <t>OPERACIONES</t>
+        </is>
+      </c>
+      <c r="B7" s="116" t="n"/>
+      <c r="C7" s="116" t="n"/>
+      <c r="D7" s="116" t="n"/>
+      <c r="E7" s="116" t="n"/>
+      <c r="F7" s="116" t="n"/>
+      <c r="G7" s="116" t="n"/>
+      <c r="H7" s="116" t="n"/>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="86" t="inlineStr">
+        <is>
+          <t>SITUACIÓN</t>
+        </is>
+      </c>
+      <c r="K7" s="116" t="n"/>
+      <c r="L7" s="116" t="n"/>
+      <c r="M7" s="116" t="n"/>
+      <c r="N7" s="116" t="n"/>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+      <c r="R7" s="87" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="S7" s="87" t="inlineStr">
+        <is>
+          <t>RCH</t>
+        </is>
+      </c>
+      <c r="T7" s="87" t="inlineStr">
+        <is>
+          <t>P.E.</t>
+        </is>
+      </c>
+      <c r="U7" s="88" t="inlineStr">
+        <is>
+          <t>Nº N.C. Ó INCIDENCIA</t>
+        </is>
+      </c>
+      <c r="V7" s="88" t="inlineStr">
+        <is>
+          <t>Nº CROQUIS DE SEÑALI-ZACIÓN</t>
+        </is>
+      </c>
+      <c r="W7" s="86" t="inlineStr">
+        <is>
+          <t>MEDIDAS PREVENTIVAS*</t>
+        </is>
+      </c>
+      <c r="X7" s="116" t="n"/>
+      <c r="Y7" s="116" t="n"/>
+      <c r="Z7" s="116" t="n"/>
+      <c r="AA7" s="116" t="n"/>
+      <c r="AB7" s="116" t="n"/>
+      <c r="AC7" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="30">
+      <c r="A8" s="88" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B8" s="86" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="88" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="E8" s="116" t="n"/>
+      <c r="F8" s="116" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="88" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="I8" s="88" t="inlineStr">
+        <is>
+          <t>MEDICIÓN</t>
+        </is>
+      </c>
+      <c r="J8" s="88" t="inlineStr">
+        <is>
+          <t>CTRA.</t>
+        </is>
+      </c>
+      <c r="K8" s="88" t="inlineStr">
+        <is>
+          <t>Calz</t>
+        </is>
+      </c>
+      <c r="L8" s="88" t="inlineStr">
+        <is>
+          <t>PK al PK</t>
+        </is>
+      </c>
+      <c r="M8" s="116" t="n"/>
+      <c r="N8" s="116" t="n"/>
+      <c r="O8" s="117" t="n"/>
+      <c r="P8" s="88" t="inlineStr">
+        <is>
+          <t>HORA INICIAL</t>
+        </is>
+      </c>
+      <c r="Q8" s="88" t="inlineStr">
+        <is>
+          <t>HORA FINAL</t>
+        </is>
+      </c>
+      <c r="R8" s="123" t="n"/>
+      <c r="S8" s="123" t="n"/>
+      <c r="T8" s="123" t="n"/>
+      <c r="U8" s="123" t="n"/>
+      <c r="V8" s="123" t="n"/>
+      <c r="W8" s="88" t="inlineStr">
+        <is>
+          <t>HORA</t>
+        </is>
+      </c>
+      <c r="X8" s="88" t="inlineStr">
+        <is>
+          <t>SÍ</t>
+        </is>
+      </c>
+      <c r="Y8" s="88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Z8" s="88" t="inlineStr">
+        <is>
+          <t>FIRMA DEL RESPONSABLE</t>
+        </is>
+      </c>
+      <c r="AA8" s="116" t="n"/>
+      <c r="AB8" s="116" t="n"/>
+      <c r="AC8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="9">
+      <c r="A9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="75" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="77">
+        <f>VLOOKUP(B9,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E9" s="116" t="n"/>
+      <c r="F9" s="116" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="80" t="n"/>
+      <c r="I9" s="80" t="n"/>
+      <c r="J9" s="80" t="inlineStr">
+        <is>
+          <t>T.S.</t>
+        </is>
+      </c>
+      <c r="K9" s="32" t="n"/>
+      <c r="L9" s="124" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="124" t="n"/>
+      <c r="O9" s="117" t="n"/>
+      <c r="P9" s="80" t="n"/>
+      <c r="Q9" s="80" t="n"/>
+      <c r="R9" s="33" t="n"/>
+      <c r="S9" s="33" t="n"/>
+      <c r="T9" s="80" t="n"/>
+      <c r="U9" s="125" t="n"/>
+      <c r="V9" s="33" t="n"/>
+      <c r="W9" s="33" t="n"/>
+      <c r="X9" s="33" t="n"/>
+      <c r="Y9" s="33" t="n"/>
+      <c r="Z9" s="80" t="n"/>
+      <c r="AA9" s="116" t="n"/>
+      <c r="AB9" s="116" t="n"/>
+      <c r="AC9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="10">
+      <c r="A10" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="77">
+        <f>VLOOKUP(B10,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E10" s="116" t="n"/>
+      <c r="F10" s="116" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="80" t="n"/>
+      <c r="I10" s="80" t="n"/>
+      <c r="J10" s="80" t="n"/>
+      <c r="K10" s="32" t="n"/>
+      <c r="L10" s="126" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="124" t="n"/>
+      <c r="O10" s="117" t="n"/>
+      <c r="P10" s="80" t="n"/>
+      <c r="Q10" s="80" t="n"/>
+      <c r="R10" s="33" t="n"/>
+      <c r="S10" s="33" t="n"/>
+      <c r="T10" s="80" t="n"/>
+      <c r="U10" s="125" t="n"/>
+      <c r="V10" s="33" t="n"/>
+      <c r="W10" s="33" t="n"/>
+      <c r="X10" s="33" t="n"/>
+      <c r="Y10" s="33" t="n"/>
+      <c r="Z10" s="80" t="n"/>
+      <c r="AA10" s="116" t="n"/>
+      <c r="AB10" s="116" t="n"/>
+      <c r="AC10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="11">
+      <c r="A11" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="77">
+        <f>VLOOKUP(B11,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E11" s="116" t="n"/>
+      <c r="F11" s="116" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="80" t="n"/>
+      <c r="I11" s="80" t="n"/>
+      <c r="J11" s="80" t="n"/>
+      <c r="K11" s="32" t="n"/>
+      <c r="L11" s="126" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="124" t="n"/>
+      <c r="O11" s="117" t="n"/>
+      <c r="P11" s="80" t="n"/>
+      <c r="Q11" s="80" t="n"/>
+      <c r="R11" s="33" t="n"/>
+      <c r="S11" s="33" t="n"/>
+      <c r="T11" s="80" t="n"/>
+      <c r="U11" s="125" t="n"/>
+      <c r="V11" s="33" t="n"/>
+      <c r="W11" s="33" t="n"/>
+      <c r="X11" s="33" t="n"/>
+      <c r="Y11" s="33" t="n"/>
+      <c r="Z11" s="80" t="n"/>
+      <c r="AA11" s="116" t="n"/>
+      <c r="AB11" s="116" t="n"/>
+      <c r="AC11" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="12">
+      <c r="A12" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="77">
+        <f>VLOOKUP(B12,Listas!A1:B218,2,0)</f>
+        <v/>
+      </c>
+      <c r="E12" s="116" t="n"/>
+      <c r="F12" s="116" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="80" t="n"/>
+      <c r="I12" s="80" t="n"/>
+      <c r="J12" s="80" t="n"/>
+      <c r="K12" s="32" t="n"/>
+      <c r="L12" s="126" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="124" t="n"/>
+      <c r="O12" s="117" t="n"/>
+      <c r="P12" s="80" t="n"/>
+      <c r="Q12" s="80" t="n"/>
+      <c r="R12" s="33" t="n"/>
+      <c r="S12" s="33" t="n"/>
+      <c r="T12" s="80" t="n"/>
+      <c r="U12" s="125" t="n"/>
+      <c r="V12" s="33" t="n"/>
+      <c r="W12" s="33" t="n"/>
+      <c r="X12" s="33" t="n"/>
+      <c r="Y12" s="33" t="n"/>
+      <c r="Z12" s="80" t="n"/>
+      <c r="AA12" s="116" t="n"/>
+      <c r="AB12" s="116" t="n"/>
+      <c r="AC12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="13">
+      <c r="A13" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="75" t="n">
+        <v>30002</v>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="77" t="inlineStr">
+        <is>
+          <t>Atención a incidencias fuera del horario laboral</t>
+        </is>
+      </c>
+      <c r="E13" s="116" t="n"/>
+      <c r="F13" s="116" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="80" t="n"/>
+      <c r="I13" s="80" t="n"/>
+      <c r="J13" s="80" t="n"/>
+      <c r="K13" s="32" t="n"/>
+      <c r="L13" s="126" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="124" t="n"/>
+      <c r="O13" s="117" t="n"/>
+      <c r="P13" s="80" t="n"/>
+      <c r="Q13" s="80" t="n"/>
+      <c r="R13" s="33" t="n"/>
+      <c r="S13" s="33" t="n"/>
+      <c r="T13" s="80" t="n"/>
+      <c r="U13" s="125" t="n"/>
+      <c r="V13" s="33" t="n"/>
+      <c r="W13" s="33" t="n"/>
+      <c r="X13" s="33" t="n"/>
+      <c r="Y13" s="33" t="n"/>
+      <c r="Z13" s="80" t="n"/>
+      <c r="AA13" s="116" t="n"/>
+      <c r="AB13" s="116" t="n"/>
+      <c r="AC13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="14">
+      <c r="A14" s="35" t="inlineStr">
+        <is>
+          <t>OBSERVACIONES</t>
+        </is>
+      </c>
+      <c r="B14" s="36" t="n"/>
+      <c r="C14" s="36" t="n"/>
+      <c r="D14" s="36" t="n"/>
+      <c r="E14" s="36" t="n"/>
+      <c r="F14" s="36" t="n"/>
+      <c r="G14" s="36" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+      <c r="J14" s="36" t="n"/>
+      <c r="K14" s="36" t="n"/>
+      <c r="L14" s="36" t="n"/>
+      <c r="M14" s="36" t="n"/>
+      <c r="N14" s="36" t="n"/>
+      <c r="O14" s="36" t="n"/>
+      <c r="P14" s="36" t="n"/>
+      <c r="Q14" s="36" t="n"/>
+      <c r="R14" s="36" t="n"/>
+      <c r="S14" s="36" t="n"/>
+      <c r="T14" s="36" t="n"/>
+      <c r="U14" s="36" t="n"/>
+      <c r="V14" s="36" t="n"/>
+      <c r="W14" s="36" t="n"/>
+      <c r="X14" s="36" t="n"/>
+      <c r="Y14" s="36" t="n"/>
+      <c r="Z14" s="36" t="n"/>
+      <c r="AA14" s="36" t="n"/>
+      <c r="AB14" s="36" t="n"/>
+      <c r="AC14" s="37" t="n"/>
+    </row>
+    <row customHeight="1" ht="46.5" r="15">
+      <c r="A15" s="81" t="n"/>
+      <c r="B15" s="121" t="n"/>
+      <c r="C15" s="121" t="n"/>
+      <c r="D15" s="121" t="n"/>
+      <c r="E15" s="121" t="n"/>
+      <c r="F15" s="121" t="n"/>
+      <c r="G15" s="121" t="n"/>
+      <c r="H15" s="121" t="n"/>
+      <c r="I15" s="121" t="n"/>
+      <c r="J15" s="121" t="n"/>
+      <c r="K15" s="121" t="n"/>
+      <c r="L15" s="121" t="n"/>
+      <c r="M15" s="121" t="n"/>
+      <c r="N15" s="121" t="n"/>
+      <c r="O15" s="121" t="n"/>
+      <c r="P15" s="121" t="n"/>
+      <c r="Q15" s="121" t="n"/>
+      <c r="R15" s="121" t="n"/>
+      <c r="S15" s="121" t="n"/>
+      <c r="T15" s="121" t="n"/>
+      <c r="U15" s="121" t="n"/>
+      <c r="V15" s="121" t="n"/>
+      <c r="W15" s="121" t="n"/>
+      <c r="X15" s="121" t="n"/>
+      <c r="Y15" s="121" t="n"/>
+      <c r="Z15" s="121" t="n"/>
+      <c r="AA15" s="121" t="n"/>
+      <c r="AB15" s="121" t="n"/>
+      <c r="AC15" s="122" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="16" s="38">
+      <c r="A16" s="82" t="inlineStr">
+        <is>
+          <t>NºOP.</t>
+        </is>
+      </c>
+      <c r="B16" s="119" t="n"/>
+      <c r="C16" s="83" t="inlineStr">
+        <is>
+          <t>MOTIVO DEL RECHAZO</t>
+        </is>
+      </c>
+      <c r="G16" s="84" t="inlineStr">
+        <is>
+          <t>Registro entradas y salidas</t>
+        </is>
+      </c>
+      <c r="H16" s="116" t="n"/>
+      <c r="I16" s="116" t="n"/>
+      <c r="J16" s="116" t="n"/>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="M16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="N16" s="117" t="n"/>
+      <c r="O16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="P16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Q16" s="117" t="n"/>
+      <c r="R16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="S16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="T16" s="117" t="n"/>
+      <c r="U16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="V16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="W16" s="117" t="n"/>
+      <c r="X16" s="85" t="inlineStr">
+        <is>
+          <t>Ent.</t>
+        </is>
+      </c>
+      <c r="Y16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="Z16" s="117" t="n"/>
+      <c r="AA16" s="85" t="inlineStr">
+        <is>
+          <t>Sal.</t>
+        </is>
+      </c>
+      <c r="AB16" s="85" t="inlineStr">
+        <is>
+          <t>firma</t>
+        </is>
+      </c>
+      <c r="AC16" s="117" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="17" s="38">
+      <c r="A17" s="118" t="n"/>
+      <c r="B17" s="119" t="n"/>
+      <c r="C17" s="118" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" s="68">
+        <f>IF(G17="","",VLOOKUP(G17,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I17" s="116" t="n"/>
+      <c r="J17" s="116" t="n"/>
+      <c r="K17" s="117" t="n"/>
+      <c r="L17" s="127" t="n"/>
+      <c r="M17" s="69" t="n"/>
+      <c r="N17" s="117" t="n"/>
+      <c r="O17" s="69" t="n"/>
+      <c r="P17" s="69" t="n"/>
+      <c r="Q17" s="117" t="n"/>
+      <c r="R17" s="69" t="n"/>
+      <c r="S17" s="69" t="n"/>
+      <c r="T17" s="117" t="n"/>
+      <c r="U17" s="69" t="n"/>
+      <c r="V17" s="69" t="n"/>
+      <c r="W17" s="117" t="n"/>
+      <c r="X17" s="69" t="n"/>
+      <c r="Y17" s="69" t="n"/>
+      <c r="Z17" s="117" t="n"/>
+      <c r="AA17" s="69" t="n"/>
+      <c r="AB17" s="76" t="n"/>
+      <c r="AC17" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="18" s="38">
+      <c r="A18" s="118" t="n"/>
+      <c r="B18" s="119" t="n"/>
+      <c r="C18" s="118" t="n"/>
+      <c r="G18" s="41" t="n"/>
+      <c r="H18" s="68">
+        <f>IF(G18="","",VLOOKUP(G18,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I18" s="116" t="n"/>
+      <c r="J18" s="116" t="n"/>
+      <c r="K18" s="117" t="n"/>
+      <c r="L18" s="127" t="n"/>
+      <c r="M18" s="69" t="n"/>
+      <c r="N18" s="117" t="n"/>
+      <c r="O18" s="69" t="n"/>
+      <c r="P18" s="69" t="n"/>
+      <c r="Q18" s="117" t="n"/>
+      <c r="R18" s="69" t="n"/>
+      <c r="S18" s="69" t="n"/>
+      <c r="T18" s="117" t="n"/>
+      <c r="U18" s="69" t="n"/>
+      <c r="V18" s="69" t="n"/>
+      <c r="W18" s="117" t="n"/>
+      <c r="X18" s="69" t="n"/>
+      <c r="Y18" s="69" t="n"/>
+      <c r="Z18" s="117" t="n"/>
+      <c r="AA18" s="69" t="n"/>
+      <c r="AB18" s="76" t="n"/>
+      <c r="AC18" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="19" s="38">
+      <c r="A19" s="118" t="n"/>
+      <c r="B19" s="119" t="n"/>
+      <c r="C19" s="118" t="n"/>
+      <c r="G19" s="41" t="n"/>
+      <c r="H19" s="68">
+        <f>IF(G19="","",VLOOKUP(G19,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I19" s="116" t="n"/>
+      <c r="J19" s="116" t="n"/>
+      <c r="K19" s="117" t="n"/>
+      <c r="L19" s="127" t="n"/>
+      <c r="M19" s="69" t="n"/>
+      <c r="N19" s="117" t="n"/>
+      <c r="O19" s="69" t="n"/>
+      <c r="P19" s="69" t="n"/>
+      <c r="Q19" s="117" t="n"/>
+      <c r="R19" s="69" t="n"/>
+      <c r="S19" s="69" t="n"/>
+      <c r="T19" s="117" t="n"/>
+      <c r="U19" s="69" t="n"/>
+      <c r="V19" s="69" t="n"/>
+      <c r="W19" s="117" t="n"/>
+      <c r="X19" s="69" t="n"/>
+      <c r="Y19" s="69" t="n"/>
+      <c r="Z19" s="117" t="n"/>
+      <c r="AA19" s="69" t="n"/>
+      <c r="AB19" s="76" t="n"/>
+      <c r="AC19" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="20" s="38">
+      <c r="A20" s="118" t="n"/>
+      <c r="B20" s="119" t="n"/>
+      <c r="C20" s="118" t="n"/>
+      <c r="G20" s="41" t="n"/>
+      <c r="H20" s="68">
+        <f>IF(G20="","",VLOOKUP(G20,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I20" s="116" t="n"/>
+      <c r="J20" s="116" t="n"/>
+      <c r="K20" s="117" t="n"/>
+      <c r="L20" s="127" t="n"/>
+      <c r="M20" s="69" t="n"/>
+      <c r="N20" s="117" t="n"/>
+      <c r="O20" s="69" t="n"/>
+      <c r="P20" s="69" t="n"/>
+      <c r="Q20" s="117" t="n"/>
+      <c r="R20" s="69" t="n"/>
+      <c r="S20" s="69" t="n"/>
+      <c r="T20" s="117" t="n"/>
+      <c r="U20" s="69" t="n"/>
+      <c r="V20" s="69" t="n"/>
+      <c r="W20" s="117" t="n"/>
+      <c r="X20" s="69" t="n"/>
+      <c r="Y20" s="69" t="n"/>
+      <c r="Z20" s="117" t="n"/>
+      <c r="AA20" s="69" t="n"/>
+      <c r="AB20" s="76" t="n"/>
+      <c r="AC20" s="115" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="21" s="38">
+      <c r="A21" s="118" t="n"/>
+      <c r="B21" s="119" t="n"/>
+      <c r="C21" s="118" t="n"/>
+      <c r="G21" s="41" t="n"/>
+      <c r="H21" s="68">
+        <f>IF(G21="","",VLOOKUP(G21,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I21" s="116" t="n"/>
+      <c r="J21" s="116" t="n"/>
+      <c r="K21" s="117" t="n"/>
+      <c r="L21" s="127" t="n"/>
+      <c r="M21" s="69" t="n"/>
+      <c r="N21" s="117" t="n"/>
+      <c r="O21" s="69" t="n"/>
+      <c r="P21" s="69" t="n"/>
+      <c r="Q21" s="117" t="n"/>
+      <c r="R21" s="69" t="n"/>
+      <c r="S21" s="69" t="n"/>
+      <c r="T21" s="117" t="n"/>
+      <c r="U21" s="69" t="n"/>
+      <c r="V21" s="69" t="n"/>
+      <c r="W21" s="117" t="n"/>
+      <c r="X21" s="69" t="n"/>
+      <c r="Y21" s="69" t="n"/>
+      <c r="Z21" s="117" t="n"/>
+      <c r="AA21" s="69" t="n"/>
+      <c r="AB21" s="76" t="n"/>
+      <c r="AC21" s="115" t="n"/>
+    </row>
+    <row customHeight="1" ht="13.5" r="22">
+      <c r="A22" s="120" t="n"/>
+      <c r="B22" s="122" t="n"/>
+      <c r="C22" s="120" t="n"/>
+      <c r="D22" s="121" t="n"/>
+      <c r="E22" s="121" t="n"/>
+      <c r="F22" s="121" t="n"/>
+      <c r="G22" s="41" t="n"/>
+      <c r="H22" s="68">
+        <f>IF(G22="","",VLOOKUP(G22,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="I22" s="116" t="n"/>
+      <c r="J22" s="116" t="n"/>
+      <c r="K22" s="117" t="n"/>
+      <c r="L22" s="127" t="n"/>
+      <c r="M22" s="69" t="n"/>
+      <c r="N22" s="117" t="n"/>
+      <c r="O22" s="42" t="n"/>
+      <c r="P22" s="69" t="n"/>
+      <c r="Q22" s="117" t="n"/>
+      <c r="R22" s="42" t="n"/>
+      <c r="S22" s="69" t="n"/>
+      <c r="T22" s="117" t="n"/>
+      <c r="U22" s="42" t="n"/>
+      <c r="V22" s="69" t="n"/>
+      <c r="W22" s="117" t="n"/>
+      <c r="X22" s="42" t="n"/>
+      <c r="Y22" s="69" t="n"/>
+      <c r="Z22" s="117" t="n"/>
+      <c r="AA22" s="42" t="n"/>
+      <c r="AB22" s="69" t="n"/>
+      <c r="AC22" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="9" r="23">
+      <c r="A23" s="70" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="24">
+      <c r="A24" s="63" t="inlineStr">
+        <is>
+          <t>PREPARADO</t>
+        </is>
+      </c>
+      <c r="B24" s="116" t="n"/>
+      <c r="C24" s="116" t="n"/>
+      <c r="D24" s="117" t="n"/>
+      <c r="E24" s="72" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="F24" s="71" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="G24" s="116" t="n"/>
+      <c r="H24" s="117" t="n"/>
+      <c r="I24" s="63" t="inlineStr">
+        <is>
+          <t>CUMPLIMENTADO</t>
+        </is>
+      </c>
+      <c r="J24" s="117" t="n"/>
+      <c r="K24" s="72" t="inlineStr">
+        <is>
+          <t>(Jefe de equipo)</t>
+        </is>
+      </c>
+      <c r="L24" s="116" t="n"/>
+      <c r="M24" s="73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N24" s="116" t="n"/>
+      <c r="O24" s="116" t="n"/>
+      <c r="P24" s="117" t="n"/>
+      <c r="Q24" s="63" t="inlineStr">
+        <is>
+          <t>CONFORME</t>
+        </is>
+      </c>
+      <c r="R24" s="116" t="n"/>
+      <c r="S24" s="117" t="n"/>
+      <c r="T24" s="74" t="inlineStr">
+        <is>
+          <t>(Encargado)</t>
+        </is>
+      </c>
+      <c r="U24" s="117" t="n"/>
+      <c r="V24" s="75" t="inlineStr">
+        <is>
+          <t>M. Martín</t>
+        </is>
+      </c>
+      <c r="W24" s="116" t="n"/>
+      <c r="X24" s="116" t="n"/>
+      <c r="Y24" s="116" t="n"/>
+      <c r="Z24" s="116" t="n"/>
+      <c r="AA24" s="116" t="n"/>
+      <c r="AB24" s="116" t="n"/>
+      <c r="AC24" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="25">
+      <c r="A25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B25" s="116" t="n"/>
+      <c r="C25" s="116" t="n"/>
+      <c r="D25" s="117" t="n"/>
+      <c r="E25" s="128" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="F25" s="116" t="n"/>
+      <c r="G25" s="116" t="n"/>
+      <c r="H25" s="117" t="n"/>
+      <c r="I25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="J25" s="117" t="n"/>
+      <c r="K25" s="129" t="n"/>
+      <c r="L25" s="116" t="n"/>
+      <c r="M25" s="116" t="n"/>
+      <c r="N25" s="116" t="n"/>
+      <c r="O25" s="116" t="n"/>
+      <c r="P25" s="117" t="n"/>
+      <c r="Q25" s="63" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="R25" s="116" t="n"/>
+      <c r="S25" s="117" t="n"/>
+      <c r="T25" s="129" t="n"/>
+      <c r="U25" s="116" t="n"/>
+      <c r="V25" s="116" t="n"/>
+      <c r="W25" s="116" t="n"/>
+      <c r="X25" s="116" t="n"/>
+      <c r="Y25" s="116" t="n"/>
+      <c r="Z25" s="116" t="n"/>
+      <c r="AA25" s="116" t="n"/>
+      <c r="AB25" s="116" t="n"/>
+      <c r="AC25" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.95" r="26">
+      <c r="A26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="B26" s="116" t="n"/>
+      <c r="C26" s="116" t="n"/>
+      <c r="D26" s="117" t="n"/>
+      <c r="E26" s="66" t="n"/>
+      <c r="F26" s="116" t="n"/>
+      <c r="G26" s="116" t="n"/>
+      <c r="H26" s="117" t="n"/>
+      <c r="I26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="J26" s="117" t="n"/>
+      <c r="K26" s="67" t="n"/>
+      <c r="L26" s="116" t="n"/>
+      <c r="M26" s="116" t="n"/>
+      <c r="N26" s="116" t="n"/>
+      <c r="O26" s="116" t="n"/>
+      <c r="P26" s="117" t="n"/>
+      <c r="Q26" s="63" t="inlineStr">
+        <is>
+          <t>FIRMA</t>
+        </is>
+      </c>
+      <c r="R26" s="116" t="n"/>
+      <c r="S26" s="117" t="n"/>
+      <c r="T26" s="67" t="n"/>
+      <c r="U26" s="116" t="n"/>
+      <c r="V26" s="116" t="n"/>
+      <c r="W26" s="116" t="n"/>
+      <c r="X26" s="116" t="n"/>
+      <c r="Y26" s="116" t="n"/>
+      <c r="Z26" s="116" t="n"/>
+      <c r="AA26" s="116" t="n"/>
+      <c r="AB26" s="116" t="n"/>
+      <c r="AC26" s="117" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="inlineStr">
+        <is>
+          <t>ACP = Operación aceptada; RCH = Operación rechazada; P.E. = Punto de espera.</t>
+        </is>
+      </c>
+      <c r="B27" s="43" t="n"/>
+      <c r="C27" s="43" t="n"/>
+      <c r="D27" s="43" t="n"/>
+      <c r="E27" s="43" t="n"/>
+      <c r="F27" s="43" t="n"/>
+      <c r="G27" s="43" t="n"/>
+      <c r="H27" s="43" t="n"/>
+      <c r="I27" s="43" t="n"/>
+      <c r="J27" s="43" t="n"/>
+      <c r="K27" s="43" t="n"/>
+      <c r="L27" s="43" t="n"/>
+      <c r="M27" s="43" t="n"/>
+      <c r="N27" s="43" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="inlineStr">
+        <is>
+          <t>En el caso de que la operación sea rechazada, indicar en el apartado observaciones el motivo.</t>
+        </is>
+      </c>
+      <c r="B28" s="43" t="n"/>
+      <c r="C28" s="43" t="n"/>
+      <c r="D28" s="43" t="n"/>
+      <c r="E28" s="43" t="n"/>
+      <c r="F28" s="43" t="n"/>
+      <c r="G28" s="43" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="43" t="n"/>
+      <c r="J28" s="43" t="n"/>
+      <c r="K28" s="43" t="n"/>
+      <c r="L28" s="43" t="n"/>
+      <c r="M28" s="43" t="n"/>
+      <c r="N28" s="43" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*En el caso de no ser satisfactoria indicar el motivo en el apartado "Comentarios". </t>
+        </is>
+      </c>
+      <c r="B29" s="43" t="n"/>
+      <c r="C29" s="43" t="n"/>
+      <c r="D29" s="43" t="n"/>
+      <c r="E29" s="43" t="n"/>
+      <c r="F29" s="43" t="n"/>
+      <c r="G29" s="43" t="n"/>
+      <c r="H29" s="43" t="n"/>
+      <c r="I29" s="43" t="n"/>
+      <c r="J29" s="43" t="n"/>
+      <c r="K29" s="43" t="n"/>
+      <c r="L29" s="43" t="n"/>
+      <c r="M29" s="43" t="n"/>
+      <c r="N29" s="43" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:V4"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:AC6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="A15:AC15"/>
+    <mergeCell ref="A16:B22"/>
+    <mergeCell ref="C16:F22"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="A23:AA23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:AC26"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0" footer="0.511805555555555" header="0.511805555555555" left="0.118055555555556" right="0.118055555555556" top="0.236111111111111"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="landscape" paperSize="9" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AH37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="52" width="6.5703125"/>
+    <col customWidth="1" max="2" min="2" style="52" width="15"/>
+    <col customWidth="1" max="3" min="3" style="52" width="18.85546875"/>
+    <col customWidth="1" max="4" min="4" style="52" width="4.28515625"/>
+    <col customWidth="1" max="13" min="5" style="45" width="4.28515625"/>
+    <col customWidth="1" max="14" min="14" style="52" width="2.7109375"/>
+    <col customWidth="1" max="15" min="15" style="45" width="2.28515625"/>
+    <col customWidth="1" max="16" min="16" style="52" width="4"/>
+    <col customWidth="1" max="17" min="17" style="52" width="3.85546875"/>
+    <col customWidth="1" max="1025" min="18" style="52" width="10.5703125"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15" r="1">
+      <c r="A1" s="46" t="n"/>
+      <c r="B1" s="47" t="n"/>
+      <c r="C1" s="106" t="inlineStr">
+        <is>
+          <t>PROGRAMA DE PUNTOS DE INSPECCIÓN (Operaciones)</t>
+        </is>
+      </c>
+      <c r="D1" s="114" t="n"/>
+      <c r="E1" s="114" t="n"/>
+      <c r="F1" s="114" t="n"/>
+      <c r="G1" s="114" t="n"/>
+      <c r="H1" s="114" t="n"/>
+      <c r="I1" s="114" t="n"/>
+      <c r="J1" s="114" t="n"/>
+      <c r="K1" s="115" t="n"/>
+      <c r="L1" s="107" t="inlineStr">
+        <is>
+          <t>NÚMERO</t>
+        </is>
+      </c>
+      <c r="M1" s="116" t="n"/>
+      <c r="N1" s="108" t="inlineStr">
+        <is>
+          <t>0022/20</t>
+        </is>
+      </c>
+      <c r="O1" s="116" t="n"/>
+      <c r="P1" s="116" t="n"/>
+      <c r="Q1" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="2">
+      <c r="A2" s="48" t="n"/>
+      <c r="B2" s="49" t="n"/>
+      <c r="C2" s="118" t="n"/>
+      <c r="K2" s="119" t="n"/>
+      <c r="L2" s="109" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="M2" s="114" t="n"/>
+      <c r="N2" s="110" t="inlineStr">
+        <is>
+          <t>FESTIVO</t>
+        </is>
+      </c>
+      <c r="O2" s="114" t="n"/>
+      <c r="P2" s="114" t="n"/>
+      <c r="Q2" s="21" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="n"/>
+      <c r="B3" s="49" t="n"/>
+      <c r="C3" s="118" t="n"/>
+      <c r="K3" s="119" t="n"/>
+      <c r="L3" s="130" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="O3" s="94" t="inlineStr">
+        <is>
+          <t>Hoja: 2 de 2</t>
+        </is>
+      </c>
+      <c r="Q3" s="119" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="51" t="n"/>
+      <c r="C4" s="112" t="n"/>
+      <c r="D4" s="121" t="n"/>
+      <c r="E4" s="121" t="n"/>
+      <c r="F4" s="121" t="n"/>
+      <c r="G4" s="121" t="n"/>
+      <c r="H4" s="121" t="n"/>
+      <c r="I4" s="121" t="n"/>
+      <c r="J4" s="121" t="n"/>
+      <c r="K4" s="122" t="n"/>
+      <c r="L4" s="121" t="n"/>
+      <c r="M4" s="121" t="n"/>
+      <c r="N4" s="121" t="n"/>
+      <c r="O4" s="121" t="n"/>
+      <c r="P4" s="121" t="n"/>
+      <c r="Q4" s="122" t="n"/>
+    </row>
+    <row customHeight="1" ht="21" r="5">
+      <c r="A5" s="113" t="inlineStr">
+        <is>
+          <t>CENTRO DE CONSERVACIÓN 73.594/00</t>
+        </is>
+      </c>
+      <c r="B5" s="116" t="n"/>
+      <c r="C5" s="116" t="n"/>
+      <c r="D5" s="116" t="n"/>
+      <c r="E5" s="116" t="n"/>
+      <c r="F5" s="116" t="n"/>
+      <c r="G5" s="116" t="n"/>
+      <c r="H5" s="116" t="n"/>
+      <c r="I5" s="116" t="n"/>
+      <c r="J5" s="116" t="n"/>
+      <c r="K5" s="116" t="n"/>
+      <c r="L5" s="116" t="n"/>
+      <c r="M5" s="116" t="n"/>
+      <c r="N5" s="116" t="n"/>
+      <c r="O5" s="116" t="n"/>
+      <c r="P5" s="116" t="n"/>
+      <c r="Q5" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="6">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>PERSONAL</t>
+        </is>
+      </c>
+      <c r="B6" s="116" t="n"/>
+      <c r="C6" s="116" t="n"/>
+      <c r="D6" s="116" t="n"/>
+      <c r="E6" s="116" t="n"/>
+      <c r="F6" s="116" t="n"/>
+      <c r="G6" s="116" t="n"/>
+      <c r="H6" s="116" t="n"/>
+      <c r="I6" s="116" t="n"/>
+      <c r="J6" s="116" t="n"/>
+      <c r="K6" s="116" t="n"/>
+      <c r="L6" s="116" t="n"/>
+      <c r="M6" s="116" t="n"/>
+      <c r="N6" s="116" t="n"/>
+      <c r="O6" s="116" t="n"/>
+      <c r="P6" s="116" t="n"/>
+      <c r="Q6" s="117" t="n"/>
+      <c r="R6" s="52" t="n"/>
+      <c r="S6" s="52" t="n"/>
+      <c r="T6" s="52" t="n"/>
+      <c r="U6" s="52" t="n"/>
+      <c r="V6" s="52" t="n"/>
+      <c r="W6" s="52" t="n"/>
+      <c r="X6" s="52" t="n"/>
+      <c r="Y6" s="52" t="n"/>
+      <c r="Z6" s="52" t="n"/>
+      <c r="AA6" s="52" t="n"/>
+      <c r="AB6" s="52" t="n"/>
+      <c r="AC6" s="52" t="n"/>
+      <c r="AD6" s="52" t="n"/>
+      <c r="AE6" s="52" t="n"/>
+      <c r="AF6" s="52" t="n"/>
+      <c r="AG6" s="52" t="n"/>
+      <c r="AH6" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="7">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B7" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE Y APELLIDOS</t>
+        </is>
+      </c>
+      <c r="C7" s="117" t="n"/>
+      <c r="D7" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="117" t="n"/>
+      <c r="F7" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="117" t="n"/>
+      <c r="H7" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="117" t="n"/>
+      <c r="J7" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="117" t="n"/>
+      <c r="L7" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" s="117" t="n"/>
+      <c r="N7" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O7" s="116" t="n"/>
+      <c r="P7" s="116" t="n"/>
+      <c r="Q7" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="8">
+      <c r="A8" s="54" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B8" s="105">
+        <f>IF(A8="","",VLOOKUP(A8,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="117" t="n"/>
+      <c r="D8" s="101" t="n"/>
+      <c r="E8" s="117" t="n"/>
+      <c r="F8" s="101" t="n"/>
+      <c r="G8" s="117" t="n"/>
+      <c r="H8" s="101" t="n"/>
+      <c r="I8" s="117" t="n"/>
+      <c r="J8" s="101" t="n"/>
+      <c r="K8" s="117" t="n"/>
+      <c r="L8" s="101" t="n"/>
+      <c r="M8" s="117" t="n"/>
+      <c r="N8" s="101" t="n"/>
+      <c r="O8" s="116" t="n"/>
+      <c r="P8" s="116" t="n"/>
+      <c r="Q8" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="9">
+      <c r="A9" s="54" t="n"/>
+      <c r="B9" s="105">
+        <f>IF(A9="","",VLOOKUP(A9,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="117" t="n"/>
+      <c r="D9" s="101" t="n"/>
+      <c r="E9" s="117" t="n"/>
+      <c r="F9" s="101" t="n"/>
+      <c r="G9" s="117" t="n"/>
+      <c r="H9" s="101" t="n"/>
+      <c r="I9" s="117" t="n"/>
+      <c r="J9" s="101" t="n"/>
+      <c r="K9" s="117" t="n"/>
+      <c r="L9" s="101" t="n"/>
+      <c r="M9" s="117" t="n"/>
+      <c r="N9" s="101" t="n"/>
+      <c r="O9" s="116" t="n"/>
+      <c r="P9" s="116" t="n"/>
+      <c r="Q9" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="10">
+      <c r="A10" s="54" t="n"/>
+      <c r="B10" s="105">
+        <f>IF(A10="","",VLOOKUP(A10,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="117" t="n"/>
+      <c r="D10" s="101" t="n"/>
+      <c r="E10" s="117" t="n"/>
+      <c r="F10" s="101" t="n"/>
+      <c r="G10" s="117" t="n"/>
+      <c r="H10" s="101" t="n"/>
+      <c r="I10" s="117" t="n"/>
+      <c r="J10" s="101" t="n"/>
+      <c r="K10" s="117" t="n"/>
+      <c r="L10" s="101" t="n"/>
+      <c r="M10" s="117" t="n"/>
+      <c r="N10" s="101" t="n"/>
+      <c r="O10" s="116" t="n"/>
+      <c r="P10" s="116" t="n"/>
+      <c r="Q10" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="11">
+      <c r="A11" s="54" t="n"/>
+      <c r="B11" s="105">
+        <f>IF(A11="","",VLOOKUP(A11,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="117" t="n"/>
+      <c r="D11" s="101" t="n"/>
+      <c r="E11" s="117" t="n"/>
+      <c r="F11" s="101" t="n"/>
+      <c r="G11" s="117" t="n"/>
+      <c r="H11" s="101" t="n"/>
+      <c r="I11" s="117" t="n"/>
+      <c r="J11" s="101" t="n"/>
+      <c r="K11" s="117" t="n"/>
+      <c r="L11" s="101" t="n"/>
+      <c r="M11" s="117" t="n"/>
+      <c r="N11" s="101" t="n"/>
+      <c r="O11" s="116" t="n"/>
+      <c r="P11" s="116" t="n"/>
+      <c r="Q11" s="117" t="n"/>
+      <c r="T11" s="52" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="12">
+      <c r="A12" s="54" t="n"/>
+      <c r="B12" s="105">
+        <f>IF(A12="","",VLOOKUP(A12,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="117" t="n"/>
+      <c r="D12" s="101" t="n"/>
+      <c r="E12" s="117" t="n"/>
+      <c r="F12" s="101" t="n"/>
+      <c r="G12" s="117" t="n"/>
+      <c r="H12" s="101" t="n"/>
+      <c r="I12" s="117" t="n"/>
+      <c r="J12" s="101" t="n"/>
+      <c r="K12" s="117" t="n"/>
+      <c r="L12" s="101" t="n"/>
+      <c r="M12" s="117" t="n"/>
+      <c r="N12" s="101" t="n"/>
+      <c r="O12" s="116" t="n"/>
+      <c r="P12" s="116" t="n"/>
+      <c r="Q12" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="13">
+      <c r="A13" s="54" t="n"/>
+      <c r="B13" s="105">
+        <f>IF(A13="","",VLOOKUP(A13,Listas!P1:Q32,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="117" t="n"/>
+      <c r="D13" s="101" t="n"/>
+      <c r="E13" s="117" t="n"/>
+      <c r="F13" s="101" t="n"/>
+      <c r="G13" s="117" t="n"/>
+      <c r="H13" s="101" t="n"/>
+      <c r="I13" s="117" t="n"/>
+      <c r="J13" s="101" t="n"/>
+      <c r="K13" s="117" t="n"/>
+      <c r="L13" s="101" t="n"/>
+      <c r="M13" s="117" t="n"/>
+      <c r="N13" s="101" t="n"/>
+      <c r="O13" s="116" t="n"/>
+      <c r="P13" s="116" t="n"/>
+      <c r="Q13" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.75" r="14">
+      <c r="A14" s="102" t="n"/>
+      <c r="B14" s="116" t="n"/>
+      <c r="C14" s="116" t="n"/>
+      <c r="D14" s="116" t="n"/>
+      <c r="E14" s="116" t="n"/>
+      <c r="F14" s="116" t="n"/>
+      <c r="G14" s="116" t="n"/>
+      <c r="H14" s="116" t="n"/>
+      <c r="I14" s="116" t="n"/>
+      <c r="J14" s="116" t="n"/>
+      <c r="K14" s="116" t="n"/>
+      <c r="L14" s="116" t="n"/>
+      <c r="M14" s="116" t="n"/>
+      <c r="N14" s="116" t="n"/>
+      <c r="O14" s="116" t="n"/>
+      <c r="P14" s="116" t="n"/>
+      <c r="Q14" s="116" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>MAQUINARIA Y MEDIOS AUXILIARES</t>
+        </is>
+      </c>
+      <c r="B15" s="116" t="n"/>
+      <c r="C15" s="116" t="n"/>
+      <c r="D15" s="116" t="n"/>
+      <c r="E15" s="116" t="n"/>
+      <c r="F15" s="116" t="n"/>
+      <c r="G15" s="116" t="n"/>
+      <c r="H15" s="116" t="n"/>
+      <c r="I15" s="116" t="n"/>
+      <c r="J15" s="116" t="n"/>
+      <c r="K15" s="116" t="n"/>
+      <c r="L15" s="116" t="n"/>
+      <c r="M15" s="116" t="n"/>
+      <c r="N15" s="116" t="n"/>
+      <c r="O15" s="116" t="n"/>
+      <c r="P15" s="116" t="n"/>
+      <c r="Q15" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="17.45" r="16">
+      <c r="A16" s="55" t="inlineStr">
+        <is>
+          <t>CÓDIGO</t>
+        </is>
+      </c>
+      <c r="B16" s="63" t="inlineStr">
+        <is>
+          <t>DENOMINACIÓN</t>
+        </is>
+      </c>
+      <c r="C16" s="117" t="n"/>
+      <c r="D16" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="117" t="n"/>
+      <c r="F16" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="117" t="n"/>
+      <c r="H16" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="117" t="n"/>
+      <c r="J16" s="103" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="117" t="n"/>
+      <c r="L16" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" s="117" t="n"/>
+      <c r="N16" s="104" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="O16" s="116" t="n"/>
+      <c r="P16" s="116" t="n"/>
+      <c r="Q16" s="117" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.25" r="17">
+      <c r="A17" s="54" t="n">
+        <v>203</v>
       </c>
       <c r="B17" s="105">
         <f>VLOOKUP(A17,Listas!J3:K34,2,0)</f>

--- a/dissenyador/07.04.2020.xlsx
+++ b/dissenyador/07.04.2020.xlsx
@@ -7,16 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Listas" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="parte 0019A" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="parte 0019B" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="parte 0020A" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="parte 0020B" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="parte 0021A" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="parte 0021B" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="parte 0022A" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="parte 0022B" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="parte 0023A" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="parte 0023B" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="parte 0200A" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parte 0200B" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parte 0201A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="parte 0201B" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="parte 0202A" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="parte 0202B" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="parte 0203A" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="parte 0203B" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="parte 0204A" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="parte 0204B" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId12"/>
@@ -10513,7 +10513,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0023/20</t>
+          <t>0204/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -11193,7 +11193,7 @@
       <c r="C17" s="118" t="n"/>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="H17" s="68">
@@ -11781,7 +11781,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0023/20</t>
+          <t>0204/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -11951,7 +11951,7 @@
     <row customHeight="1" ht="23.25" r="8">
       <c r="A8" s="54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B8" s="105">
@@ -12997,7 +12997,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0019/20</t>
+          <t>0200/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -13678,7 +13678,7 @@
       <c r="C17" s="118" t="n"/>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H17" s="68">
@@ -14266,7 +14266,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0019/20</t>
+          <t>0200/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -14436,7 +14436,7 @@
     <row customHeight="1" ht="23.25" r="8">
       <c r="A8" s="54" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B8" s="105">
@@ -15484,7 +15484,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0020/20</t>
+          <t>0201/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -16753,7 +16753,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0020/20</t>
+          <t>0201/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -17971,7 +17971,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0021/20</t>
+          <t>0202/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -18651,7 +18651,7 @@
       <c r="C17" s="118" t="n"/>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" s="68">
@@ -19239,7 +19239,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0021/20</t>
+          <t>0202/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -19409,7 +19409,7 @@
     <row customHeight="1" ht="23.25" r="8">
       <c r="A8" s="54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" s="105">
@@ -20455,7 +20455,7 @@
       <c r="X1" s="19" t="n"/>
       <c r="Y1" s="91" t="inlineStr">
         <is>
-          <t>0022/20</t>
+          <t>0203/20</t>
         </is>
       </c>
       <c r="Z1" s="116" t="n"/>
@@ -21135,7 +21135,7 @@
       <c r="C17" s="118" t="n"/>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H17" s="68">
@@ -21723,7 +21723,7 @@
       <c r="M1" s="116" t="n"/>
       <c r="N1" s="108" t="inlineStr">
         <is>
-          <t>0022/20</t>
+          <t>0203/20</t>
         </is>
       </c>
       <c r="O1" s="116" t="n"/>
@@ -21893,7 +21893,7 @@
     <row customHeight="1" ht="23.25" r="8">
       <c r="A8" s="54" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B8" s="105">
